--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="223">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['20', '69', '76', '78', '83']</t>
   </si>
   <si>
+    <t>['45', '55', '84']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -677,6 +680,9 @@
   </si>
   <si>
     <t>['9', '59']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1303,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1581,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -1709,7 +1715,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1996,7 +2002,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2121,7 +2127,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2327,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3151,7 +3157,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3357,7 +3363,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3769,7 +3775,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4593,7 +4599,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5289,7 +5295,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21">
         <v>1.57</v>
@@ -5623,7 +5629,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5829,7 +5835,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6035,7 +6041,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6241,7 +6247,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6447,7 +6453,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7889,7 +7895,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8095,7 +8101,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8301,7 +8307,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8379,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8507,7 +8513,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8919,7 +8925,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9206,7 +9212,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9331,7 +9337,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9537,7 +9543,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9743,7 +9749,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10648,7 +10654,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -11185,7 +11191,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11597,7 +11603,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11678,7 +11684,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12009,7 +12015,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12215,7 +12221,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12421,7 +12427,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12627,7 +12633,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13039,7 +13045,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13120,7 +13126,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13657,7 +13663,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13863,7 +13869,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14069,7 +14075,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14275,7 +14281,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14481,7 +14487,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14687,7 +14693,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14893,7 +14899,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15383,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ70">
         <v>0.71</v>
@@ -15717,7 +15723,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15923,7 +15929,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16335,7 +16341,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16541,7 +16547,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16747,7 +16753,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17240,7 +17246,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17365,7 +17371,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17571,7 +17577,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17777,7 +17783,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17983,7 +17989,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18189,7 +18195,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18395,7 +18401,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18601,7 +18607,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19013,7 +19019,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19219,7 +19225,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19297,7 +19303,7 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
         <v>2.33</v>
@@ -19631,7 +19637,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19712,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.11</v>
@@ -19837,7 +19843,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20249,7 +20255,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21073,7 +21079,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21357,7 +21363,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21691,7 +21697,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21772,7 +21778,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22515,7 +22521,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23339,7 +23345,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23545,7 +23551,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23957,7 +23963,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24114,6 +24120,212 @@
       </c>
       <c r="BP112">
         <v>1.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7468204</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45619.39583333334</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>83</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>165</v>
+      </c>
+      <c r="P113" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q113">
+        <v>3.25</v>
+      </c>
+      <c r="R113">
+        <v>2.2</v>
+      </c>
+      <c r="S113">
+        <v>3.2</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>3.07</v>
+      </c>
+      <c r="AA113">
+        <v>2.96</v>
+      </c>
+      <c r="AB113">
+        <v>2.26</v>
+      </c>
+      <c r="AC113">
+        <v>1</v>
+      </c>
+      <c r="AD113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE113">
+        <v>1.28</v>
+      </c>
+      <c r="AF113">
+        <v>3.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.88</v>
+      </c>
+      <c r="AH113">
+        <v>1.94</v>
+      </c>
+      <c r="AI113">
+        <v>1.7</v>
+      </c>
+      <c r="AJ113">
+        <v>2.05</v>
+      </c>
+      <c r="AK113">
+        <v>1.5</v>
+      </c>
+      <c r="AL113">
+        <v>1.25</v>
+      </c>
+      <c r="AM113">
+        <v>1.47</v>
+      </c>
+      <c r="AN113">
+        <v>1.67</v>
+      </c>
+      <c r="AO113">
+        <v>1.5</v>
+      </c>
+      <c r="AP113">
+        <v>1.86</v>
+      </c>
+      <c r="AQ113">
+        <v>1.33</v>
+      </c>
+      <c r="AR113">
+        <v>1.63</v>
+      </c>
+      <c r="AS113">
+        <v>1.63</v>
+      </c>
+      <c r="AT113">
+        <v>3.26</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>23</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>8</v>
+      </c>
+      <c r="BC113">
+        <v>12</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -684,6 +684,15 @@
   <si>
     <t>['35']</t>
   </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
 </sst>
 </file>
 
@@ -1044,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>0.63</v>
@@ -1590,7 +1599,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2208,7 +2217,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2617,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>2.33</v>
@@ -2823,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -4883,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>0.29</v>
@@ -5089,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5298,7 +5307,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5913,10 +5922,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -7767,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>0.29</v>
@@ -8594,7 +8603,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -9006,7 +9015,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9209,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9827,7 +9836,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -11063,7 +11072,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11269,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -12096,7 +12105,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12302,7 +12311,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12917,7 +12926,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13538,7 +13547,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -14565,7 +14574,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>1.14</v>
@@ -15183,7 +15192,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15804,7 +15813,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -17861,7 +17870,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>1.14</v>
@@ -18276,7 +18285,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.81</v>
@@ -18479,7 +18488,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
         <v>1.17</v>
@@ -18688,7 +18697,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19097,7 +19106,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -21160,7 +21169,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -21775,7 +21784,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22393,10 +22402,10 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR104">
         <v>1.15</v>
@@ -22599,7 +22608,7 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ105">
         <v>2.33</v>
@@ -24280,51 +24289,669 @@
         <v>23</v>
       </c>
       <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>9</v>
+      </c>
+      <c r="BC113">
+        <v>15</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7468206</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>99</v>
+      </c>
+      <c r="P114" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q114">
+        <v>1.73</v>
+      </c>
+      <c r="R114">
+        <v>2.63</v>
+      </c>
+      <c r="S114">
+        <v>8.5</v>
+      </c>
+      <c r="T114">
+        <v>1.29</v>
+      </c>
+      <c r="U114">
+        <v>3.5</v>
+      </c>
+      <c r="V114">
+        <v>2.38</v>
+      </c>
+      <c r="W114">
+        <v>1.53</v>
+      </c>
+      <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.14</v>
+      </c>
+      <c r="Z114">
+        <v>1.24</v>
+      </c>
+      <c r="AA114">
+        <v>4.84</v>
+      </c>
+      <c r="AB114">
+        <v>7.43</v>
+      </c>
+      <c r="AC114">
+        <v>1.01</v>
+      </c>
+      <c r="AD114">
+        <v>13</v>
+      </c>
+      <c r="AE114">
+        <v>1.16</v>
+      </c>
+      <c r="AF114">
+        <v>4.75</v>
+      </c>
+      <c r="AG114">
+        <v>1.57</v>
+      </c>
+      <c r="AH114">
+        <v>2.25</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.02</v>
+      </c>
+      <c r="AL114">
+        <v>1.1</v>
+      </c>
+      <c r="AM114">
+        <v>3.5</v>
+      </c>
+      <c r="AN114">
+        <v>1.67</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>1.57</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.87</v>
+      </c>
+      <c r="AS114">
+        <v>1.26</v>
+      </c>
+      <c r="AT114">
+        <v>3.13</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>6</v>
+      </c>
+      <c r="AW114">
+        <v>9</v>
+      </c>
+      <c r="AX114">
+        <v>1</v>
+      </c>
+      <c r="AY114">
+        <v>18</v>
+      </c>
+      <c r="AZ114">
+        <v>7</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>6</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7468203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F115">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>82</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>151</v>
+      </c>
+      <c r="P115" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>3.75</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.63</v>
+      </c>
+      <c r="V115">
+        <v>3.25</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>9</v>
+      </c>
+      <c r="Y115">
+        <v>1.07</v>
+      </c>
+      <c r="Z115">
+        <v>3.09</v>
+      </c>
+      <c r="AA115">
+        <v>4.51</v>
+      </c>
+      <c r="AB115">
+        <v>1.77</v>
+      </c>
+      <c r="AC115">
+        <v>1.03</v>
+      </c>
+      <c r="AD115">
+        <v>6.8</v>
+      </c>
+      <c r="AE115">
+        <v>1.33</v>
+      </c>
+      <c r="AF115">
+        <v>3.1</v>
+      </c>
+      <c r="AG115">
+        <v>2.04</v>
+      </c>
+      <c r="AH115">
+        <v>1.78</v>
+      </c>
+      <c r="AI115">
+        <v>1.8</v>
+      </c>
+      <c r="AJ115">
+        <v>1.95</v>
+      </c>
+      <c r="AK115">
+        <v>1.35</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.63</v>
+      </c>
+      <c r="AN115">
+        <v>1.71</v>
+      </c>
+      <c r="AO115">
+        <v>1.14</v>
+      </c>
+      <c r="AP115">
+        <v>1.63</v>
+      </c>
+      <c r="AQ115">
+        <v>1.13</v>
+      </c>
+      <c r="AR115">
+        <v>1.11</v>
+      </c>
+      <c r="AS115">
+        <v>1.28</v>
+      </c>
+      <c r="AT115">
+        <v>2.39</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
         <v>4</v>
       </c>
-      <c r="BB113">
+      <c r="AX115">
+        <v>7</v>
+      </c>
+      <c r="AY115">
+        <v>15</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>3</v>
+      </c>
+      <c r="BB115">
+        <v>9</v>
+      </c>
+      <c r="BC115">
+        <v>12</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7468205</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45619.625</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>88</v>
+      </c>
+      <c r="P116" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q116">
+        <v>4.33</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>2.75</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3.25</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>3.25</v>
+      </c>
+      <c r="AA116">
+        <v>3.3</v>
+      </c>
+      <c r="AB116">
+        <v>2.03</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
         <v>8</v>
       </c>
-      <c r="BC113">
-        <v>12</v>
-      </c>
-      <c r="BD113">
-        <v>0</v>
-      </c>
-      <c r="BE113">
-        <v>0</v>
-      </c>
-      <c r="BF113">
-        <v>0</v>
-      </c>
-      <c r="BG113">
-        <v>0</v>
-      </c>
-      <c r="BH113">
-        <v>0</v>
-      </c>
-      <c r="BI113">
-        <v>0</v>
-      </c>
-      <c r="BJ113">
-        <v>0</v>
-      </c>
-      <c r="BK113">
-        <v>0</v>
-      </c>
-      <c r="BL113">
-        <v>0</v>
-      </c>
-      <c r="BM113">
-        <v>0</v>
-      </c>
-      <c r="BN113">
-        <v>0</v>
-      </c>
-      <c r="BO113">
-        <v>0</v>
-      </c>
-      <c r="BP113">
+      <c r="AE116">
+        <v>1.36</v>
+      </c>
+      <c r="AF116">
+        <v>3</v>
+      </c>
+      <c r="AG116">
+        <v>2.07</v>
+      </c>
+      <c r="AH116">
+        <v>1.71</v>
+      </c>
+      <c r="AI116">
+        <v>1.91</v>
+      </c>
+      <c r="AJ116">
+        <v>1.91</v>
+      </c>
+      <c r="AK116">
+        <v>1.78</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.25</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.57</v>
+      </c>
+      <c r="AP116">
+        <v>1.75</v>
+      </c>
+      <c r="AQ116">
+        <v>1.75</v>
+      </c>
+      <c r="AR116">
+        <v>1.34</v>
+      </c>
+      <c r="AS116">
+        <v>1.2</v>
+      </c>
+      <c r="AT116">
+        <v>2.54</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>10</v>
+      </c>
+      <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
+        <v>17</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>8</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,15 @@
     <t>['45', '55', '84']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['67', '75', '85']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -584,9 +593,6 @@
   </si>
   <si>
     <t>['26', '85']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -685,13 +691,19 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['61']</t>
   </si>
   <si>
-    <t>['23']</t>
+    <t>['83']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['15', '38', '55', '88']</t>
+  </si>
+  <si>
+    <t>['4', '21', '47', '73']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1324,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1393,7 +1405,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1724,7 +1736,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1802,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ4">
         <v>1.14</v>
@@ -2008,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2136,7 +2148,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2342,7 +2354,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2420,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2629,7 +2641,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3166,7 +3178,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3372,7 +3384,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3784,7 +3796,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4608,7 +4620,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4689,7 +4701,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4895,7 +4907,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5510,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5638,7 +5650,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5716,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5844,7 +5856,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6050,7 +6062,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6256,7 +6268,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6334,7 +6346,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6462,7 +6474,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6543,7 +6555,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -7779,7 +7791,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7904,7 +7916,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8110,7 +8122,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8188,7 +8200,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8316,7 +8328,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8522,7 +8534,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8600,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -8809,7 +8821,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -8934,7 +8946,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9012,7 +9024,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9346,7 +9358,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9424,7 +9436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
         <v>1.38</v>
@@ -9552,7 +9564,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9758,7 +9770,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10251,7 +10263,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10660,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10866,7 +10878,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ48">
         <v>1.5</v>
@@ -11200,7 +11212,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11484,10 +11496,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -11612,7 +11624,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11690,7 +11702,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -11899,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -12024,7 +12036,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12230,7 +12242,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12436,7 +12448,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12642,7 +12654,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12723,7 +12735,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13054,7 +13066,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13338,7 +13350,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>1.38</v>
@@ -13672,7 +13684,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13753,7 +13765,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -13878,7 +13890,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13956,7 +13968,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14084,7 +14096,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14162,10 +14174,10 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ64">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14290,7 +14302,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14496,7 +14508,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14702,7 +14714,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14783,7 +14795,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14908,7 +14920,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15732,7 +15744,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15938,7 +15950,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16016,10 +16028,10 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16222,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16350,7 +16362,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16431,7 +16443,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16556,7 +16568,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16634,7 +16646,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -16762,7 +16774,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17049,7 +17061,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17380,7 +17392,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17458,7 +17470,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17586,7 +17598,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17792,7 +17804,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17998,7 +18010,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18079,7 +18091,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18204,7 +18216,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18410,7 +18422,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18491,7 +18503,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18616,7 +18628,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18694,7 +18706,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -18900,7 +18912,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ87">
         <v>0</v>
@@ -19028,7 +19040,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19234,7 +19246,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19315,7 +19327,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ89">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -19646,7 +19658,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19852,7 +19864,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19930,7 +19942,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20136,7 +20148,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20264,7 +20276,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20757,7 +20769,7 @@
         <v>3</v>
       </c>
       <c r="AQ96">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR96">
         <v>2.31</v>
@@ -21088,7 +21100,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21578,7 +21590,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1.14</v>
@@ -21706,7 +21718,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21990,10 +22002,10 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22196,10 +22208,10 @@
         <v>0.57</v>
       </c>
       <c r="AP103">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ103">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22530,7 +22542,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22611,7 +22623,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -22817,7 +22829,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ106">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23354,7 +23366,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23560,7 +23572,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23972,7 +23984,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24145,7 +24157,7 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.39583333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -24178,7 +24190,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24342,7 +24354,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7468206</v>
+        <v>7468203</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24351,25 +24363,25 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H114" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -24381,127 +24393,127 @@
         <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="P114" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q114">
-        <v>1.73</v>
+        <v>2.88</v>
       </c>
       <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>3.75</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
         <v>2.63</v>
       </c>
-      <c r="S114">
-        <v>8.5</v>
-      </c>
-      <c r="T114">
-        <v>1.29</v>
-      </c>
-      <c r="U114">
-        <v>3.5</v>
-      </c>
       <c r="V114">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="W114">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="X114">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>3.09</v>
+      </c>
+      <c r="AA114">
+        <v>4.51</v>
+      </c>
+      <c r="AB114">
+        <v>1.77</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>6.8</v>
+      </c>
+      <c r="AE114">
+        <v>1.33</v>
+      </c>
+      <c r="AF114">
+        <v>3.1</v>
+      </c>
+      <c r="AG114">
+        <v>2.04</v>
+      </c>
+      <c r="AH114">
+        <v>1.78</v>
+      </c>
+      <c r="AI114">
+        <v>1.8</v>
+      </c>
+      <c r="AJ114">
+        <v>1.95</v>
+      </c>
+      <c r="AK114">
+        <v>1.35</v>
+      </c>
+      <c r="AL114">
+        <v>1.25</v>
+      </c>
+      <c r="AM114">
+        <v>1.63</v>
+      </c>
+      <c r="AN114">
+        <v>1.71</v>
+      </c>
+      <c r="AO114">
         <v>1.14</v>
       </c>
-      <c r="Z114">
-        <v>1.24</v>
-      </c>
-      <c r="AA114">
-        <v>4.84</v>
-      </c>
-      <c r="AB114">
-        <v>7.43</v>
-      </c>
-      <c r="AC114">
-        <v>1.01</v>
-      </c>
-      <c r="AD114">
+      <c r="AP114">
+        <v>1.63</v>
+      </c>
+      <c r="AQ114">
+        <v>1.13</v>
+      </c>
+      <c r="AR114">
+        <v>1.11</v>
+      </c>
+      <c r="AS114">
+        <v>1.28</v>
+      </c>
+      <c r="AT114">
+        <v>2.39</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>4</v>
+      </c>
+      <c r="AX114">
+        <v>7</v>
+      </c>
+      <c r="AY114">
+        <v>15</v>
+      </c>
+      <c r="AZ114">
         <v>13</v>
       </c>
-      <c r="AE114">
-        <v>1.16</v>
-      </c>
-      <c r="AF114">
-        <v>4.75</v>
-      </c>
-      <c r="AG114">
-        <v>1.57</v>
-      </c>
-      <c r="AH114">
-        <v>2.25</v>
-      </c>
-      <c r="AI114">
-        <v>2</v>
-      </c>
-      <c r="AJ114">
-        <v>1.75</v>
-      </c>
-      <c r="AK114">
-        <v>1.02</v>
-      </c>
-      <c r="AL114">
-        <v>1.1</v>
-      </c>
-      <c r="AM114">
-        <v>3.5</v>
-      </c>
-      <c r="AN114">
-        <v>1.67</v>
-      </c>
-      <c r="AO114">
-        <v>1</v>
-      </c>
-      <c r="AP114">
-        <v>1.57</v>
-      </c>
-      <c r="AQ114">
-        <v>1</v>
-      </c>
-      <c r="AR114">
-        <v>1.87</v>
-      </c>
-      <c r="AS114">
-        <v>1.26</v>
-      </c>
-      <c r="AT114">
-        <v>3.13</v>
-      </c>
-      <c r="AU114">
-        <v>7</v>
-      </c>
-      <c r="AV114">
-        <v>6</v>
-      </c>
-      <c r="AW114">
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
         <v>9</v>
       </c>
-      <c r="AX114">
-        <v>1</v>
-      </c>
-      <c r="AY114">
-        <v>18</v>
-      </c>
-      <c r="AZ114">
-        <v>7</v>
-      </c>
-      <c r="BA114">
-        <v>5</v>
-      </c>
-      <c r="BB114">
-        <v>1</v>
-      </c>
       <c r="BC114">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BD114">
         <v>0</v>
@@ -24548,7 +24560,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7468203</v>
+        <v>7468206</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24560,22 +24572,22 @@
         <v>45619.5</v>
       </c>
       <c r="F115">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H115" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -24587,127 +24599,127 @@
         <v>2</v>
       </c>
       <c r="O115" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q115">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R115">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="S115">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="T115">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U115">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V115">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="W115">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X115">
+        <v>5.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.14</v>
+      </c>
+      <c r="Z115">
+        <v>1.24</v>
+      </c>
+      <c r="AA115">
+        <v>4.84</v>
+      </c>
+      <c r="AB115">
+        <v>7.43</v>
+      </c>
+      <c r="AC115">
+        <v>1.01</v>
+      </c>
+      <c r="AD115">
+        <v>13</v>
+      </c>
+      <c r="AE115">
+        <v>1.16</v>
+      </c>
+      <c r="AF115">
+        <v>4.75</v>
+      </c>
+      <c r="AG115">
+        <v>1.57</v>
+      </c>
+      <c r="AH115">
+        <v>2.25</v>
+      </c>
+      <c r="AI115">
+        <v>2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.75</v>
+      </c>
+      <c r="AK115">
+        <v>1.02</v>
+      </c>
+      <c r="AL115">
+        <v>1.1</v>
+      </c>
+      <c r="AM115">
+        <v>3.5</v>
+      </c>
+      <c r="AN115">
+        <v>1.67</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>1.57</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.87</v>
+      </c>
+      <c r="AS115">
+        <v>1.26</v>
+      </c>
+      <c r="AT115">
+        <v>3.13</v>
+      </c>
+      <c r="AU115">
+        <v>7</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
         <v>9</v>
       </c>
-      <c r="Y115">
-        <v>1.07</v>
-      </c>
-      <c r="Z115">
-        <v>3.09</v>
-      </c>
-      <c r="AA115">
-        <v>4.51</v>
-      </c>
-      <c r="AB115">
-        <v>1.77</v>
-      </c>
-      <c r="AC115">
-        <v>1.03</v>
-      </c>
-      <c r="AD115">
-        <v>6.8</v>
-      </c>
-      <c r="AE115">
-        <v>1.33</v>
-      </c>
-      <c r="AF115">
-        <v>3.1</v>
-      </c>
-      <c r="AG115">
-        <v>2.04</v>
-      </c>
-      <c r="AH115">
-        <v>1.78</v>
-      </c>
-      <c r="AI115">
-        <v>1.8</v>
-      </c>
-      <c r="AJ115">
-        <v>1.95</v>
-      </c>
-      <c r="AK115">
-        <v>1.35</v>
-      </c>
-      <c r="AL115">
-        <v>1.25</v>
-      </c>
-      <c r="AM115">
-        <v>1.63</v>
-      </c>
-      <c r="AN115">
-        <v>1.71</v>
-      </c>
-      <c r="AO115">
-        <v>1.14</v>
-      </c>
-      <c r="AP115">
-        <v>1.63</v>
-      </c>
-      <c r="AQ115">
-        <v>1.13</v>
-      </c>
-      <c r="AR115">
-        <v>1.11</v>
-      </c>
-      <c r="AS115">
-        <v>1.28</v>
-      </c>
-      <c r="AT115">
-        <v>2.39</v>
-      </c>
-      <c r="AU115">
+      <c r="AX115">
+        <v>1</v>
+      </c>
+      <c r="AY115">
+        <v>18</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
         <v>5</v>
       </c>
-      <c r="AV115">
-        <v>2</v>
-      </c>
-      <c r="AW115">
-        <v>4</v>
-      </c>
-      <c r="AX115">
-        <v>7</v>
-      </c>
-      <c r="AY115">
-        <v>15</v>
-      </c>
-      <c r="AZ115">
-        <v>13</v>
-      </c>
-      <c r="BA115">
-        <v>3</v>
-      </c>
       <c r="BB115">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BC115">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BD115">
         <v>0</v>
@@ -24796,7 +24808,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -24952,6 +24964,830 @@
         <v>0</v>
       </c>
       <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7468202</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>88</v>
+      </c>
+      <c r="P117" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q117">
+        <v>15</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>1.44</v>
+      </c>
+      <c r="T117">
+        <v>1.25</v>
+      </c>
+      <c r="U117">
+        <v>3.75</v>
+      </c>
+      <c r="V117">
+        <v>2.1</v>
+      </c>
+      <c r="W117">
+        <v>1.67</v>
+      </c>
+      <c r="X117">
+        <v>5</v>
+      </c>
+      <c r="Y117">
+        <v>1.17</v>
+      </c>
+      <c r="Z117">
+        <v>11</v>
+      </c>
+      <c r="AA117">
+        <v>7.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.12</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>1.46</v>
+      </c>
+      <c r="AH117">
+        <v>2.6</v>
+      </c>
+      <c r="AI117">
+        <v>2.5</v>
+      </c>
+      <c r="AJ117">
+        <v>1.5</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0.25</v>
+      </c>
+      <c r="AO117">
+        <v>2.33</v>
+      </c>
+      <c r="AP117">
+        <v>0.22</v>
+      </c>
+      <c r="AQ117">
+        <v>2.43</v>
+      </c>
+      <c r="AR117">
+        <v>1.38</v>
+      </c>
+      <c r="AS117">
+        <v>1.61</v>
+      </c>
+      <c r="AT117">
+        <v>2.99</v>
+      </c>
+      <c r="AU117">
+        <v>2</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>4</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>8</v>
+      </c>
+      <c r="AZ117">
+        <v>16</v>
+      </c>
+      <c r="BA117">
+        <v>5</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7468200</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
+      </c>
+      <c r="P118" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>3.5</v>
+      </c>
+      <c r="T118">
+        <v>1.4</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>2.25</v>
+      </c>
+      <c r="AA118">
+        <v>3.04</v>
+      </c>
+      <c r="AB118">
+        <v>2.65</v>
+      </c>
+      <c r="AC118">
+        <v>1.06</v>
+      </c>
+      <c r="AD118">
+        <v>8</v>
+      </c>
+      <c r="AE118">
+        <v>1.38</v>
+      </c>
+      <c r="AF118">
+        <v>3</v>
+      </c>
+      <c r="AG118">
+        <v>1.94</v>
+      </c>
+      <c r="AH118">
+        <v>1.88</v>
+      </c>
+      <c r="AI118">
+        <v>1.7</v>
+      </c>
+      <c r="AJ118">
+        <v>2.05</v>
+      </c>
+      <c r="AK118">
+        <v>1.3</v>
+      </c>
+      <c r="AL118">
+        <v>1.3</v>
+      </c>
+      <c r="AM118">
+        <v>1.63</v>
+      </c>
+      <c r="AN118">
+        <v>1.83</v>
+      </c>
+      <c r="AO118">
+        <v>1.17</v>
+      </c>
+      <c r="AP118">
+        <v>1.57</v>
+      </c>
+      <c r="AQ118">
+        <v>1.43</v>
+      </c>
+      <c r="AR118">
+        <v>1.59</v>
+      </c>
+      <c r="AS118">
+        <v>1.52</v>
+      </c>
+      <c r="AT118">
+        <v>3.11</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>10</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>15</v>
+      </c>
+      <c r="BA118">
+        <v>4</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>1.75</v>
+      </c>
+      <c r="BE118">
+        <v>7.3</v>
+      </c>
+      <c r="BF118">
+        <v>2.35</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>1.24</v>
+      </c>
+      <c r="BJ118">
+        <v>3.55</v>
+      </c>
+      <c r="BK118">
+        <v>1.45</v>
+      </c>
+      <c r="BL118">
+        <v>2.55</v>
+      </c>
+      <c r="BM118">
+        <v>1.78</v>
+      </c>
+      <c r="BN118">
+        <v>1.9</v>
+      </c>
+      <c r="BO118">
+        <v>2.32</v>
+      </c>
+      <c r="BP118">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7468201</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>167</v>
+      </c>
+      <c r="P119" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q119">
+        <v>2.2</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>5.5</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>1.55</v>
+      </c>
+      <c r="AA119">
+        <v>3.8</v>
+      </c>
+      <c r="AB119">
+        <v>4.7</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>4.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.14</v>
+      </c>
+      <c r="AG119">
+        <v>1.73</v>
+      </c>
+      <c r="AH119">
+        <v>2</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.63</v>
+      </c>
+      <c r="AP119">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR119">
+        <v>1.64</v>
+      </c>
+      <c r="AS119">
+        <v>1.02</v>
+      </c>
+      <c r="AT119">
+        <v>2.66</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
+        <v>11</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7468207</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45620.375</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>74</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>168</v>
+      </c>
+      <c r="P120" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q120">
+        <v>2.25</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>5.5</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>7</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>1.58</v>
+      </c>
+      <c r="AA120">
+        <v>3.7</v>
+      </c>
+      <c r="AB120">
+        <v>4.65</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>1.99</v>
+      </c>
+      <c r="AF120">
+        <v>1.82</v>
+      </c>
+      <c r="AG120">
+        <v>1.82</v>
+      </c>
+      <c r="AH120">
+        <v>2</v>
+      </c>
+      <c r="AI120">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.95</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0.83</v>
+      </c>
+      <c r="AO120">
+        <v>0.29</v>
+      </c>
+      <c r="AP120">
+        <v>1.14</v>
+      </c>
+      <c r="AQ120">
+        <v>0.25</v>
+      </c>
+      <c r="AR120">
+        <v>1.44</v>
+      </c>
+      <c r="AS120">
+        <v>0.84</v>
+      </c>
+      <c r="AT120">
+        <v>2.28</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>9</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>20</v>
+      </c>
+      <c r="AZ120">
+        <v>10</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>11</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,13 +514,10 @@
     <t>['45', '55', '84']</t>
   </si>
   <si>
-    <t>['75']</t>
+    <t>['67', '75', '85']</t>
   </si>
   <si>
     <t>['10']</t>
-  </si>
-  <si>
-    <t>['67', '75', '85']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -593,6 +590,9 @@
   </si>
   <si>
     <t>['26', '85']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -688,22 +688,16 @@
     <t>['9', '59']</t>
   </si>
   <si>
-    <t>['35']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
     <t>['61']</t>
   </si>
   <si>
     <t>['83']</t>
   </si>
   <si>
-    <t>['15', '38', '55', '88']</t>
+    <t>['35']</t>
   </si>
   <si>
-    <t>['4', '21', '47', '73']</t>
+    <t>['15', '38', '55', '88']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1318,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1611,7 +1605,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1736,7 +1730,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2148,7 +2142,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2354,7 +2348,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2435,7 +2429,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2638,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
         <v>2.43</v>
@@ -3178,7 +3172,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3384,7 +3378,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3796,7 +3790,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4620,7 +4614,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5110,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5522,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5650,7 +5644,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5856,7 +5850,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5937,7 +5931,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6062,7 +6056,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6268,7 +6262,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6474,7 +6468,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6555,7 +6549,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -7916,7 +7910,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8122,7 +8116,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8328,7 +8322,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8534,7 +8528,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8612,10 +8606,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8946,7 +8940,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9230,7 +9224,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9358,7 +9352,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9564,7 +9558,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9770,7 +9764,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10263,7 +10257,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -11084,7 +11078,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11212,7 +11206,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11624,7 +11618,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11702,7 +11696,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12036,7 +12030,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12117,7 +12111,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12242,7 +12236,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -14174,7 +14168,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ64">
         <v>0.25</v>
@@ -14795,7 +14789,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -15204,7 +15198,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15825,7 +15819,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -17470,7 +17464,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -18503,7 +18497,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18709,7 +18703,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19118,7 +19112,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -20148,7 +20142,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -21181,7 +21175,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -22005,7 +21999,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22414,7 +22408,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AQ104">
         <v>1.75</v>
@@ -23984,7 +23978,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24148,7 +24142,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7468204</v>
+        <v>7468206</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24163,151 +24157,151 @@
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H113" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M113">
         <v>1</v>
       </c>
       <c r="N113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O113" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="P113" t="s">
         <v>224</v>
       </c>
       <c r="Q113">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="R113">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="S113">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="T113">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="U113">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V113">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W113">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X113">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Y113">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="Z113">
-        <v>3.07</v>
+        <v>1.24</v>
       </c>
       <c r="AA113">
-        <v>2.96</v>
+        <v>4.84</v>
       </c>
       <c r="AB113">
-        <v>2.26</v>
+        <v>7.43</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AD113">
-        <v>8.300000000000001</v>
+        <v>13</v>
       </c>
       <c r="AE113">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AF113">
+        <v>4.75</v>
+      </c>
+      <c r="AG113">
+        <v>1.57</v>
+      </c>
+      <c r="AH113">
+        <v>2.25</v>
+      </c>
+      <c r="AI113">
+        <v>2</v>
+      </c>
+      <c r="AJ113">
+        <v>1.75</v>
+      </c>
+      <c r="AK113">
+        <v>1.02</v>
+      </c>
+      <c r="AL113">
+        <v>1.1</v>
+      </c>
+      <c r="AM113">
         <v>3.5</v>
-      </c>
-      <c r="AG113">
-        <v>1.88</v>
-      </c>
-      <c r="AH113">
-        <v>1.94</v>
-      </c>
-      <c r="AI113">
-        <v>1.7</v>
-      </c>
-      <c r="AJ113">
-        <v>2.05</v>
-      </c>
-      <c r="AK113">
-        <v>1.5</v>
-      </c>
-      <c r="AL113">
-        <v>1.25</v>
-      </c>
-      <c r="AM113">
-        <v>1.47</v>
       </c>
       <c r="AN113">
         <v>1.67</v>
       </c>
       <c r="AO113">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="AS113">
-        <v>1.63</v>
+        <v>1.26</v>
       </c>
       <c r="AT113">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="AU113">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV113">
         <v>6</v>
       </c>
       <c r="AW113">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>18</v>
+      </c>
+      <c r="AZ113">
         <v>7</v>
       </c>
-      <c r="AY113">
-        <v>12</v>
-      </c>
-      <c r="AZ113">
-        <v>23</v>
-      </c>
       <c r="BA113">
+        <v>5</v>
+      </c>
+      <c r="BB113">
+        <v>1</v>
+      </c>
+      <c r="BC113">
         <v>6</v>
-      </c>
-      <c r="BB113">
-        <v>9</v>
-      </c>
-      <c r="BC113">
-        <v>15</v>
       </c>
       <c r="BD113">
         <v>0</v>
@@ -24354,7 +24348,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7468203</v>
+        <v>7468205</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24366,46 +24360,46 @@
         <v>45618.875</v>
       </c>
       <c r="F114">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H114" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="P114" t="s">
         <v>225</v>
       </c>
       <c r="Q114">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R114">
         <v>2.1</v>
       </c>
       <c r="S114">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="T114">
         <v>1.44</v>
@@ -24426,94 +24420,94 @@
         <v>1.07</v>
       </c>
       <c r="Z114">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="AA114">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="AB114">
-        <v>1.77</v>
+        <v>2.03</v>
       </c>
       <c r="AC114">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD114">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AE114">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF114">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG114">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AH114">
+        <v>1.71</v>
+      </c>
+      <c r="AI114">
+        <v>1.91</v>
+      </c>
+      <c r="AJ114">
+        <v>1.91</v>
+      </c>
+      <c r="AK114">
         <v>1.78</v>
-      </c>
-      <c r="AI114">
-        <v>1.8</v>
-      </c>
-      <c r="AJ114">
-        <v>1.95</v>
-      </c>
-      <c r="AK114">
-        <v>1.35</v>
       </c>
       <c r="AL114">
         <v>1.25</v>
       </c>
       <c r="AM114">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AN114">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO114">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AP114">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AS114">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AT114">
-        <v>2.39</v>
+        <v>2.54</v>
       </c>
       <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
         <v>5</v>
       </c>
-      <c r="AV114">
-        <v>2</v>
-      </c>
       <c r="AW114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY114">
+        <v>17</v>
+      </c>
+      <c r="AZ114">
         <v>15</v>
       </c>
-      <c r="AZ114">
-        <v>13</v>
-      </c>
       <c r="BA114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC114">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD114">
         <v>0</v>
@@ -24560,7 +24554,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7468206</v>
+        <v>7468204</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24569,157 +24563,157 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45619.5</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H115" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O115" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="P115" t="s">
         <v>226</v>
       </c>
       <c r="Q115">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="R115">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S115">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="T115">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>2.75</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>3.07</v>
+      </c>
+      <c r="AA115">
+        <v>2.96</v>
+      </c>
+      <c r="AB115">
+        <v>2.26</v>
+      </c>
+      <c r="AC115">
+        <v>1</v>
+      </c>
+      <c r="AD115">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE115">
+        <v>1.28</v>
+      </c>
+      <c r="AF115">
         <v>3.5</v>
       </c>
-      <c r="V115">
-        <v>2.38</v>
-      </c>
-      <c r="W115">
-        <v>1.53</v>
-      </c>
-      <c r="X115">
-        <v>5.5</v>
-      </c>
-      <c r="Y115">
-        <v>1.14</v>
-      </c>
-      <c r="Z115">
-        <v>1.24</v>
-      </c>
-      <c r="AA115">
-        <v>4.84</v>
-      </c>
-      <c r="AB115">
-        <v>7.43</v>
-      </c>
-      <c r="AC115">
-        <v>1.01</v>
-      </c>
-      <c r="AD115">
-        <v>13</v>
-      </c>
-      <c r="AE115">
-        <v>1.16</v>
-      </c>
-      <c r="AF115">
-        <v>4.75</v>
-      </c>
       <c r="AG115">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="AH115">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="AI115">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AJ115">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AK115">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="AL115">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AM115">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="AN115">
         <v>1.67</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS115">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT115">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>8</v>
+      </c>
+      <c r="AW115">
+        <v>2</v>
+      </c>
+      <c r="AX115">
         <v>7</v>
       </c>
-      <c r="AV115">
+      <c r="AY115">
+        <v>7</v>
+      </c>
+      <c r="AZ115">
+        <v>15</v>
+      </c>
+      <c r="BA115">
         <v>6</v>
       </c>
-      <c r="AW115">
+      <c r="BB115">
         <v>9</v>
       </c>
-      <c r="AX115">
-        <v>1</v>
-      </c>
-      <c r="AY115">
-        <v>18</v>
-      </c>
-      <c r="AZ115">
-        <v>7</v>
-      </c>
-      <c r="BA115">
-        <v>5</v>
-      </c>
-      <c r="BB115">
-        <v>1</v>
-      </c>
       <c r="BC115">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD115">
         <v>0</v>
@@ -24766,7 +24760,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7468205</v>
+        <v>7468207</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24775,16 +24769,16 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.625</v>
+        <v>45619.875</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -24796,136 +24790,136 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O116" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q116">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="R116">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S116">
+        <v>5.5</v>
+      </c>
+      <c r="T116">
+        <v>1.36</v>
+      </c>
+      <c r="U116">
+        <v>3</v>
+      </c>
+      <c r="V116">
         <v>2.75</v>
       </c>
-      <c r="T116">
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>7</v>
+      </c>
+      <c r="Y116">
+        <v>1.1</v>
+      </c>
+      <c r="Z116">
+        <v>1.58</v>
+      </c>
+      <c r="AA116">
+        <v>3.7</v>
+      </c>
+      <c r="AB116">
+        <v>4.65</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>1.99</v>
+      </c>
+      <c r="AF116">
+        <v>1.82</v>
+      </c>
+      <c r="AG116">
+        <v>1.82</v>
+      </c>
+      <c r="AH116">
+        <v>2</v>
+      </c>
+      <c r="AI116">
+        <v>1.8</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0.83</v>
+      </c>
+      <c r="AO116">
+        <v>0.29</v>
+      </c>
+      <c r="AP116">
+        <v>1.14</v>
+      </c>
+      <c r="AQ116">
+        <v>0.25</v>
+      </c>
+      <c r="AR116">
         <v>1.44</v>
       </c>
-      <c r="U116">
-        <v>2.63</v>
-      </c>
-      <c r="V116">
-        <v>3.25</v>
-      </c>
-      <c r="W116">
-        <v>1.33</v>
-      </c>
-      <c r="X116">
+      <c r="AS116">
+        <v>0.84</v>
+      </c>
+      <c r="AT116">
+        <v>2.28</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>2</v>
+      </c>
+      <c r="AW116">
         <v>9</v>
-      </c>
-      <c r="Y116">
-        <v>1.07</v>
-      </c>
-      <c r="Z116">
-        <v>3.25</v>
-      </c>
-      <c r="AA116">
-        <v>3.3</v>
-      </c>
-      <c r="AB116">
-        <v>2.03</v>
-      </c>
-      <c r="AC116">
-        <v>1.06</v>
-      </c>
-      <c r="AD116">
-        <v>8</v>
-      </c>
-      <c r="AE116">
-        <v>1.36</v>
-      </c>
-      <c r="AF116">
-        <v>3</v>
-      </c>
-      <c r="AG116">
-        <v>2.07</v>
-      </c>
-      <c r="AH116">
-        <v>1.71</v>
-      </c>
-      <c r="AI116">
-        <v>1.91</v>
-      </c>
-      <c r="AJ116">
-        <v>1.91</v>
-      </c>
-      <c r="AK116">
-        <v>1.78</v>
-      </c>
-      <c r="AL116">
-        <v>1.25</v>
-      </c>
-      <c r="AM116">
-        <v>1.25</v>
-      </c>
-      <c r="AN116">
-        <v>2</v>
-      </c>
-      <c r="AO116">
-        <v>1.57</v>
-      </c>
-      <c r="AP116">
-        <v>1.75</v>
-      </c>
-      <c r="AQ116">
-        <v>1.75</v>
-      </c>
-      <c r="AR116">
-        <v>1.34</v>
-      </c>
-      <c r="AS116">
-        <v>1.2</v>
-      </c>
-      <c r="AT116">
-        <v>2.54</v>
-      </c>
-      <c r="AU116">
-        <v>3</v>
-      </c>
-      <c r="AV116">
-        <v>5</v>
-      </c>
-      <c r="AW116">
-        <v>10</v>
       </c>
       <c r="AX116">
         <v>6</v>
       </c>
       <c r="AY116">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ116">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA116">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB116">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -24981,10 +24975,10 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45619.875</v>
+        <v>45620.47916666666</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G117" t="s">
         <v>72</v>
@@ -25014,7 +25008,7 @@
         <v>88</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>15</v>
@@ -25178,7 +25172,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7468200</v>
+        <v>7468201</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25187,166 +25181,166 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45619.875</v>
+        <v>45620.47916666666</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
         <v>1</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="Q118">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="R118">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S118">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="T118">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U118">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V118">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X118">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y118">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z118">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="AA118">
-        <v>3.04</v>
+        <v>3.8</v>
       </c>
       <c r="AB118">
-        <v>2.65</v>
+        <v>4.7</v>
       </c>
       <c r="AC118">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AD118">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AE118">
-        <v>1.38</v>
+        <v>4.5</v>
       </c>
       <c r="AF118">
-        <v>3</v>
+        <v>1.14</v>
       </c>
       <c r="AG118">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="AH118">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AI118">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ118">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK118">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AL118">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AM118">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AN118">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO118">
-        <v>1.17</v>
+        <v>0.63</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118">
-        <v>1.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR118">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AS118">
-        <v>1.52</v>
+        <v>1.02</v>
       </c>
       <c r="AT118">
-        <v>3.11</v>
+        <v>2.66</v>
       </c>
       <c r="AU118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW118">
         <v>7</v>
       </c>
       <c r="AX118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY118">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ118">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD118">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BE118">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="BF118">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="BG118">
         <v>0</v>
@@ -25355,439 +25349,27 @@
         <v>0</v>
       </c>
       <c r="BI118">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BJ118">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BK118">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BL118">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BM118">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="BN118">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BO118">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="BP118">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:68">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>7468201</v>
-      </c>
-      <c r="C119" t="s">
-        <v>68</v>
-      </c>
-      <c r="D119" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" s="2">
-        <v>45619.875</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>75</v>
-      </c>
-      <c r="H119" t="s">
-        <v>79</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119">
-        <v>1</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <v>1</v>
-      </c>
-      <c r="O119" t="s">
-        <v>167</v>
-      </c>
-      <c r="P119" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q119">
-        <v>2.2</v>
-      </c>
-      <c r="R119">
-        <v>2.3</v>
-      </c>
-      <c r="S119">
-        <v>5.5</v>
-      </c>
-      <c r="T119">
-        <v>1.33</v>
-      </c>
-      <c r="U119">
-        <v>3.25</v>
-      </c>
-      <c r="V119">
-        <v>2.63</v>
-      </c>
-      <c r="W119">
-        <v>1.44</v>
-      </c>
-      <c r="X119">
-        <v>6.5</v>
-      </c>
-      <c r="Y119">
-        <v>1.11</v>
-      </c>
-      <c r="Z119">
-        <v>1.55</v>
-      </c>
-      <c r="AA119">
-        <v>3.8</v>
-      </c>
-      <c r="AB119">
-        <v>4.7</v>
-      </c>
-      <c r="AC119">
-        <v>0</v>
-      </c>
-      <c r="AD119">
-        <v>0</v>
-      </c>
-      <c r="AE119">
-        <v>4.5</v>
-      </c>
-      <c r="AF119">
-        <v>1.14</v>
-      </c>
-      <c r="AG119">
-        <v>1.73</v>
-      </c>
-      <c r="AH119">
-        <v>2</v>
-      </c>
-      <c r="AI119">
-        <v>1.75</v>
-      </c>
-      <c r="AJ119">
-        <v>2</v>
-      </c>
-      <c r="AK119">
-        <v>0</v>
-      </c>
-      <c r="AL119">
-        <v>0</v>
-      </c>
-      <c r="AM119">
-        <v>0</v>
-      </c>
-      <c r="AN119">
-        <v>1.5</v>
-      </c>
-      <c r="AO119">
-        <v>0.63</v>
-      </c>
-      <c r="AP119">
-        <v>1.67</v>
-      </c>
-      <c r="AQ119">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR119">
-        <v>1.64</v>
-      </c>
-      <c r="AS119">
-        <v>1.02</v>
-      </c>
-      <c r="AT119">
-        <v>2.66</v>
-      </c>
-      <c r="AU119">
-        <v>3</v>
-      </c>
-      <c r="AV119">
-        <v>6</v>
-      </c>
-      <c r="AW119">
-        <v>7</v>
-      </c>
-      <c r="AX119">
-        <v>0</v>
-      </c>
-      <c r="AY119">
-        <v>10</v>
-      </c>
-      <c r="AZ119">
-        <v>11</v>
-      </c>
-      <c r="BA119">
-        <v>3</v>
-      </c>
-      <c r="BB119">
-        <v>6</v>
-      </c>
-      <c r="BC119">
-        <v>9</v>
-      </c>
-      <c r="BD119">
-        <v>0</v>
-      </c>
-      <c r="BE119">
-        <v>0</v>
-      </c>
-      <c r="BF119">
-        <v>0</v>
-      </c>
-      <c r="BG119">
-        <v>0</v>
-      </c>
-      <c r="BH119">
-        <v>0</v>
-      </c>
-      <c r="BI119">
-        <v>0</v>
-      </c>
-      <c r="BJ119">
-        <v>0</v>
-      </c>
-      <c r="BK119">
-        <v>0</v>
-      </c>
-      <c r="BL119">
-        <v>0</v>
-      </c>
-      <c r="BM119">
-        <v>0</v>
-      </c>
-      <c r="BN119">
-        <v>0</v>
-      </c>
-      <c r="BO119">
-        <v>0</v>
-      </c>
-      <c r="BP119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:68">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>7468207</v>
-      </c>
-      <c r="C120" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E120" s="2">
-        <v>45620.375</v>
-      </c>
-      <c r="F120">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>73</v>
-      </c>
-      <c r="H120" t="s">
-        <v>74</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>3</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-      <c r="N120">
-        <v>4</v>
-      </c>
-      <c r="O120" t="s">
-        <v>168</v>
-      </c>
-      <c r="P120" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q120">
-        <v>2.25</v>
-      </c>
-      <c r="R120">
-        <v>2.25</v>
-      </c>
-      <c r="S120">
-        <v>5.5</v>
-      </c>
-      <c r="T120">
-        <v>1.36</v>
-      </c>
-      <c r="U120">
-        <v>3</v>
-      </c>
-      <c r="V120">
-        <v>2.75</v>
-      </c>
-      <c r="W120">
-        <v>1.4</v>
-      </c>
-      <c r="X120">
-        <v>7</v>
-      </c>
-      <c r="Y120">
-        <v>1.1</v>
-      </c>
-      <c r="Z120">
-        <v>1.58</v>
-      </c>
-      <c r="AA120">
-        <v>3.7</v>
-      </c>
-      <c r="AB120">
-        <v>4.65</v>
-      </c>
-      <c r="AC120">
-        <v>0</v>
-      </c>
-      <c r="AD120">
-        <v>0</v>
-      </c>
-      <c r="AE120">
-        <v>1.99</v>
-      </c>
-      <c r="AF120">
-        <v>1.82</v>
-      </c>
-      <c r="AG120">
-        <v>1.82</v>
-      </c>
-      <c r="AH120">
-        <v>2</v>
-      </c>
-      <c r="AI120">
-        <v>1.8</v>
-      </c>
-      <c r="AJ120">
-        <v>1.95</v>
-      </c>
-      <c r="AK120">
-        <v>0</v>
-      </c>
-      <c r="AL120">
-        <v>0</v>
-      </c>
-      <c r="AM120">
-        <v>0</v>
-      </c>
-      <c r="AN120">
-        <v>0.83</v>
-      </c>
-      <c r="AO120">
-        <v>0.29</v>
-      </c>
-      <c r="AP120">
-        <v>1.14</v>
-      </c>
-      <c r="AQ120">
-        <v>0.25</v>
-      </c>
-      <c r="AR120">
-        <v>1.44</v>
-      </c>
-      <c r="AS120">
-        <v>0.84</v>
-      </c>
-      <c r="AT120">
-        <v>2.28</v>
-      </c>
-      <c r="AU120">
-        <v>7</v>
-      </c>
-      <c r="AV120">
-        <v>2</v>
-      </c>
-      <c r="AW120">
-        <v>9</v>
-      </c>
-      <c r="AX120">
-        <v>6</v>
-      </c>
-      <c r="AY120">
-        <v>20</v>
-      </c>
-      <c r="AZ120">
-        <v>10</v>
-      </c>
-      <c r="BA120">
-        <v>7</v>
-      </c>
-      <c r="BB120">
-        <v>4</v>
-      </c>
-      <c r="BC120">
-        <v>11</v>
-      </c>
-      <c r="BD120">
-        <v>0</v>
-      </c>
-      <c r="BE120">
-        <v>0</v>
-      </c>
-      <c r="BF120">
-        <v>0</v>
-      </c>
-      <c r="BG120">
-        <v>0</v>
-      </c>
-      <c r="BH120">
-        <v>0</v>
-      </c>
-      <c r="BI120">
-        <v>0</v>
-      </c>
-      <c r="BJ120">
-        <v>0</v>
-      </c>
-      <c r="BK120">
-        <v>0</v>
-      </c>
-      <c r="BL120">
-        <v>0</v>
-      </c>
-      <c r="BM120">
-        <v>0</v>
-      </c>
-      <c r="BN120">
-        <v>0</v>
-      </c>
-      <c r="BO120">
-        <v>0</v>
-      </c>
-      <c r="BP120">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,12 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['68', '83']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -590,9 +596,6 @@
   </si>
   <si>
     <t>['26', '85']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['89']</t>
@@ -688,16 +691,22 @@
     <t>['9', '59']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
   <si>
     <t>['83']</t>
   </si>
   <si>
-    <t>['35']</t>
+    <t>['15', '38', '55', '88']</t>
   </si>
   <si>
-    <t>['15', '38', '55', '88']</t>
+    <t>['4', '21', '47', '73']</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1327,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1605,7 +1614,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1730,7 +1739,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2142,7 +2151,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2348,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2429,7 +2438,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2632,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>2.43</v>
@@ -3172,7 +3181,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3378,7 +3387,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3790,7 +3799,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4077,7 +4086,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ15">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4614,7 +4623,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5104,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5516,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5644,7 +5653,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5850,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5931,7 +5940,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6056,7 +6065,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6262,7 +6271,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6468,7 +6477,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6549,7 +6558,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -6961,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7910,7 +7919,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8116,7 +8125,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8322,7 +8331,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8528,7 +8537,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8606,10 +8615,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8940,7 +8949,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9224,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9352,7 +9361,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9558,7 +9567,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9764,7 +9773,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9845,7 +9854,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -10257,7 +10266,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -11078,7 +11087,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>1.38</v>
@@ -11206,7 +11215,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11618,7 +11627,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11696,7 +11705,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12030,7 +12039,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12111,7 +12120,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12236,7 +12245,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3.85</v>
@@ -12442,7 +12451,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12648,7 +12657,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12935,7 +12944,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13060,7 +13069,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13678,7 +13687,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13884,7 +13893,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14090,7 +14099,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14168,7 +14177,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ64">
         <v>0.25</v>
@@ -14296,7 +14305,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14502,7 +14511,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14708,7 +14717,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14789,7 +14798,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14914,7 +14923,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15198,7 +15207,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.17</v>
@@ -15738,7 +15747,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15819,7 +15828,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -15944,7 +15953,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16356,7 +16365,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16562,7 +16571,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16643,7 +16652,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.29</v>
@@ -16768,7 +16777,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17386,7 +17395,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17464,7 +17473,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17592,7 +17601,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17798,7 +17807,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18004,7 +18013,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18210,7 +18219,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18416,7 +18425,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18497,7 +18506,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18622,7 +18631,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18703,7 +18712,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -19034,7 +19043,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19112,7 +19121,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19240,7 +19249,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19527,7 +19536,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19652,7 +19661,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19858,7 +19867,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20142,7 +20151,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20270,7 +20279,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21094,7 +21103,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21175,7 +21184,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -21712,7 +21721,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21999,7 +22008,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22408,7 +22417,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AQ104">
         <v>1.75</v>
@@ -22536,7 +22545,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23360,7 +23369,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23566,7 +23575,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23978,7 +23987,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24142,7 +24151,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7468206</v>
+        <v>7468204</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24151,157 +24160,157 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45618.875</v>
+        <v>45619.39583333334</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H113" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M113">
         <v>1</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q113">
-        <v>1.73</v>
+        <v>3.25</v>
       </c>
       <c r="R113">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="S113">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="T113">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>3.07</v>
+      </c>
+      <c r="AA113">
+        <v>2.96</v>
+      </c>
+      <c r="AB113">
+        <v>2.26</v>
+      </c>
+      <c r="AC113">
+        <v>1</v>
+      </c>
+      <c r="AD113">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE113">
+        <v>1.28</v>
+      </c>
+      <c r="AF113">
         <v>3.5</v>
       </c>
-      <c r="V113">
-        <v>2.38</v>
-      </c>
-      <c r="W113">
-        <v>1.53</v>
-      </c>
-      <c r="X113">
-        <v>5.5</v>
-      </c>
-      <c r="Y113">
-        <v>1.14</v>
-      </c>
-      <c r="Z113">
-        <v>1.24</v>
-      </c>
-      <c r="AA113">
-        <v>4.84</v>
-      </c>
-      <c r="AB113">
-        <v>7.43</v>
-      </c>
-      <c r="AC113">
-        <v>1.01</v>
-      </c>
-      <c r="AD113">
-        <v>13</v>
-      </c>
-      <c r="AE113">
-        <v>1.16</v>
-      </c>
-      <c r="AF113">
-        <v>4.75</v>
-      </c>
       <c r="AG113">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="AH113">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="AI113">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AJ113">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AK113">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="AL113">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AM113">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="AN113">
         <v>1.67</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
-        <v>1.87</v>
+        <v>1.63</v>
       </c>
       <c r="AS113">
-        <v>1.26</v>
+        <v>1.63</v>
       </c>
       <c r="AT113">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>8</v>
+      </c>
+      <c r="AW113">
+        <v>2</v>
+      </c>
+      <c r="AX113">
         <v>7</v>
       </c>
-      <c r="AV113">
+      <c r="AY113">
+        <v>7</v>
+      </c>
+      <c r="AZ113">
+        <v>15</v>
+      </c>
+      <c r="BA113">
         <v>6</v>
       </c>
-      <c r="AW113">
+      <c r="BB113">
         <v>9</v>
       </c>
-      <c r="AX113">
-        <v>1</v>
-      </c>
-      <c r="AY113">
-        <v>18</v>
-      </c>
-      <c r="AZ113">
-        <v>7</v>
-      </c>
-      <c r="BA113">
-        <v>5</v>
-      </c>
-      <c r="BB113">
-        <v>1</v>
-      </c>
       <c r="BC113">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BD113">
         <v>0</v>
@@ -24348,7 +24357,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7468205</v>
+        <v>7468206</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24357,16 +24366,16 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H114" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -24378,136 +24387,136 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114">
         <v>1</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q114">
-        <v>4.33</v>
+        <v>1.73</v>
       </c>
       <c r="R114">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="T114">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U114">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V114">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="W114">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.14</v>
+      </c>
+      <c r="Z114">
+        <v>1.24</v>
+      </c>
+      <c r="AA114">
+        <v>4.84</v>
+      </c>
+      <c r="AB114">
+        <v>7.43</v>
+      </c>
+      <c r="AC114">
+        <v>1.01</v>
+      </c>
+      <c r="AD114">
+        <v>13</v>
+      </c>
+      <c r="AE114">
+        <v>1.16</v>
+      </c>
+      <c r="AF114">
+        <v>4.75</v>
+      </c>
+      <c r="AG114">
+        <v>1.57</v>
+      </c>
+      <c r="AH114">
+        <v>2.25</v>
+      </c>
+      <c r="AI114">
+        <v>2</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.02</v>
+      </c>
+      <c r="AL114">
+        <v>1.1</v>
+      </c>
+      <c r="AM114">
+        <v>3.5</v>
+      </c>
+      <c r="AN114">
+        <v>1.67</v>
+      </c>
+      <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>1.57</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.87</v>
+      </c>
+      <c r="AS114">
+        <v>1.26</v>
+      </c>
+      <c r="AT114">
+        <v>3.13</v>
+      </c>
+      <c r="AU114">
         <v>9</v>
       </c>
-      <c r="Y114">
-        <v>1.07</v>
-      </c>
-      <c r="Z114">
-        <v>3.25</v>
-      </c>
-      <c r="AA114">
-        <v>3.3</v>
-      </c>
-      <c r="AB114">
-        <v>2.03</v>
-      </c>
-      <c r="AC114">
-        <v>1.06</v>
-      </c>
-      <c r="AD114">
-        <v>8</v>
-      </c>
-      <c r="AE114">
-        <v>1.36</v>
-      </c>
-      <c r="AF114">
-        <v>3</v>
-      </c>
-      <c r="AG114">
-        <v>2.07</v>
-      </c>
-      <c r="AH114">
-        <v>1.71</v>
-      </c>
-      <c r="AI114">
-        <v>1.91</v>
-      </c>
-      <c r="AJ114">
-        <v>1.91</v>
-      </c>
-      <c r="AK114">
-        <v>1.78</v>
-      </c>
-      <c r="AL114">
-        <v>1.25</v>
-      </c>
-      <c r="AM114">
-        <v>1.25</v>
-      </c>
-      <c r="AN114">
-        <v>2</v>
-      </c>
-      <c r="AO114">
-        <v>1.57</v>
-      </c>
-      <c r="AP114">
-        <v>1.75</v>
-      </c>
-      <c r="AQ114">
-        <v>1.75</v>
-      </c>
-      <c r="AR114">
-        <v>1.34</v>
-      </c>
-      <c r="AS114">
-        <v>1.2</v>
-      </c>
-      <c r="AT114">
-        <v>2.54</v>
-      </c>
-      <c r="AU114">
-        <v>3</v>
-      </c>
       <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>6</v>
+      </c>
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>15</v>
+      </c>
+      <c r="AZ114">
+        <v>6</v>
+      </c>
+      <c r="BA114">
         <v>5</v>
       </c>
-      <c r="AW114">
-        <v>10</v>
-      </c>
-      <c r="AX114">
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
         <v>6</v>
-      </c>
-      <c r="AY114">
-        <v>17</v>
-      </c>
-      <c r="AZ114">
-        <v>15</v>
-      </c>
-      <c r="BA114">
-        <v>2</v>
-      </c>
-      <c r="BB114">
-        <v>8</v>
-      </c>
-      <c r="BC114">
-        <v>10</v>
       </c>
       <c r="BD114">
         <v>0</v>
@@ -24554,7 +24563,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7468204</v>
+        <v>7468203</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24563,16 +24572,16 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45619.39583333334</v>
+        <v>45619.5</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -24584,136 +24593,136 @@
         <v>2</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M115">
         <v>1</v>
       </c>
       <c r="N115">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O115" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q115">
+        <v>2.88</v>
+      </c>
+      <c r="R115">
+        <v>2.1</v>
+      </c>
+      <c r="S115">
+        <v>3.75</v>
+      </c>
+      <c r="T115">
+        <v>1.44</v>
+      </c>
+      <c r="U115">
+        <v>2.63</v>
+      </c>
+      <c r="V115">
         <v>3.25</v>
       </c>
-      <c r="R115">
-        <v>2.2</v>
-      </c>
-      <c r="S115">
-        <v>3.2</v>
-      </c>
-      <c r="T115">
-        <v>1.4</v>
-      </c>
-      <c r="U115">
-        <v>2.75</v>
-      </c>
-      <c r="V115">
-        <v>2.75</v>
-      </c>
       <c r="W115">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y115">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z115">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="AA115">
-        <v>2.96</v>
+        <v>4.51</v>
       </c>
       <c r="AB115">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AD115">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AE115">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF115">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AG115">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="AH115">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AI115">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ115">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK115">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AL115">
         <v>1.25</v>
       </c>
       <c r="AM115">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AN115">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AO115">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AS115">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AT115">
-        <v>3.26</v>
+        <v>2.39</v>
       </c>
       <c r="AU115">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV115">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX115">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY115">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ115">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB115">
         <v>9</v>
       </c>
       <c r="BC115">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD115">
         <v>0</v>
@@ -24760,7 +24769,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7468207</v>
+        <v>7468205</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24769,16 +24778,16 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.875</v>
+        <v>45619.625</v>
       </c>
       <c r="F116">
         <v>16</v>
       </c>
       <c r="G116" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -24790,136 +24799,136 @@
         <v>0</v>
       </c>
       <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>88</v>
+      </c>
+      <c r="P116" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q116">
+        <v>4.33</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>2.75</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3.25</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>3.25</v>
+      </c>
+      <c r="AA116">
+        <v>3.3</v>
+      </c>
+      <c r="AB116">
+        <v>2.03</v>
+      </c>
+      <c r="AC116">
+        <v>1.06</v>
+      </c>
+      <c r="AD116">
+        <v>8</v>
+      </c>
+      <c r="AE116">
+        <v>1.36</v>
+      </c>
+      <c r="AF116">
         <v>3</v>
       </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-      <c r="N116">
+      <c r="AG116">
+        <v>2.07</v>
+      </c>
+      <c r="AH116">
+        <v>1.71</v>
+      </c>
+      <c r="AI116">
+        <v>1.91</v>
+      </c>
+      <c r="AJ116">
+        <v>1.91</v>
+      </c>
+      <c r="AK116">
+        <v>1.78</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.25</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>1.57</v>
+      </c>
+      <c r="AP116">
+        <v>1.75</v>
+      </c>
+      <c r="AQ116">
+        <v>1.75</v>
+      </c>
+      <c r="AR116">
+        <v>1.34</v>
+      </c>
+      <c r="AS116">
+        <v>1.2</v>
+      </c>
+      <c r="AT116">
+        <v>2.54</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
         <v>4</v>
       </c>
-      <c r="O116" t="s">
-        <v>166</v>
-      </c>
-      <c r="P116" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q116">
-        <v>2.25</v>
-      </c>
-      <c r="R116">
-        <v>2.25</v>
-      </c>
-      <c r="S116">
-        <v>5.5</v>
-      </c>
-      <c r="T116">
-        <v>1.36</v>
-      </c>
-      <c r="U116">
-        <v>3</v>
-      </c>
-      <c r="V116">
-        <v>2.75</v>
-      </c>
-      <c r="W116">
-        <v>1.4</v>
-      </c>
-      <c r="X116">
-        <v>7</v>
-      </c>
-      <c r="Y116">
-        <v>1.1</v>
-      </c>
-      <c r="Z116">
-        <v>1.58</v>
-      </c>
-      <c r="AA116">
-        <v>3.7</v>
-      </c>
-      <c r="AB116">
-        <v>4.65</v>
-      </c>
-      <c r="AC116">
-        <v>0</v>
-      </c>
-      <c r="AD116">
-        <v>0</v>
-      </c>
-      <c r="AE116">
-        <v>1.99</v>
-      </c>
-      <c r="AF116">
-        <v>1.82</v>
-      </c>
-      <c r="AG116">
-        <v>1.82</v>
-      </c>
-      <c r="AH116">
-        <v>2</v>
-      </c>
-      <c r="AI116">
-        <v>1.8</v>
-      </c>
-      <c r="AJ116">
-        <v>1.95</v>
-      </c>
-      <c r="AK116">
-        <v>0</v>
-      </c>
-      <c r="AL116">
-        <v>0</v>
-      </c>
-      <c r="AM116">
-        <v>0</v>
-      </c>
-      <c r="AN116">
-        <v>0.83</v>
-      </c>
-      <c r="AO116">
-        <v>0.29</v>
-      </c>
-      <c r="AP116">
-        <v>1.14</v>
-      </c>
-      <c r="AQ116">
-        <v>0.25</v>
-      </c>
-      <c r="AR116">
-        <v>1.44</v>
-      </c>
-      <c r="AS116">
-        <v>0.84</v>
-      </c>
-      <c r="AT116">
-        <v>2.28</v>
-      </c>
-      <c r="AU116">
-        <v>7</v>
-      </c>
-      <c r="AV116">
-        <v>2</v>
-      </c>
       <c r="AW116">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY116">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AZ116">
+        <v>8</v>
+      </c>
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>8</v>
+      </c>
+      <c r="BC116">
         <v>10</v>
-      </c>
-      <c r="BA116">
-        <v>7</v>
-      </c>
-      <c r="BB116">
-        <v>4</v>
-      </c>
-      <c r="BC116">
-        <v>11</v>
       </c>
       <c r="BD116">
         <v>0</v>
@@ -24966,7 +24975,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7468202</v>
+        <v>7468207</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -24975,157 +24984,157 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45620.47916666666</v>
+        <v>45620.375</v>
       </c>
       <c r="F117">
         <v>16</v>
       </c>
       <c r="G117" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H117" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N117">
         <v>4</v>
       </c>
       <c r="O117" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q117">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="R117">
+        <v>2.25</v>
+      </c>
+      <c r="S117">
+        <v>5.5</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
         <v>3</v>
       </c>
-      <c r="S117">
+      <c r="V117">
+        <v>2.75</v>
+      </c>
+      <c r="W117">
+        <v>1.4</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>1.58</v>
+      </c>
+      <c r="AA117">
+        <v>3.7</v>
+      </c>
+      <c r="AB117">
+        <v>4.65</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>1.99</v>
+      </c>
+      <c r="AF117">
+        <v>1.82</v>
+      </c>
+      <c r="AG117">
+        <v>1.82</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>1.8</v>
+      </c>
+      <c r="AJ117">
+        <v>1.95</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0.83</v>
+      </c>
+      <c r="AO117">
+        <v>0.29</v>
+      </c>
+      <c r="AP117">
+        <v>1.14</v>
+      </c>
+      <c r="AQ117">
+        <v>0.25</v>
+      </c>
+      <c r="AR117">
         <v>1.44</v>
       </c>
-      <c r="T117">
-        <v>1.25</v>
-      </c>
-      <c r="U117">
-        <v>3.75</v>
-      </c>
-      <c r="V117">
-        <v>2.1</v>
-      </c>
-      <c r="W117">
-        <v>1.67</v>
-      </c>
-      <c r="X117">
-        <v>5</v>
-      </c>
-      <c r="Y117">
-        <v>1.17</v>
-      </c>
-      <c r="Z117">
+      <c r="AS117">
+        <v>0.84</v>
+      </c>
+      <c r="AT117">
+        <v>2.28</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>2</v>
+      </c>
+      <c r="AW117">
         <v>11</v>
       </c>
-      <c r="AA117">
-        <v>7.5</v>
-      </c>
-      <c r="AB117">
-        <v>1.12</v>
-      </c>
-      <c r="AC117">
-        <v>0</v>
-      </c>
-      <c r="AD117">
-        <v>0</v>
-      </c>
-      <c r="AE117">
-        <v>0</v>
-      </c>
-      <c r="AF117">
-        <v>0</v>
-      </c>
-      <c r="AG117">
-        <v>1.46</v>
-      </c>
-      <c r="AH117">
-        <v>2.6</v>
-      </c>
-      <c r="AI117">
-        <v>2.5</v>
-      </c>
-      <c r="AJ117">
-        <v>1.5</v>
-      </c>
-      <c r="AK117">
-        <v>0</v>
-      </c>
-      <c r="AL117">
-        <v>0</v>
-      </c>
-      <c r="AM117">
-        <v>0</v>
-      </c>
-      <c r="AN117">
-        <v>0.25</v>
-      </c>
-      <c r="AO117">
-        <v>2.33</v>
-      </c>
-      <c r="AP117">
-        <v>0.22</v>
-      </c>
-      <c r="AQ117">
-        <v>2.43</v>
-      </c>
-      <c r="AR117">
-        <v>1.38</v>
-      </c>
-      <c r="AS117">
-        <v>1.61</v>
-      </c>
-      <c r="AT117">
-        <v>2.99</v>
-      </c>
-      <c r="AU117">
-        <v>2</v>
-      </c>
-      <c r="AV117">
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>17</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
         <v>7</v>
-      </c>
-      <c r="AW117">
-        <v>4</v>
-      </c>
-      <c r="AX117">
-        <v>4</v>
-      </c>
-      <c r="AY117">
-        <v>8</v>
-      </c>
-      <c r="AZ117">
-        <v>16</v>
-      </c>
-      <c r="BA117">
-        <v>5</v>
       </c>
       <c r="BB117">
         <v>4</v>
       </c>
       <c r="BC117">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD117">
         <v>0</v>
@@ -25172,7 +25181,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7468201</v>
+        <v>7468202</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25184,73 +25193,73 @@
         <v>45620.47916666666</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O118" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="Q118">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="R118">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S118">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="T118">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U118">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V118">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W118">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X118">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y118">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="Z118">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="AA118">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB118">
-        <v>4.7</v>
+        <v>1.12</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -25259,22 +25268,22 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AF118">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AG118">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="AH118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI118">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -25286,49 +25295,49 @@
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO118">
-        <v>0.63</v>
+        <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>0.22</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>2.43</v>
       </c>
       <c r="AR118">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AU118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ118">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC118">
         <v>9</v>
@@ -25371,6 +25380,624 @@
       </c>
       <c r="BP118">
         <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7468201</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45620.47916666666</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>79</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119" t="s">
+        <v>167</v>
+      </c>
+      <c r="P119" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q119">
+        <v>2.2</v>
+      </c>
+      <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>5.5</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>1.55</v>
+      </c>
+      <c r="AA119">
+        <v>3.8</v>
+      </c>
+      <c r="AB119">
+        <v>4.7</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>4.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.14</v>
+      </c>
+      <c r="AG119">
+        <v>1.73</v>
+      </c>
+      <c r="AH119">
+        <v>2</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.63</v>
+      </c>
+      <c r="AP119">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR119">
+        <v>1.64</v>
+      </c>
+      <c r="AS119">
+        <v>1.02</v>
+      </c>
+      <c r="AT119">
+        <v>2.66</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
+        <v>11</v>
+      </c>
+      <c r="BA119">
+        <v>3</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7468200</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45620.60416666666</v>
+      </c>
+      <c r="F120">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>85</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>4</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120" t="s">
+        <v>168</v>
+      </c>
+      <c r="P120" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>3.5</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>2.25</v>
+      </c>
+      <c r="AA120">
+        <v>3.04</v>
+      </c>
+      <c r="AB120">
+        <v>2.65</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>8</v>
+      </c>
+      <c r="AE120">
+        <v>1.38</v>
+      </c>
+      <c r="AF120">
+        <v>3</v>
+      </c>
+      <c r="AG120">
+        <v>1.94</v>
+      </c>
+      <c r="AH120">
+        <v>1.88</v>
+      </c>
+      <c r="AI120">
+        <v>1.7</v>
+      </c>
+      <c r="AJ120">
+        <v>2.05</v>
+      </c>
+      <c r="AK120">
+        <v>1.3</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>1.63</v>
+      </c>
+      <c r="AN120">
+        <v>1.83</v>
+      </c>
+      <c r="AO120">
+        <v>1.17</v>
+      </c>
+      <c r="AP120">
+        <v>1.75</v>
+      </c>
+      <c r="AQ120">
+        <v>1.43</v>
+      </c>
+      <c r="AR120">
+        <v>1.59</v>
+      </c>
+      <c r="AS120">
+        <v>1.52</v>
+      </c>
+      <c r="AT120">
+        <v>3.11</v>
+      </c>
+      <c r="AU120">
+        <v>4</v>
+      </c>
+      <c r="AV120">
+        <v>10</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>15</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.75</v>
+      </c>
+      <c r="BE120">
+        <v>7.3</v>
+      </c>
+      <c r="BF120">
+        <v>2.35</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>1.24</v>
+      </c>
+      <c r="BJ120">
+        <v>3.55</v>
+      </c>
+      <c r="BK120">
+        <v>1.45</v>
+      </c>
+      <c r="BL120">
+        <v>2.55</v>
+      </c>
+      <c r="BM120">
+        <v>1.78</v>
+      </c>
+      <c r="BN120">
+        <v>1.9</v>
+      </c>
+      <c r="BO120">
+        <v>2.32</v>
+      </c>
+      <c r="BP120">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7468196</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45623.54166666666</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>85</v>
+      </c>
+      <c r="H121" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>169</v>
+      </c>
+      <c r="P121" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q121">
+        <v>2.88</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>3.6</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.94</v>
+      </c>
+      <c r="V121">
+        <v>2.99</v>
+      </c>
+      <c r="W121">
+        <v>1.38</v>
+      </c>
+      <c r="X121">
+        <v>7.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.07</v>
+      </c>
+      <c r="Z121">
+        <v>2.31</v>
+      </c>
+      <c r="AA121">
+        <v>3.28</v>
+      </c>
+      <c r="AB121">
+        <v>3.02</v>
+      </c>
+      <c r="AC121">
+        <v>1.03</v>
+      </c>
+      <c r="AD121">
+        <v>9</v>
+      </c>
+      <c r="AE121">
+        <v>1.29</v>
+      </c>
+      <c r="AF121">
+        <v>3.3</v>
+      </c>
+      <c r="AG121">
+        <v>2.05</v>
+      </c>
+      <c r="AH121">
+        <v>1.72</v>
+      </c>
+      <c r="AI121">
+        <v>1.73</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.34</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.63</v>
+      </c>
+      <c r="AN121">
+        <v>1.57</v>
+      </c>
+      <c r="AO121">
+        <v>1.17</v>
+      </c>
+      <c r="AP121">
+        <v>1.75</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.57</v>
+      </c>
+      <c r="AS121">
+        <v>1.04</v>
+      </c>
+      <c r="AT121">
+        <v>2.61</v>
+      </c>
+      <c r="AU121">
+        <v>13</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>4</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>24</v>
+      </c>
+      <c r="AZ121">
+        <v>9</v>
+      </c>
+      <c r="BA121">
+        <v>7</v>
+      </c>
+      <c r="BB121">
+        <v>2</v>
+      </c>
+      <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.5</v>
+      </c>
+      <c r="BE121">
+        <v>9</v>
+      </c>
+      <c r="BF121">
+        <v>2.8</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>1.2</v>
+      </c>
+      <c r="BJ121">
+        <v>3.54</v>
+      </c>
+      <c r="BK121">
+        <v>1.4</v>
+      </c>
+      <c r="BL121">
+        <v>2.56</v>
+      </c>
+      <c r="BM121">
+        <v>1.77</v>
+      </c>
+      <c r="BN121">
+        <v>1.95</v>
+      </c>
+      <c r="BO121">
+        <v>2.12</v>
+      </c>
+      <c r="BP121">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,15 @@
     <t>['68', '83']</t>
   </si>
   <si>
+    <t>['31', '42', '58']</t>
+  </si>
+  <si>
+    <t>['64', '89']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -707,6 +716,12 @@
   </si>
   <si>
     <t>['4', '21', '47', '73']</t>
+  </si>
+  <si>
+    <t>['38', '89', '90+5']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1342,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1739,7 +1754,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1820,7 +1835,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ4">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2023,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2151,7 +2166,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2229,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2357,7 +2372,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -3053,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3181,7 +3196,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3259,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3387,7 +3402,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3468,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3799,7 +3814,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3880,7 +3895,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4289,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4623,7 +4638,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5653,7 +5668,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5859,7 +5874,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6065,7 +6080,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6143,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
         <v>1.38</v>
@@ -6271,7 +6286,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6349,10 +6364,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR26">
         <v>1.73</v>
@@ -6477,7 +6492,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6555,7 +6570,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ27">
         <v>1.43</v>
@@ -6764,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7173,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ30">
         <v>0.71</v>
@@ -7588,7 +7603,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7919,7 +7934,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8125,7 +8140,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8331,7 +8346,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8412,7 +8427,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -8537,7 +8552,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8949,7 +8964,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9361,7 +9376,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9439,7 +9454,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ41">
         <v>1.38</v>
@@ -9567,7 +9582,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9645,10 +9660,10 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9773,7 +9788,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10263,7 +10278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10469,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -11215,7 +11230,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11296,7 +11311,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR50">
         <v>1.24</v>
@@ -11627,7 +11642,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12039,7 +12054,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12117,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>1.13</v>
@@ -12451,7 +12466,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12532,7 +12547,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12657,7 +12672,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13069,7 +13084,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13147,7 +13162,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13687,7 +13702,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13893,7 +13908,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -13974,7 +13989,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR63">
         <v>1.37</v>
@@ -14099,7 +14114,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14305,7 +14320,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14511,7 +14526,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14592,7 +14607,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -14717,7 +14732,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14795,7 +14810,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
         <v>1.43</v>
@@ -14923,7 +14938,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15210,7 +15225,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15619,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ71">
         <v>0</v>
@@ -15747,7 +15762,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15953,7 +15968,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16031,7 +16046,7 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>2.43</v>
@@ -16365,7 +16380,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16443,7 +16458,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16571,7 +16586,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16777,7 +16792,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17395,7 +17410,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17601,7 +17616,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17682,7 +17697,7 @@
         <v>3</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR81">
         <v>2.43</v>
@@ -17807,7 +17822,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17888,7 +17903,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18013,7 +18028,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18091,7 +18106,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>0.5600000000000001</v>
@@ -18219,7 +18234,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18297,7 +18312,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18425,7 +18440,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18631,7 +18646,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18709,7 +18724,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -19043,7 +19058,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19249,7 +19264,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19661,7 +19676,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19867,7 +19882,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20279,7 +20294,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20357,7 +20372,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20566,7 +20581,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -20978,7 +20993,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR97">
         <v>1.81</v>
@@ -21103,7 +21118,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21181,7 +21196,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21596,7 +21611,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -21721,7 +21736,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22211,7 +22226,7 @@
         <v>0.57</v>
       </c>
       <c r="AP103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103">
         <v>0.5600000000000001</v>
@@ -22545,7 +22560,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22829,7 +22844,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ106">
         <v>0.25</v>
@@ -23369,7 +23384,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23447,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
         <v>0</v>
@@ -23575,7 +23590,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23656,7 +23671,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -23987,7 +24002,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24068,7 +24083,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24193,7 +24208,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24399,7 +24414,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24605,7 +24620,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24811,7 +24826,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25017,7 +25032,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25095,7 +25110,7 @@
         <v>0.29</v>
       </c>
       <c r="AP117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
         <v>0.25</v>
@@ -25223,7 +25238,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25635,7 +25650,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25998,6 +26013,830 @@
       </c>
       <c r="BP121">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7468212</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45626.39583333334</v>
+      </c>
+      <c r="F122">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>6</v>
+      </c>
+      <c r="O122" t="s">
+        <v>170</v>
+      </c>
+      <c r="P122" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q122">
+        <v>3.25</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+      <c r="S122">
+        <v>3.6</v>
+      </c>
+      <c r="T122">
+        <v>1.5</v>
+      </c>
+      <c r="U122">
+        <v>2.5</v>
+      </c>
+      <c r="V122">
+        <v>3.5</v>
+      </c>
+      <c r="W122">
+        <v>1.29</v>
+      </c>
+      <c r="X122">
+        <v>10</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>2</v>
+      </c>
+      <c r="AA122">
+        <v>3.3</v>
+      </c>
+      <c r="AB122">
+        <v>3.35</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>2.2</v>
+      </c>
+      <c r="AH122">
+        <v>1.58</v>
+      </c>
+      <c r="AI122">
+        <v>1.95</v>
+      </c>
+      <c r="AJ122">
+        <v>1.8</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1.14</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
+        <v>1.13</v>
+      </c>
+      <c r="AQ122">
+        <v>1</v>
+      </c>
+      <c r="AR122">
+        <v>1.54</v>
+      </c>
+      <c r="AS122">
+        <v>1.03</v>
+      </c>
+      <c r="AT122">
+        <v>2.57</v>
+      </c>
+      <c r="AU122">
+        <v>6</v>
+      </c>
+      <c r="AV122">
+        <v>9</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
+        <v>20</v>
+      </c>
+      <c r="BA122">
+        <v>8</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7468214</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F123">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>83</v>
+      </c>
+      <c r="H123" t="s">
+        <v>75</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>171</v>
+      </c>
+      <c r="P123" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q123">
+        <v>1.83</v>
+      </c>
+      <c r="R123">
+        <v>2.55</v>
+      </c>
+      <c r="S123">
+        <v>5.95</v>
+      </c>
+      <c r="T123">
+        <v>1.25</v>
+      </c>
+      <c r="U123">
+        <v>3.72</v>
+      </c>
+      <c r="V123">
+        <v>2.23</v>
+      </c>
+      <c r="W123">
+        <v>1.61</v>
+      </c>
+      <c r="X123">
+        <v>5.05</v>
+      </c>
+      <c r="Y123">
+        <v>1.15</v>
+      </c>
+      <c r="Z123">
+        <v>1.41</v>
+      </c>
+      <c r="AA123">
+        <v>4.7</v>
+      </c>
+      <c r="AB123">
+        <v>5.6</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>17</v>
+      </c>
+      <c r="AE123">
+        <v>1.1</v>
+      </c>
+      <c r="AF123">
+        <v>4.8</v>
+      </c>
+      <c r="AG123">
+        <v>1.46</v>
+      </c>
+      <c r="AH123">
+        <v>2.52</v>
+      </c>
+      <c r="AI123">
+        <v>1.68</v>
+      </c>
+      <c r="AJ123">
+        <v>2.06</v>
+      </c>
+      <c r="AK123">
+        <v>1.09</v>
+      </c>
+      <c r="AL123">
+        <v>1.16</v>
+      </c>
+      <c r="AM123">
+        <v>2.82</v>
+      </c>
+      <c r="AN123">
+        <v>2.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.17</v>
+      </c>
+      <c r="AP123">
+        <v>2.57</v>
+      </c>
+      <c r="AQ123">
+        <v>1</v>
+      </c>
+      <c r="AR123">
+        <v>1.87</v>
+      </c>
+      <c r="AS123">
+        <v>1.62</v>
+      </c>
+      <c r="AT123">
+        <v>3.49</v>
+      </c>
+      <c r="AU123">
+        <v>12</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>9</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>37</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>16</v>
+      </c>
+      <c r="BB123">
+        <v>1</v>
+      </c>
+      <c r="BC123">
+        <v>17</v>
+      </c>
+      <c r="BD123">
+        <v>1.3</v>
+      </c>
+      <c r="BE123">
+        <v>10</v>
+      </c>
+      <c r="BF123">
+        <v>4.42</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>1.8</v>
+      </c>
+      <c r="BN123">
+        <v>1.91</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7468209</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45626.5</v>
+      </c>
+      <c r="F124">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s">
+        <v>85</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>172</v>
+      </c>
+      <c r="P124" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q124">
+        <v>3.1</v>
+      </c>
+      <c r="R124">
+        <v>2.2</v>
+      </c>
+      <c r="S124">
+        <v>3.4</v>
+      </c>
+      <c r="T124">
+        <v>1.4</v>
+      </c>
+      <c r="U124">
+        <v>2.75</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>8</v>
+      </c>
+      <c r="Y124">
+        <v>1.08</v>
+      </c>
+      <c r="Z124">
+        <v>2.21</v>
+      </c>
+      <c r="AA124">
+        <v>3.25</v>
+      </c>
+      <c r="AB124">
+        <v>2.95</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>7.2</v>
+      </c>
+      <c r="AE124">
+        <v>1.25</v>
+      </c>
+      <c r="AF124">
+        <v>3.14</v>
+      </c>
+      <c r="AG124">
+        <v>2.09</v>
+      </c>
+      <c r="AH124">
+        <v>1.73</v>
+      </c>
+      <c r="AI124">
+        <v>1.7</v>
+      </c>
+      <c r="AJ124">
+        <v>2.05</v>
+      </c>
+      <c r="AK124">
+        <v>1.42</v>
+      </c>
+      <c r="AL124">
+        <v>1.25</v>
+      </c>
+      <c r="AM124">
+        <v>1.52</v>
+      </c>
+      <c r="AN124">
+        <v>0.88</v>
+      </c>
+      <c r="AO124">
+        <v>1.14</v>
+      </c>
+      <c r="AP124">
+        <v>1.11</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.58</v>
+      </c>
+      <c r="AS124">
+        <v>1.2</v>
+      </c>
+      <c r="AT124">
+        <v>2.78</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>9</v>
+      </c>
+      <c r="BA124">
+        <v>5</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>5</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7468210</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45626.625</v>
+      </c>
+      <c r="F125">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q125">
+        <v>6.3</v>
+      </c>
+      <c r="R125">
+        <v>2.43</v>
+      </c>
+      <c r="S125">
+        <v>1.87</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.4</v>
+      </c>
+      <c r="V125">
+        <v>2.43</v>
+      </c>
+      <c r="W125">
+        <v>1.52</v>
+      </c>
+      <c r="X125">
+        <v>5.95</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>5.9</v>
+      </c>
+      <c r="AA125">
+        <v>4.08</v>
+      </c>
+      <c r="AB125">
+        <v>1.36</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>13</v>
+      </c>
+      <c r="AE125">
+        <v>1.14</v>
+      </c>
+      <c r="AF125">
+        <v>4.2</v>
+      </c>
+      <c r="AG125">
+        <v>1.62</v>
+      </c>
+      <c r="AH125">
+        <v>2.15</v>
+      </c>
+      <c r="AI125">
+        <v>1.82</v>
+      </c>
+      <c r="AJ125">
+        <v>1.88</v>
+      </c>
+      <c r="AK125">
+        <v>2.82</v>
+      </c>
+      <c r="AL125">
+        <v>1.17</v>
+      </c>
+      <c r="AM125">
+        <v>1.08</v>
+      </c>
+      <c r="AN125">
+        <v>1.29</v>
+      </c>
+      <c r="AO125">
+        <v>2</v>
+      </c>
+      <c r="AP125">
+        <v>1.25</v>
+      </c>
+      <c r="AQ125">
+        <v>1.89</v>
+      </c>
+      <c r="AR125">
+        <v>1.21</v>
+      </c>
+      <c r="AS125">
+        <v>1.74</v>
+      </c>
+      <c r="AT125">
+        <v>2.95</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>5</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>14</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
+        <v>10</v>
+      </c>
+      <c r="BB125">
+        <v>8</v>
+      </c>
+      <c r="BC125">
+        <v>18</v>
+      </c>
+      <c r="BD125">
+        <v>3.49</v>
+      </c>
+      <c r="BE125">
+        <v>9</v>
+      </c>
+      <c r="BF125">
+        <v>1.41</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>2.05</v>
+      </c>
+      <c r="BN125">
+        <v>1.7</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['38', '46', '77']</t>
+  </si>
+  <si>
+    <t>['70', '75', '80']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -722,6 +728,9 @@
   </si>
   <si>
     <t>['11']</t>
+  </si>
+  <si>
+    <t>['2', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1351,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1754,7 +1763,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2166,7 +2175,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2372,7 +2381,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2453,7 +2462,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3196,7 +3205,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3402,7 +3411,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3689,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3814,7 +3823,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4098,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4307,7 +4316,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4510,10 +4519,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4638,7 +4647,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5668,7 +5677,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5874,7 +5883,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6080,7 +6089,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6161,7 +6170,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6286,7 +6295,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6492,7 +6501,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6573,7 +6582,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -7191,7 +7200,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ30">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>1.24</v>
@@ -7394,10 +7403,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7600,7 +7609,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7934,7 +7943,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8140,7 +8149,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8346,7 +8355,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8552,7 +8561,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8964,7 +8973,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9376,7 +9385,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9457,7 +9466,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9582,7 +9591,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9788,7 +9797,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10075,7 +10084,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10281,7 +10290,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10487,7 +10496,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11105,7 +11114,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11230,7 +11239,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11642,7 +11651,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12054,7 +12063,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12466,7 +12475,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12544,7 +12553,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12672,7 +12681,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12750,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ57">
         <v>2.43</v>
@@ -13084,7 +13093,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13371,7 +13380,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13702,7 +13711,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13780,7 +13789,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -13908,7 +13917,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14114,7 +14123,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14320,7 +14329,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14526,7 +14535,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14732,7 +14741,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14813,7 +14822,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14938,7 +14947,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15431,7 +15440,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ70">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15637,7 +15646,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -15762,7 +15771,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15840,7 +15849,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15968,7 +15977,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16255,7 +16264,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16380,7 +16389,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16586,7 +16595,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16792,7 +16801,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16873,7 +16882,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17076,7 +17085,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17282,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
         <v>1.33</v>
@@ -17410,7 +17419,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17616,7 +17625,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17822,7 +17831,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18028,7 +18037,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18234,7 +18243,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18440,7 +18449,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18521,7 +18530,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18646,7 +18655,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18933,7 +18942,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19058,7 +19067,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19264,7 +19273,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19676,7 +19685,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19882,7 +19891,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19963,7 +19972,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20169,7 +20178,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20294,7 +20303,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20578,7 +20587,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20990,7 +20999,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21118,7 +21127,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21736,7 +21745,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22023,7 +22032,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22560,7 +22569,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23053,7 +23062,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23259,7 +23268,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23384,7 +23393,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23465,7 +23474,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -23590,7 +23599,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23668,7 +23677,7 @@
         <v>2.14</v>
       </c>
       <c r="AP110">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ110">
         <v>1.89</v>
@@ -23874,7 +23883,7 @@
         <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24002,7 +24011,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24208,7 +24217,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24414,7 +24423,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24620,7 +24629,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24826,7 +24835,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25032,7 +25041,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25238,7 +25247,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25650,7 +25659,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25731,7 +25740,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR120">
         <v>1.59</v>
@@ -26062,7 +26071,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26268,7 +26277,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26585,13 +26594,13 @@
         <v>9</v>
       </c>
       <c r="BA124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB124">
         <v>0</v>
       </c>
       <c r="BC124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD124">
         <v>0</v>
@@ -26680,7 +26689,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -26837,6 +26846,830 @@
       </c>
       <c r="BP125">
         <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7468208</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45627.375</v>
+      </c>
+      <c r="F126">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>104</v>
+      </c>
+      <c r="P126" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q126">
+        <v>1.62</v>
+      </c>
+      <c r="R126">
+        <v>2.75</v>
+      </c>
+      <c r="S126">
+        <v>9.5</v>
+      </c>
+      <c r="T126">
+        <v>1.25</v>
+      </c>
+      <c r="U126">
+        <v>3.75</v>
+      </c>
+      <c r="V126">
+        <v>2.2</v>
+      </c>
+      <c r="W126">
+        <v>1.62</v>
+      </c>
+      <c r="X126">
+        <v>5</v>
+      </c>
+      <c r="Y126">
+        <v>1.17</v>
+      </c>
+      <c r="Z126">
+        <v>1.21</v>
+      </c>
+      <c r="AA126">
+        <v>6.35</v>
+      </c>
+      <c r="AB126">
+        <v>10.61</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>20</v>
+      </c>
+      <c r="AE126">
+        <v>1.15</v>
+      </c>
+      <c r="AF126">
+        <v>5.17</v>
+      </c>
+      <c r="AG126">
+        <v>1.45</v>
+      </c>
+      <c r="AH126">
+        <v>2.63</v>
+      </c>
+      <c r="AI126">
+        <v>2.05</v>
+      </c>
+      <c r="AJ126">
+        <v>1.7</v>
+      </c>
+      <c r="AK126">
+        <v>1.02</v>
+      </c>
+      <c r="AL126">
+        <v>1.11</v>
+      </c>
+      <c r="AM126">
+        <v>4.2</v>
+      </c>
+      <c r="AN126">
+        <v>3</v>
+      </c>
+      <c r="AO126">
+        <v>1.43</v>
+      </c>
+      <c r="AP126">
+        <v>3</v>
+      </c>
+      <c r="AQ126">
+        <v>1.25</v>
+      </c>
+      <c r="AR126">
+        <v>2.37</v>
+      </c>
+      <c r="AS126">
+        <v>1.57</v>
+      </c>
+      <c r="AT126">
+        <v>3.94</v>
+      </c>
+      <c r="AU126">
+        <v>9</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>9</v>
+      </c>
+      <c r="AX126">
+        <v>3</v>
+      </c>
+      <c r="AY126">
+        <v>21</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>6</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>1.88</v>
+      </c>
+      <c r="BN126">
+        <v>1.92</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7468213</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45627.47916666666</v>
+      </c>
+      <c r="F127">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>82</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>173</v>
+      </c>
+      <c r="P127" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q127">
+        <v>2.62</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>3.7</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>3</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.1</v>
+      </c>
+      <c r="Z127">
+        <v>2.12</v>
+      </c>
+      <c r="AA127">
+        <v>3.42</v>
+      </c>
+      <c r="AB127">
+        <v>3.31</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>9</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>3.14</v>
+      </c>
+      <c r="AG127">
+        <v>1.92</v>
+      </c>
+      <c r="AH127">
+        <v>1.87</v>
+      </c>
+      <c r="AI127">
+        <v>1.73</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>1.33</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.62</v>
+      </c>
+      <c r="AN127">
+        <v>1.43</v>
+      </c>
+      <c r="AO127">
+        <v>0.71</v>
+      </c>
+      <c r="AP127">
+        <v>1.63</v>
+      </c>
+      <c r="AQ127">
+        <v>0.63</v>
+      </c>
+      <c r="AR127">
+        <v>1.5</v>
+      </c>
+      <c r="AS127">
+        <v>1.15</v>
+      </c>
+      <c r="AT127">
+        <v>2.65</v>
+      </c>
+      <c r="AU127">
+        <v>9</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>7</v>
+      </c>
+      <c r="AY127">
+        <v>20</v>
+      </c>
+      <c r="AZ127">
+        <v>17</v>
+      </c>
+      <c r="BA127">
+        <v>7</v>
+      </c>
+      <c r="BB127">
+        <v>7</v>
+      </c>
+      <c r="BC127">
+        <v>14</v>
+      </c>
+      <c r="BD127">
+        <v>1.62</v>
+      </c>
+      <c r="BE127">
+        <v>7.4</v>
+      </c>
+      <c r="BF127">
+        <v>2.65</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>1.31</v>
+      </c>
+      <c r="BJ127">
+        <v>3.15</v>
+      </c>
+      <c r="BK127">
+        <v>1.53</v>
+      </c>
+      <c r="BL127">
+        <v>2.33</v>
+      </c>
+      <c r="BM127">
+        <v>1.92</v>
+      </c>
+      <c r="BN127">
+        <v>1.88</v>
+      </c>
+      <c r="BO127">
+        <v>2.36</v>
+      </c>
+      <c r="BP127">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7468215</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45627.47916666666</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128" t="s">
+        <v>88</v>
+      </c>
+      <c r="P128" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q128">
+        <v>2.2</v>
+      </c>
+      <c r="R128">
+        <v>2.2</v>
+      </c>
+      <c r="S128">
+        <v>4.6</v>
+      </c>
+      <c r="T128">
+        <v>1.36</v>
+      </c>
+      <c r="U128">
+        <v>3</v>
+      </c>
+      <c r="V128">
+        <v>2.62</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>6</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>2.24</v>
+      </c>
+      <c r="AA128">
+        <v>3.13</v>
+      </c>
+      <c r="AB128">
+        <v>3.33</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.22</v>
+      </c>
+      <c r="AF128">
+        <v>3.34</v>
+      </c>
+      <c r="AG128">
+        <v>1.91</v>
+      </c>
+      <c r="AH128">
+        <v>1.88</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.91</v>
+      </c>
+      <c r="AK128">
+        <v>1.18</v>
+      </c>
+      <c r="AL128">
+        <v>1.29</v>
+      </c>
+      <c r="AM128">
+        <v>2</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>0.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.1</v>
+      </c>
+      <c r="AS128">
+        <v>1</v>
+      </c>
+      <c r="AT128">
+        <v>2.1</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>0</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>2</v>
+      </c>
+      <c r="AY128">
+        <v>20</v>
+      </c>
+      <c r="AZ128">
+        <v>3</v>
+      </c>
+      <c r="BA128">
+        <v>9</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>1.55</v>
+      </c>
+      <c r="BE128">
+        <v>6.4</v>
+      </c>
+      <c r="BF128">
+        <v>3</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>1.31</v>
+      </c>
+      <c r="BJ128">
+        <v>3.15</v>
+      </c>
+      <c r="BK128">
+        <v>1.53</v>
+      </c>
+      <c r="BL128">
+        <v>2.34</v>
+      </c>
+      <c r="BM128">
+        <v>1.86</v>
+      </c>
+      <c r="BN128">
+        <v>1.84</v>
+      </c>
+      <c r="BO128">
+        <v>2.35</v>
+      </c>
+      <c r="BP128">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7468211</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45627.60416666666</v>
+      </c>
+      <c r="F129">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>174</v>
+      </c>
+      <c r="P129" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q129">
+        <v>2.1</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>6</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>1.48</v>
+      </c>
+      <c r="AA129">
+        <v>3.68</v>
+      </c>
+      <c r="AB129">
+        <v>4.94</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>9</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.8</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.95</v>
+      </c>
+      <c r="AJ129">
+        <v>1.8</v>
+      </c>
+      <c r="AK129">
+        <v>1.09</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
+        <v>2.45</v>
+      </c>
+      <c r="AN129">
+        <v>2.71</v>
+      </c>
+      <c r="AO129">
+        <v>1.38</v>
+      </c>
+      <c r="AP129">
+        <v>2.75</v>
+      </c>
+      <c r="AQ129">
+        <v>1.22</v>
+      </c>
+      <c r="AR129">
+        <v>1.69</v>
+      </c>
+      <c r="AS129">
+        <v>1.4</v>
+      </c>
+      <c r="AT129">
+        <v>3.09</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>8</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>10</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>7</v>
+      </c>
+      <c r="BD129">
+        <v>1.37</v>
+      </c>
+      <c r="BE129">
+        <v>7</v>
+      </c>
+      <c r="BF129">
+        <v>3.9</v>
+      </c>
+      <c r="BG129">
+        <v>1.15</v>
+      </c>
+      <c r="BH129">
+        <v>4.8</v>
+      </c>
+      <c r="BI129">
+        <v>1.3</v>
+      </c>
+      <c r="BJ129">
+        <v>3.2</v>
+      </c>
+      <c r="BK129">
+        <v>1.51</v>
+      </c>
+      <c r="BL129">
+        <v>2.4</v>
+      </c>
+      <c r="BM129">
+        <v>2</v>
+      </c>
+      <c r="BN129">
+        <v>1.8</v>
+      </c>
+      <c r="BO129">
+        <v>2.28</v>
+      </c>
+      <c r="BP129">
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -26579,7 +26579,7 @@
         <v>2</v>
       </c>
       <c r="AV124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW124">
         <v>9</v>
@@ -26591,7 +26591,7 @@
         <v>13</v>
       </c>
       <c r="AZ124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -27621,16 +27621,16 @@
         <v>15</v>
       </c>
       <c r="AZ129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB129">
         <v>5</v>
       </c>
       <c r="BC129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD129">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -27612,13 +27612,13 @@
         <v>5</v>
       </c>
       <c r="AW129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX129">
         <v>4</v>
       </c>
       <c r="AY129">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ129">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,18 @@
     <t>['70', '75', '80']</t>
   </si>
   <si>
+    <t>['2', '39', '45', '88']</t>
+  </si>
+  <si>
+    <t>['1', '17', '20', '30', '88']</t>
+  </si>
+  <si>
+    <t>['69', '90']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -731,6 +743,21 @@
   </si>
   <si>
     <t>['2', '45+2']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['12', '16', '51']</t>
+  </si>
+  <si>
+    <t>['38', '78']</t>
+  </si>
+  <si>
+    <t>['51', '56']</t>
+  </si>
+  <si>
+    <t>['29']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1378,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1429,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0.5600000000000001</v>
@@ -1635,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1763,7 +1790,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2047,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2175,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2253,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
         <v>1.75</v>
@@ -2381,7 +2408,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2462,7 +2489,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,7 +2695,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3077,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3205,7 +3232,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3411,7 +3438,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3492,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3698,7 +3725,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3823,7 +3850,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4107,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4313,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1.22</v>
@@ -4519,10 +4546,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ17">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4647,7 +4674,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4728,7 +4755,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ18">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -4931,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.25</v>
@@ -5343,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5677,7 +5704,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5883,7 +5910,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6089,7 +6116,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6167,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ25">
         <v>1.22</v>
@@ -6295,7 +6322,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6373,7 +6400,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.89</v>
@@ -6501,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6582,7 +6609,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -6994,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7197,10 +7224,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>1.24</v>
@@ -7403,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7609,10 +7636,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7943,7 +7970,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8149,7 +8176,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8355,7 +8382,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8433,7 +8460,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.89</v>
@@ -8561,7 +8588,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8973,7 +9000,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9385,7 +9412,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9463,7 +9490,7 @@
         <v>1.5</v>
       </c>
       <c r="AP41">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.22</v>
@@ -9591,7 +9618,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9672,7 +9699,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9797,7 +9824,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9875,10 +9902,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -10084,7 +10111,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10287,10 +10314,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10493,10 +10520,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11239,7 +11266,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11651,7 +11678,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12063,7 +12090,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12475,7 +12502,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12553,7 +12580,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12681,7 +12708,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12759,10 +12786,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ57">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12968,7 +12995,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13093,7 +13120,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13711,7 +13738,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13789,7 +13816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -13917,7 +13944,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14123,7 +14150,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14329,7 +14356,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14535,7 +14562,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14613,7 +14640,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14741,7 +14768,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14819,10 +14846,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14947,7 +14974,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15234,7 +15261,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15437,10 +15464,10 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15643,10 +15670,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ71">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -15771,7 +15798,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15849,7 +15876,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -15977,7 +16004,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16055,10 +16082,10 @@
         <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16264,7 +16291,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16389,7 +16416,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16595,7 +16622,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16676,7 +16703,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR76">
         <v>1.29</v>
@@ -16801,7 +16828,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17085,7 +17112,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17291,7 +17318,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ79">
         <v>1.33</v>
@@ -17419,7 +17446,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17625,7 +17652,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17831,7 +17858,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18037,7 +18064,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18115,7 +18142,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ83">
         <v>0.5600000000000001</v>
@@ -18243,7 +18270,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18321,7 +18348,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18449,7 +18476,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18527,10 +18554,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18655,7 +18682,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18733,7 +18760,7 @@
         <v>0.8</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -18942,7 +18969,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ87">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19067,7 +19094,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19273,7 +19300,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19351,10 +19378,10 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -19560,7 +19587,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19685,7 +19712,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19891,7 +19918,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19972,7 +19999,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20303,7 +20330,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20587,10 +20614,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -20999,7 +21026,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21127,7 +21154,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21205,7 +21232,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21411,7 +21438,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21745,7 +21772,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21823,7 +21850,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22032,7 +22059,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22235,7 +22262,7 @@
         <v>0.57</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>0.5600000000000001</v>
@@ -22569,7 +22596,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22650,7 +22677,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ105">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -22853,7 +22880,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ106">
         <v>0.25</v>
@@ -23268,7 +23295,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ108">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23393,7 +23420,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23474,7 +23501,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -23599,7 +23626,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23677,7 +23704,7 @@
         <v>2.14</v>
       </c>
       <c r="AP110">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ110">
         <v>1.89</v>
@@ -23883,7 +23910,7 @@
         <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ111">
         <v>1.5</v>
@@ -24011,7 +24038,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24092,7 +24119,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24217,7 +24244,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24295,7 +24322,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24423,7 +24450,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24501,7 +24528,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24629,7 +24656,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24835,7 +24862,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25041,7 +25068,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25119,7 +25146,7 @@
         <v>0.29</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
         <v>0.25</v>
@@ -25205,7 +25232,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7468202</v>
+        <v>7468201</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25217,151 +25244,151 @@
         <v>45620.47916666666</v>
       </c>
       <c r="F118">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O118" t="s">
+        <v>167</v>
+      </c>
+      <c r="P118" t="s">
         <v>88</v>
       </c>
-      <c r="P118" t="s">
-        <v>234</v>
-      </c>
       <c r="Q118">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>5.5</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>1.55</v>
+      </c>
+      <c r="AA118">
+        <v>3.8</v>
+      </c>
+      <c r="AB118">
+        <v>4.7</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>4.5</v>
+      </c>
+      <c r="AF118">
+        <v>1.14</v>
+      </c>
+      <c r="AG118">
+        <v>1.73</v>
+      </c>
+      <c r="AH118">
+        <v>2</v>
+      </c>
+      <c r="AI118">
+        <v>1.75</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>0.63</v>
+      </c>
+      <c r="AP118">
+        <v>1.67</v>
+      </c>
+      <c r="AQ118">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR118">
+        <v>1.64</v>
+      </c>
+      <c r="AS118">
+        <v>1.02</v>
+      </c>
+      <c r="AT118">
+        <v>2.66</v>
+      </c>
+      <c r="AU118">
         <v>3</v>
       </c>
-      <c r="S118">
-        <v>1.44</v>
-      </c>
-      <c r="T118">
-        <v>1.25</v>
-      </c>
-      <c r="U118">
-        <v>3.75</v>
-      </c>
-      <c r="V118">
-        <v>2.1</v>
-      </c>
-      <c r="W118">
-        <v>1.67</v>
-      </c>
-      <c r="X118">
-        <v>5</v>
-      </c>
-      <c r="Y118">
-        <v>1.17</v>
-      </c>
-      <c r="Z118">
+      <c r="AV118">
+        <v>6</v>
+      </c>
+      <c r="AW118">
+        <v>7</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>10</v>
+      </c>
+      <c r="AZ118">
         <v>11</v>
       </c>
-      <c r="AA118">
-        <v>7.5</v>
-      </c>
-      <c r="AB118">
-        <v>1.12</v>
-      </c>
-      <c r="AC118">
-        <v>0</v>
-      </c>
-      <c r="AD118">
-        <v>0</v>
-      </c>
-      <c r="AE118">
-        <v>0</v>
-      </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
-      <c r="AG118">
-        <v>1.46</v>
-      </c>
-      <c r="AH118">
-        <v>2.6</v>
-      </c>
-      <c r="AI118">
-        <v>2.5</v>
-      </c>
-      <c r="AJ118">
-        <v>1.5</v>
-      </c>
-      <c r="AK118">
-        <v>0</v>
-      </c>
-      <c r="AL118">
-        <v>0</v>
-      </c>
-      <c r="AM118">
-        <v>0</v>
-      </c>
-      <c r="AN118">
-        <v>0.25</v>
-      </c>
-      <c r="AO118">
-        <v>2.33</v>
-      </c>
-      <c r="AP118">
-        <v>0.22</v>
-      </c>
-      <c r="AQ118">
-        <v>2.43</v>
-      </c>
-      <c r="AR118">
-        <v>1.38</v>
-      </c>
-      <c r="AS118">
-        <v>1.61</v>
-      </c>
-      <c r="AT118">
-        <v>2.99</v>
-      </c>
-      <c r="AU118">
-        <v>2</v>
-      </c>
-      <c r="AV118">
-        <v>7</v>
-      </c>
-      <c r="AW118">
-        <v>4</v>
-      </c>
-      <c r="AX118">
-        <v>4</v>
-      </c>
-      <c r="AY118">
-        <v>8</v>
-      </c>
-      <c r="AZ118">
-        <v>16</v>
-      </c>
       <c r="BA118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC118">
         <v>9</v>
@@ -25411,7 +25438,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7468201</v>
+        <v>7468202</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25423,73 +25450,73 @@
         <v>45620.47916666666</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H119" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O119" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="P119" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="Q119">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="R119">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S119">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="T119">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U119">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V119">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W119">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X119">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y119">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="Z119">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="AA119">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB119">
-        <v>4.7</v>
+        <v>1.12</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -25498,22 +25525,22 @@
         <v>0</v>
       </c>
       <c r="AE119">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AF119">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AG119">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="AH119">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI119">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ119">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -25525,49 +25552,49 @@
         <v>0</v>
       </c>
       <c r="AN119">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO119">
-        <v>0.63</v>
+        <v>2.33</v>
       </c>
       <c r="AP119">
-        <v>1.67</v>
+        <v>0.22</v>
       </c>
       <c r="AQ119">
-        <v>0.5600000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AR119">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AS119">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="AT119">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AU119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW119">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ119">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC119">
         <v>9</v>
@@ -25659,7 +25686,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25740,7 +25767,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.59</v>
@@ -25946,7 +25973,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26071,7 +26098,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26149,10 +26176,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26277,7 +26304,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26355,10 +26382,10 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -26689,7 +26716,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -26767,7 +26794,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ125">
         <v>1.89</v>
@@ -26976,7 +27003,7 @@
         <v>3</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>2.37</v>
@@ -27179,10 +27206,10 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ127">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.5</v>
@@ -27388,7 +27415,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR128">
         <v>1.1</v>
@@ -27513,7 +27540,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27591,7 +27618,7 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ129">
         <v>1.22</v>
@@ -27670,6 +27697,1654 @@
       </c>
       <c r="BP129">
         <v>1.56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7468141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45629.625</v>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>75</v>
+      </c>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>175</v>
+      </c>
+      <c r="P130" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q130">
+        <v>1.5</v>
+      </c>
+      <c r="R130">
+        <v>3.1</v>
+      </c>
+      <c r="S130">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>1.2</v>
+      </c>
+      <c r="U130">
+        <v>4</v>
+      </c>
+      <c r="V130">
+        <v>1.95</v>
+      </c>
+      <c r="W130">
+        <v>1.75</v>
+      </c>
+      <c r="X130">
+        <v>3.8</v>
+      </c>
+      <c r="Y130">
+        <v>1.22</v>
+      </c>
+      <c r="Z130">
+        <v>1.23</v>
+      </c>
+      <c r="AA130">
+        <v>6.3</v>
+      </c>
+      <c r="AB130">
+        <v>10.7</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>31</v>
+      </c>
+      <c r="AE130">
+        <v>1.1</v>
+      </c>
+      <c r="AF130">
+        <v>5.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.45</v>
+      </c>
+      <c r="AH130">
+        <v>2.55</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.73</v>
+      </c>
+      <c r="AK130">
+        <v>1.05</v>
+      </c>
+      <c r="AL130">
+        <v>1.04</v>
+      </c>
+      <c r="AM130">
+        <v>4.33</v>
+      </c>
+      <c r="AN130">
+        <v>1.57</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>1.75</v>
+      </c>
+      <c r="AQ130">
+        <v>0.88</v>
+      </c>
+      <c r="AR130">
+        <v>1.93</v>
+      </c>
+      <c r="AS130">
+        <v>1.54</v>
+      </c>
+      <c r="AT130">
+        <v>3.47</v>
+      </c>
+      <c r="AU130">
+        <v>13</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>11</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>30</v>
+      </c>
+      <c r="AZ130">
+        <v>12</v>
+      </c>
+      <c r="BA130">
+        <v>8</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.08</v>
+      </c>
+      <c r="BE130">
+        <v>12.5</v>
+      </c>
+      <c r="BF130">
+        <v>10</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>1.22</v>
+      </c>
+      <c r="BJ130">
+        <v>3.64</v>
+      </c>
+      <c r="BK130">
+        <v>1.42</v>
+      </c>
+      <c r="BL130">
+        <v>2.57</v>
+      </c>
+      <c r="BM130">
+        <v>1.9</v>
+      </c>
+      <c r="BN130">
+        <v>1.9</v>
+      </c>
+      <c r="BO130">
+        <v>2.21</v>
+      </c>
+      <c r="BP130">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7468142</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45629.875</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>73</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>88</v>
+      </c>
+      <c r="P131" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q131">
+        <v>2.75</v>
+      </c>
+      <c r="R131">
+        <v>2.1</v>
+      </c>
+      <c r="S131">
+        <v>4.33</v>
+      </c>
+      <c r="T131">
+        <v>1.44</v>
+      </c>
+      <c r="U131">
+        <v>2.63</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>9</v>
+      </c>
+      <c r="Y131">
+        <v>1.07</v>
+      </c>
+      <c r="Z131">
+        <v>2.17</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>3.35</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>8</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.2</v>
+      </c>
+      <c r="AG131">
+        <v>1.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.85</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>1.18</v>
+      </c>
+      <c r="AL131">
+        <v>1.21</v>
+      </c>
+      <c r="AM131">
+        <v>1.75</v>
+      </c>
+      <c r="AN131">
+        <v>1.13</v>
+      </c>
+      <c r="AO131">
+        <v>0.63</v>
+      </c>
+      <c r="AP131">
+        <v>1</v>
+      </c>
+      <c r="AQ131">
+        <v>0.89</v>
+      </c>
+      <c r="AR131">
+        <v>1.51</v>
+      </c>
+      <c r="AS131">
+        <v>1.23</v>
+      </c>
+      <c r="AT131">
+        <v>2.74</v>
+      </c>
+      <c r="AU131">
+        <v>4</v>
+      </c>
+      <c r="AV131">
+        <v>6</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>11</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>14</v>
+      </c>
+      <c r="BD131">
+        <v>1.46</v>
+      </c>
+      <c r="BE131">
+        <v>7.4</v>
+      </c>
+      <c r="BF131">
+        <v>3.5</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>1.24</v>
+      </c>
+      <c r="BJ131">
+        <v>3.48</v>
+      </c>
+      <c r="BK131">
+        <v>1.48</v>
+      </c>
+      <c r="BL131">
+        <v>2.57</v>
+      </c>
+      <c r="BM131">
+        <v>2</v>
+      </c>
+      <c r="BN131">
+        <v>1.8</v>
+      </c>
+      <c r="BO131">
+        <v>2.23</v>
+      </c>
+      <c r="BP131">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7468143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45630.5625</v>
+      </c>
+      <c r="F132">
+        <v>8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>72</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>5</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>176</v>
+      </c>
+      <c r="P132" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q132">
+        <v>1.92</v>
+      </c>
+      <c r="R132">
+        <v>2.5</v>
+      </c>
+      <c r="S132">
+        <v>5.6</v>
+      </c>
+      <c r="T132">
+        <v>1.31</v>
+      </c>
+      <c r="U132">
+        <v>3.28</v>
+      </c>
+      <c r="V132">
+        <v>2.46</v>
+      </c>
+      <c r="W132">
+        <v>1.51</v>
+      </c>
+      <c r="X132">
+        <v>5.75</v>
+      </c>
+      <c r="Y132">
+        <v>1.12</v>
+      </c>
+      <c r="Z132">
+        <v>1.36</v>
+      </c>
+      <c r="AA132">
+        <v>5.2</v>
+      </c>
+      <c r="AB132">
+        <v>7.85</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10</v>
+      </c>
+      <c r="AE132">
+        <v>1.17</v>
+      </c>
+      <c r="AF132">
+        <v>4.2</v>
+      </c>
+      <c r="AG132">
+        <v>1.57</v>
+      </c>
+      <c r="AH132">
+        <v>2.33</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.93</v>
+      </c>
+      <c r="AK132">
+        <v>1.09</v>
+      </c>
+      <c r="AL132">
+        <v>1.17</v>
+      </c>
+      <c r="AM132">
+        <v>2.65</v>
+      </c>
+      <c r="AN132">
+        <v>1.86</v>
+      </c>
+      <c r="AO132">
+        <v>0.14</v>
+      </c>
+      <c r="AP132">
+        <v>2</v>
+      </c>
+      <c r="AQ132">
+        <v>0.13</v>
+      </c>
+      <c r="AR132">
+        <v>1.63</v>
+      </c>
+      <c r="AS132">
+        <v>0.9</v>
+      </c>
+      <c r="AT132">
+        <v>2.53</v>
+      </c>
+      <c r="AU132">
+        <v>10</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>19</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>1.26</v>
+      </c>
+      <c r="BE132">
+        <v>8.5</v>
+      </c>
+      <c r="BF132">
+        <v>5.15</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>1.27</v>
+      </c>
+      <c r="BJ132">
+        <v>3.28</v>
+      </c>
+      <c r="BK132">
+        <v>1.49</v>
+      </c>
+      <c r="BL132">
+        <v>2.38</v>
+      </c>
+      <c r="BM132">
+        <v>1.95</v>
+      </c>
+      <c r="BN132">
+        <v>1.85</v>
+      </c>
+      <c r="BO132">
+        <v>2.19</v>
+      </c>
+      <c r="BP132">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7468137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45630.5625</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>177</v>
+      </c>
+      <c r="P133" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>2.8</v>
+      </c>
+      <c r="T133">
+        <v>1.37</v>
+      </c>
+      <c r="U133">
+        <v>2.85</v>
+      </c>
+      <c r="V133">
+        <v>2.7</v>
+      </c>
+      <c r="W133">
+        <v>1.41</v>
+      </c>
+      <c r="X133">
+        <v>6.45</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>3.42</v>
+      </c>
+      <c r="AA133">
+        <v>3.42</v>
+      </c>
+      <c r="AB133">
+        <v>2.13</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>12.75</v>
+      </c>
+      <c r="AE133">
+        <v>1.28</v>
+      </c>
+      <c r="AF133">
+        <v>3.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.92</v>
+      </c>
+      <c r="AH133">
+        <v>1.88</v>
+      </c>
+      <c r="AI133">
+        <v>1.7</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>1.63</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.36</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>1</v>
+      </c>
+      <c r="AQ133">
+        <v>1</v>
+      </c>
+      <c r="AR133">
+        <v>1.21</v>
+      </c>
+      <c r="AS133">
+        <v>1.18</v>
+      </c>
+      <c r="AT133">
+        <v>2.39</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>7</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>14</v>
+      </c>
+      <c r="AZ133">
+        <v>12</v>
+      </c>
+      <c r="BA133">
+        <v>6</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>2.12</v>
+      </c>
+      <c r="BE133">
+        <v>6.65</v>
+      </c>
+      <c r="BF133">
+        <v>2.07</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.25</v>
+      </c>
+      <c r="BJ133">
+        <v>3.42</v>
+      </c>
+      <c r="BK133">
+        <v>1.46</v>
+      </c>
+      <c r="BL133">
+        <v>2.45</v>
+      </c>
+      <c r="BM133">
+        <v>1.77</v>
+      </c>
+      <c r="BN133">
+        <v>2.02</v>
+      </c>
+      <c r="BO133">
+        <v>2.2</v>
+      </c>
+      <c r="BP133">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7468140</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45630.5625</v>
+      </c>
+      <c r="F134">
+        <v>8</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>76</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>178</v>
+      </c>
+      <c r="P134" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q134">
+        <v>4.04</v>
+      </c>
+      <c r="R134">
+        <v>2.05</v>
+      </c>
+      <c r="S134">
+        <v>2.78</v>
+      </c>
+      <c r="T134">
+        <v>1.44</v>
+      </c>
+      <c r="U134">
+        <v>2.67</v>
+      </c>
+      <c r="V134">
+        <v>3.04</v>
+      </c>
+      <c r="W134">
+        <v>1.35</v>
+      </c>
+      <c r="X134">
+        <v>7.9</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>3.08</v>
+      </c>
+      <c r="AA134">
+        <v>3.28</v>
+      </c>
+      <c r="AB134">
+        <v>2.36</v>
+      </c>
+      <c r="AC134">
+        <v>1.03</v>
+      </c>
+      <c r="AD134">
+        <v>8</v>
+      </c>
+      <c r="AE134">
+        <v>1.33</v>
+      </c>
+      <c r="AF134">
+        <v>2.91</v>
+      </c>
+      <c r="AG134">
+        <v>2.09</v>
+      </c>
+      <c r="AH134">
+        <v>1.74</v>
+      </c>
+      <c r="AI134">
+        <v>1.84</v>
+      </c>
+      <c r="AJ134">
+        <v>1.92</v>
+      </c>
+      <c r="AK134">
+        <v>1.65</v>
+      </c>
+      <c r="AL134">
+        <v>1.31</v>
+      </c>
+      <c r="AM134">
+        <v>1.32</v>
+      </c>
+      <c r="AN134">
+        <v>1.25</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>1.11</v>
+      </c>
+      <c r="AQ134">
+        <v>1.22</v>
+      </c>
+      <c r="AR134">
+        <v>1.24</v>
+      </c>
+      <c r="AS134">
+        <v>1.14</v>
+      </c>
+      <c r="AT134">
+        <v>2.38</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>1</v>
+      </c>
+      <c r="AY134">
+        <v>7</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>4</v>
+      </c>
+      <c r="BC134">
+        <v>7</v>
+      </c>
+      <c r="BD134">
+        <v>1.95</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>2.1</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>2</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>2.05</v>
+      </c>
+      <c r="BN134">
+        <v>1.7</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7468136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45631.5625</v>
+      </c>
+      <c r="F135">
+        <v>8</v>
+      </c>
+      <c r="G135" t="s">
+        <v>82</v>
+      </c>
+      <c r="H135" t="s">
+        <v>81</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>113</v>
+      </c>
+      <c r="P135" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q135">
+        <v>2.61</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>3.62</v>
+      </c>
+      <c r="T135">
+        <v>1.32</v>
+      </c>
+      <c r="U135">
+        <v>3.22</v>
+      </c>
+      <c r="V135">
+        <v>2.46</v>
+      </c>
+      <c r="W135">
+        <v>1.51</v>
+      </c>
+      <c r="X135">
+        <v>5.8</v>
+      </c>
+      <c r="Y135">
+        <v>1.12</v>
+      </c>
+      <c r="Z135">
+        <v>2.3</v>
+      </c>
+      <c r="AA135">
+        <v>3.4</v>
+      </c>
+      <c r="AB135">
+        <v>2.88</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>11</v>
+      </c>
+      <c r="AE135">
+        <v>1.18</v>
+      </c>
+      <c r="AF135">
+        <v>4.05</v>
+      </c>
+      <c r="AG135">
+        <v>1.73</v>
+      </c>
+      <c r="AH135">
+        <v>1.95</v>
+      </c>
+      <c r="AI135">
+        <v>1.57</v>
+      </c>
+      <c r="AJ135">
+        <v>2.3</v>
+      </c>
+      <c r="AK135">
+        <v>1.34</v>
+      </c>
+      <c r="AL135">
+        <v>1.26</v>
+      </c>
+      <c r="AM135">
+        <v>1.69</v>
+      </c>
+      <c r="AN135">
+        <v>1.63</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.78</v>
+      </c>
+      <c r="AQ135">
+        <v>1.11</v>
+      </c>
+      <c r="AR135">
+        <v>1.56</v>
+      </c>
+      <c r="AS135">
+        <v>1.49</v>
+      </c>
+      <c r="AT135">
+        <v>3.05</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>10</v>
+      </c>
+      <c r="AZ135">
+        <v>12</v>
+      </c>
+      <c r="BA135">
+        <v>4</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>1.9</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2.32</v>
+      </c>
+      <c r="BG135">
+        <v>1.11</v>
+      </c>
+      <c r="BH135">
+        <v>5.9</v>
+      </c>
+      <c r="BI135">
+        <v>1.23</v>
+      </c>
+      <c r="BJ135">
+        <v>3.9</v>
+      </c>
+      <c r="BK135">
+        <v>1.38</v>
+      </c>
+      <c r="BL135">
+        <v>2.71</v>
+      </c>
+      <c r="BM135">
+        <v>1.8</v>
+      </c>
+      <c r="BN135">
+        <v>2</v>
+      </c>
+      <c r="BO135">
+        <v>2.09</v>
+      </c>
+      <c r="BP135">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7468139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45631.5625</v>
+      </c>
+      <c r="F136">
+        <v>8</v>
+      </c>
+      <c r="G136" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" t="s">
+        <v>80</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>88</v>
+      </c>
+      <c r="P136" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q136">
+        <v>4.5</v>
+      </c>
+      <c r="R136">
+        <v>2.35</v>
+      </c>
+      <c r="S136">
+        <v>2.15</v>
+      </c>
+      <c r="T136">
+        <v>1.3</v>
+      </c>
+      <c r="U136">
+        <v>3.25</v>
+      </c>
+      <c r="V136">
+        <v>2.5</v>
+      </c>
+      <c r="W136">
+        <v>1.47</v>
+      </c>
+      <c r="X136">
+        <v>5.95</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>4.75</v>
+      </c>
+      <c r="AA136">
+        <v>3.7</v>
+      </c>
+      <c r="AB136">
+        <v>1.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>10.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.22</v>
+      </c>
+      <c r="AF136">
+        <v>4</v>
+      </c>
+      <c r="AG136">
+        <v>1.8</v>
+      </c>
+      <c r="AH136">
+        <v>1.99</v>
+      </c>
+      <c r="AI136">
+        <v>1.72</v>
+      </c>
+      <c r="AJ136">
+        <v>2.05</v>
+      </c>
+      <c r="AK136">
+        <v>2.2</v>
+      </c>
+      <c r="AL136">
+        <v>1.18</v>
+      </c>
+      <c r="AM136">
+        <v>1.15</v>
+      </c>
+      <c r="AN136">
+        <v>2.57</v>
+      </c>
+      <c r="AO136">
+        <v>2.43</v>
+      </c>
+      <c r="AP136">
+        <v>2.25</v>
+      </c>
+      <c r="AQ136">
+        <v>2.5</v>
+      </c>
+      <c r="AR136">
+        <v>2.02</v>
+      </c>
+      <c r="AS136">
+        <v>1.63</v>
+      </c>
+      <c r="AT136">
+        <v>3.65</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>9</v>
+      </c>
+      <c r="AW136">
+        <v>2</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>16</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>3.8</v>
+      </c>
+      <c r="BE136">
+        <v>7.5</v>
+      </c>
+      <c r="BF136">
+        <v>1.41</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>1.28</v>
+      </c>
+      <c r="BJ136">
+        <v>3.2</v>
+      </c>
+      <c r="BK136">
+        <v>1.51</v>
+      </c>
+      <c r="BL136">
+        <v>2.47</v>
+      </c>
+      <c r="BM136">
+        <v>1.88</v>
+      </c>
+      <c r="BN136">
+        <v>1.92</v>
+      </c>
+      <c r="BO136">
+        <v>2.25</v>
+      </c>
+      <c r="BP136">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7468138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45631.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>84</v>
+      </c>
+      <c r="H137" t="s">
+        <v>78</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>150</v>
+      </c>
+      <c r="P137" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q137">
+        <v>1.7</v>
+      </c>
+      <c r="R137">
+        <v>2.65</v>
+      </c>
+      <c r="S137">
+        <v>7</v>
+      </c>
+      <c r="T137">
+        <v>1.27</v>
+      </c>
+      <c r="U137">
+        <v>3.54</v>
+      </c>
+      <c r="V137">
+        <v>2.29</v>
+      </c>
+      <c r="W137">
+        <v>1.58</v>
+      </c>
+      <c r="X137">
+        <v>5.2</v>
+      </c>
+      <c r="Y137">
+        <v>1.14</v>
+      </c>
+      <c r="Z137">
+        <v>1.33</v>
+      </c>
+      <c r="AA137">
+        <v>4.75</v>
+      </c>
+      <c r="AB137">
+        <v>8</v>
+      </c>
+      <c r="AC137">
+        <v>1.03</v>
+      </c>
+      <c r="AD137">
+        <v>19.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.14</v>
+      </c>
+      <c r="AF137">
+        <v>4.55</v>
+      </c>
+      <c r="AG137">
+        <v>1.65</v>
+      </c>
+      <c r="AH137">
+        <v>2.05</v>
+      </c>
+      <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
+        <v>1.76</v>
+      </c>
+      <c r="AK137">
+        <v>1.01</v>
+      </c>
+      <c r="AL137">
+        <v>1.09</v>
+      </c>
+      <c r="AM137">
+        <v>3.6</v>
+      </c>
+      <c r="AN137">
+        <v>2.75</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>2.56</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>1.7</v>
+      </c>
+      <c r="AS137">
+        <v>1.22</v>
+      </c>
+      <c r="AT137">
+        <v>2.92</v>
+      </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>7</v>
+      </c>
+      <c r="AY137">
+        <v>20</v>
+      </c>
+      <c r="AZ137">
+        <v>15</v>
+      </c>
+      <c r="BA137">
+        <v>12</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>15</v>
+      </c>
+      <c r="BD137">
+        <v>1.18</v>
+      </c>
+      <c r="BE137">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF137">
+        <v>6.45</v>
+      </c>
+      <c r="BG137">
+        <v>1.13</v>
+      </c>
+      <c r="BH137">
+        <v>5.4</v>
+      </c>
+      <c r="BI137">
+        <v>1.22</v>
+      </c>
+      <c r="BJ137">
+        <v>3.64</v>
+      </c>
+      <c r="BK137">
+        <v>1.42</v>
+      </c>
+      <c r="BL137">
+        <v>2.57</v>
+      </c>
+      <c r="BM137">
+        <v>1.76</v>
+      </c>
+      <c r="BN137">
+        <v>2.01</v>
+      </c>
+      <c r="BO137">
+        <v>2.21</v>
+      </c>
+      <c r="BP137">
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -547,10 +547,10 @@
     <t>['1', '17', '20', '30', '88']</t>
   </si>
   <si>
-    <t>['69', '90']</t>
+    <t>['8']</t>
   </si>
   <si>
-    <t>['8']</t>
+    <t>['69', '90']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -748,13 +748,13 @@
     <t>['36']</t>
   </si>
   <si>
-    <t>['12', '16', '51']</t>
+    <t>['51', '56']</t>
   </si>
   <si>
     <t>['38', '78']</t>
   </si>
   <si>
-    <t>['51', '56']</t>
+    <t>['12', '16', '51']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -25232,7 +25232,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7468201</v>
+        <v>7468202</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25244,73 +25244,73 @@
         <v>45620.47916666666</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H118" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O118" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="Q118">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="R118">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S118">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="T118">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="U118">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V118">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W118">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X118">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y118">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="Z118">
-        <v>1.55</v>
+        <v>11</v>
       </c>
       <c r="AA118">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB118">
-        <v>4.7</v>
+        <v>1.12</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -25319,22 +25319,22 @@
         <v>0</v>
       </c>
       <c r="AE118">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AF118">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AG118">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="AH118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI118">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ118">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -25346,49 +25346,49 @@
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO118">
-        <v>0.63</v>
+        <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>1.67</v>
+        <v>0.22</v>
       </c>
       <c r="AQ118">
-        <v>0.5600000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AR118">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.02</v>
+        <v>1.61</v>
       </c>
       <c r="AT118">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AU118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ118">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC118">
         <v>9</v>
@@ -25438,7 +25438,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7468202</v>
+        <v>7468201</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25450,151 +25450,151 @@
         <v>45620.47916666666</v>
       </c>
       <c r="F119">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H119" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O119" t="s">
+        <v>167</v>
+      </c>
+      <c r="P119" t="s">
         <v>88</v>
       </c>
-      <c r="P119" t="s">
-        <v>238</v>
-      </c>
       <c r="Q119">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="R119">
+        <v>2.3</v>
+      </c>
+      <c r="S119">
+        <v>5.5</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>1.55</v>
+      </c>
+      <c r="AA119">
+        <v>3.8</v>
+      </c>
+      <c r="AB119">
+        <v>4.7</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>4.5</v>
+      </c>
+      <c r="AF119">
+        <v>1.14</v>
+      </c>
+      <c r="AG119">
+        <v>1.73</v>
+      </c>
+      <c r="AH119">
+        <v>2</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.5</v>
+      </c>
+      <c r="AO119">
+        <v>0.63</v>
+      </c>
+      <c r="AP119">
+        <v>1.67</v>
+      </c>
+      <c r="AQ119">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR119">
+        <v>1.64</v>
+      </c>
+      <c r="AS119">
+        <v>1.02</v>
+      </c>
+      <c r="AT119">
+        <v>2.66</v>
+      </c>
+      <c r="AU119">
         <v>3</v>
       </c>
-      <c r="S119">
-        <v>1.44</v>
-      </c>
-      <c r="T119">
-        <v>1.25</v>
-      </c>
-      <c r="U119">
-        <v>3.75</v>
-      </c>
-      <c r="V119">
-        <v>2.1</v>
-      </c>
-      <c r="W119">
-        <v>1.67</v>
-      </c>
-      <c r="X119">
-        <v>5</v>
-      </c>
-      <c r="Y119">
-        <v>1.17</v>
-      </c>
-      <c r="Z119">
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>7</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>10</v>
+      </c>
+      <c r="AZ119">
         <v>11</v>
       </c>
-      <c r="AA119">
-        <v>7.5</v>
-      </c>
-      <c r="AB119">
-        <v>1.12</v>
-      </c>
-      <c r="AC119">
-        <v>0</v>
-      </c>
-      <c r="AD119">
-        <v>0</v>
-      </c>
-      <c r="AE119">
-        <v>0</v>
-      </c>
-      <c r="AF119">
-        <v>0</v>
-      </c>
-      <c r="AG119">
-        <v>1.46</v>
-      </c>
-      <c r="AH119">
-        <v>2.6</v>
-      </c>
-      <c r="AI119">
-        <v>2.5</v>
-      </c>
-      <c r="AJ119">
-        <v>1.5</v>
-      </c>
-      <c r="AK119">
-        <v>0</v>
-      </c>
-      <c r="AL119">
-        <v>0</v>
-      </c>
-      <c r="AM119">
-        <v>0</v>
-      </c>
-      <c r="AN119">
-        <v>0.25</v>
-      </c>
-      <c r="AO119">
-        <v>2.33</v>
-      </c>
-      <c r="AP119">
-        <v>0.22</v>
-      </c>
-      <c r="AQ119">
-        <v>2.5</v>
-      </c>
-      <c r="AR119">
-        <v>1.38</v>
-      </c>
-      <c r="AS119">
-        <v>1.61</v>
-      </c>
-      <c r="AT119">
-        <v>2.99</v>
-      </c>
-      <c r="AU119">
-        <v>2</v>
-      </c>
-      <c r="AV119">
-        <v>7</v>
-      </c>
-      <c r="AW119">
-        <v>4</v>
-      </c>
-      <c r="AX119">
-        <v>4</v>
-      </c>
-      <c r="AY119">
-        <v>8</v>
-      </c>
-      <c r="AZ119">
-        <v>16</v>
-      </c>
       <c r="BA119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC119">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7468142</v>
+        <v>7468143</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27919,166 +27919,166 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45629.875</v>
+        <v>45630.5625</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H131" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131" t="s">
+        <v>176</v>
+      </c>
+      <c r="P131" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q131">
+        <v>1.92</v>
+      </c>
+      <c r="R131">
+        <v>2.5</v>
+      </c>
+      <c r="S131">
+        <v>5.6</v>
+      </c>
+      <c r="T131">
+        <v>1.31</v>
+      </c>
+      <c r="U131">
+        <v>3.28</v>
+      </c>
+      <c r="V131">
+        <v>2.46</v>
+      </c>
+      <c r="W131">
+        <v>1.51</v>
+      </c>
+      <c r="X131">
+        <v>5.75</v>
+      </c>
+      <c r="Y131">
+        <v>1.12</v>
+      </c>
+      <c r="Z131">
+        <v>1.36</v>
+      </c>
+      <c r="AA131">
+        <v>5.2</v>
+      </c>
+      <c r="AB131">
+        <v>7.85</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>10</v>
+      </c>
+      <c r="AE131">
+        <v>1.17</v>
+      </c>
+      <c r="AF131">
+        <v>4.2</v>
+      </c>
+      <c r="AG131">
+        <v>1.57</v>
+      </c>
+      <c r="AH131">
+        <v>2.33</v>
+      </c>
+      <c r="AI131">
+        <v>1.8</v>
+      </c>
+      <c r="AJ131">
+        <v>1.93</v>
+      </c>
+      <c r="AK131">
+        <v>1.09</v>
+      </c>
+      <c r="AL131">
+        <v>1.17</v>
+      </c>
+      <c r="AM131">
+        <v>2.65</v>
+      </c>
+      <c r="AN131">
+        <v>1.86</v>
+      </c>
+      <c r="AO131">
+        <v>0.14</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>0.13</v>
+      </c>
+      <c r="AR131">
+        <v>1.63</v>
+      </c>
+      <c r="AS131">
+        <v>0.9</v>
+      </c>
+      <c r="AT131">
+        <v>2.53</v>
+      </c>
+      <c r="AU131">
+        <v>10</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
         <v>3</v>
       </c>
-      <c r="N131">
-        <v>3</v>
-      </c>
-      <c r="O131" t="s">
-        <v>88</v>
-      </c>
-      <c r="P131" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q131">
-        <v>2.75</v>
-      </c>
-      <c r="R131">
-        <v>2.1</v>
-      </c>
-      <c r="S131">
-        <v>4.33</v>
-      </c>
-      <c r="T131">
-        <v>1.44</v>
-      </c>
-      <c r="U131">
-        <v>2.63</v>
-      </c>
-      <c r="V131">
-        <v>3.25</v>
-      </c>
-      <c r="W131">
-        <v>1.33</v>
-      </c>
-      <c r="X131">
-        <v>9</v>
-      </c>
-      <c r="Y131">
-        <v>1.07</v>
-      </c>
-      <c r="Z131">
-        <v>2.17</v>
-      </c>
-      <c r="AA131">
-        <v>3.4</v>
-      </c>
-      <c r="AB131">
-        <v>3.35</v>
-      </c>
-      <c r="AC131">
-        <v>1.05</v>
-      </c>
-      <c r="AD131">
-        <v>8</v>
-      </c>
-      <c r="AE131">
-        <v>1.3</v>
-      </c>
-      <c r="AF131">
-        <v>3.2</v>
-      </c>
-      <c r="AG131">
-        <v>1.95</v>
-      </c>
-      <c r="AH131">
-        <v>1.85</v>
-      </c>
-      <c r="AI131">
-        <v>1.91</v>
-      </c>
-      <c r="AJ131">
-        <v>1.91</v>
-      </c>
-      <c r="AK131">
-        <v>1.18</v>
-      </c>
-      <c r="AL131">
-        <v>1.21</v>
-      </c>
-      <c r="AM131">
-        <v>1.75</v>
-      </c>
-      <c r="AN131">
-        <v>1.13</v>
-      </c>
-      <c r="AO131">
-        <v>0.63</v>
-      </c>
-      <c r="AP131">
-        <v>1</v>
-      </c>
-      <c r="AQ131">
-        <v>0.89</v>
-      </c>
-      <c r="AR131">
-        <v>1.51</v>
-      </c>
-      <c r="AS131">
-        <v>1.23</v>
-      </c>
-      <c r="AT131">
-        <v>2.74</v>
-      </c>
-      <c r="AU131">
-        <v>4</v>
-      </c>
-      <c r="AV131">
-        <v>6</v>
-      </c>
-      <c r="AW131">
-        <v>4</v>
-      </c>
-      <c r="AX131">
-        <v>4</v>
-      </c>
       <c r="AY131">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA131">
         <v>8</v>
       </c>
       <c r="BB131">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC131">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD131">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="BE131">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="BF131">
-        <v>3.5</v>
+        <v>5.15</v>
       </c>
       <c r="BG131">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         <v>0</v>
       </c>
       <c r="BI131">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BJ131">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="BK131">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="BL131">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="BM131">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BN131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BO131">
-        <v>2.23</v>
+        <v>2.19</v>
       </c>
       <c r="BP131">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28116,7 +28116,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7468143</v>
+        <v>7468140</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28131,160 +28131,160 @@
         <v>8</v>
       </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>177</v>
+      </c>
+      <c r="P132" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q132">
+        <v>4.04</v>
+      </c>
+      <c r="R132">
+        <v>2.05</v>
+      </c>
+      <c r="S132">
+        <v>2.78</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.67</v>
+      </c>
+      <c r="V132">
+        <v>3.04</v>
+      </c>
+      <c r="W132">
+        <v>1.35</v>
+      </c>
+      <c r="X132">
+        <v>7.9</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>3.08</v>
+      </c>
+      <c r="AA132">
+        <v>3.28</v>
+      </c>
+      <c r="AB132">
+        <v>2.36</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>8</v>
+      </c>
+      <c r="AE132">
+        <v>1.33</v>
+      </c>
+      <c r="AF132">
+        <v>2.91</v>
+      </c>
+      <c r="AG132">
+        <v>2.09</v>
+      </c>
+      <c r="AH132">
+        <v>1.74</v>
+      </c>
+      <c r="AI132">
+        <v>1.84</v>
+      </c>
+      <c r="AJ132">
+        <v>1.92</v>
+      </c>
+      <c r="AK132">
+        <v>1.65</v>
+      </c>
+      <c r="AL132">
+        <v>1.31</v>
+      </c>
+      <c r="AM132">
+        <v>1.32</v>
+      </c>
+      <c r="AN132">
+        <v>1.25</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1.11</v>
+      </c>
+      <c r="AQ132">
+        <v>1.22</v>
+      </c>
+      <c r="AR132">
+        <v>1.24</v>
+      </c>
+      <c r="AS132">
+        <v>1.14</v>
+      </c>
+      <c r="AT132">
+        <v>2.38</v>
+      </c>
+      <c r="AU132">
         <v>4</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>4</v>
-      </c>
-      <c r="L132">
-        <v>5</v>
-      </c>
-      <c r="M132">
-        <v>0</v>
-      </c>
-      <c r="N132">
-        <v>5</v>
-      </c>
-      <c r="O132" t="s">
-        <v>176</v>
-      </c>
-      <c r="P132" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q132">
-        <v>1.92</v>
-      </c>
-      <c r="R132">
-        <v>2.5</v>
-      </c>
-      <c r="S132">
-        <v>5.6</v>
-      </c>
-      <c r="T132">
-        <v>1.31</v>
-      </c>
-      <c r="U132">
-        <v>3.28</v>
-      </c>
-      <c r="V132">
-        <v>2.46</v>
-      </c>
-      <c r="W132">
-        <v>1.51</v>
-      </c>
-      <c r="X132">
-        <v>5.75</v>
-      </c>
-      <c r="Y132">
-        <v>1.12</v>
-      </c>
-      <c r="Z132">
-        <v>1.36</v>
-      </c>
-      <c r="AA132">
-        <v>5.2</v>
-      </c>
-      <c r="AB132">
-        <v>7.85</v>
-      </c>
-      <c r="AC132">
-        <v>1.02</v>
-      </c>
-      <c r="AD132">
-        <v>10</v>
-      </c>
-      <c r="AE132">
-        <v>1.17</v>
-      </c>
-      <c r="AF132">
-        <v>4.2</v>
-      </c>
-      <c r="AG132">
-        <v>1.57</v>
-      </c>
-      <c r="AH132">
-        <v>2.33</v>
-      </c>
-      <c r="AI132">
-        <v>1.8</v>
-      </c>
-      <c r="AJ132">
-        <v>1.93</v>
-      </c>
-      <c r="AK132">
-        <v>1.09</v>
-      </c>
-      <c r="AL132">
-        <v>1.17</v>
-      </c>
-      <c r="AM132">
-        <v>2.65</v>
-      </c>
-      <c r="AN132">
-        <v>1.86</v>
-      </c>
-      <c r="AO132">
-        <v>0.14</v>
-      </c>
-      <c r="AP132">
-        <v>2</v>
-      </c>
-      <c r="AQ132">
-        <v>0.13</v>
-      </c>
-      <c r="AR132">
-        <v>1.63</v>
-      </c>
-      <c r="AS132">
-        <v>0.9</v>
-      </c>
-      <c r="AT132">
-        <v>2.53</v>
-      </c>
-      <c r="AU132">
-        <v>10</v>
-      </c>
       <c r="AV132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY132">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AZ132">
         <v>10</v>
       </c>
       <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>1.95</v>
+      </c>
+      <c r="BE132">
         <v>8</v>
       </c>
-      <c r="BB132">
-        <v>2</v>
-      </c>
-      <c r="BC132">
-        <v>10</v>
-      </c>
-      <c r="BD132">
-        <v>1.26</v>
-      </c>
-      <c r="BE132">
-        <v>8.5</v>
-      </c>
       <c r="BF132">
-        <v>5.15</v>
+        <v>2.1</v>
       </c>
       <c r="BG132">
         <v>0</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="BI132">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="BJ132">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="BK132">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="BL132">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BM132">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BN132">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BO132">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BP132">
-        <v>1.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28361,7 +28361,7 @@
         <v>4</v>
       </c>
       <c r="O133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P133" t="s">
         <v>245</v>
@@ -28528,7 +28528,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7468140</v>
+        <v>7468142</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28537,130 +28537,130 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45630.5625</v>
+        <v>45630.66666666666</v>
       </c>
       <c r="F134">
         <v>8</v>
       </c>
       <c r="G134" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H134" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N134">
         <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="P134" t="s">
         <v>246</v>
       </c>
       <c r="Q134">
-        <v>4.04</v>
+        <v>2.75</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S134">
-        <v>2.78</v>
+        <v>4.33</v>
       </c>
       <c r="T134">
         <v>1.44</v>
       </c>
       <c r="U134">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="V134">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="W134">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X134">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="Y134">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z134">
-        <v>3.08</v>
+        <v>2.17</v>
       </c>
       <c r="AA134">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AB134">
-        <v>2.36</v>
+        <v>3.35</v>
       </c>
       <c r="AC134">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD134">
         <v>8</v>
       </c>
       <c r="AE134">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF134">
-        <v>2.91</v>
+        <v>3.2</v>
       </c>
       <c r="AG134">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="AH134">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AI134">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="AJ134">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AK134">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="AL134">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AM134">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="AN134">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AP134">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ134">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="AS134">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT134">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -28669,34 +28669,34 @@
         <v>6</v>
       </c>
       <c r="AW134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY134">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ134">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC134">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD134">
-        <v>1.95</v>
+        <v>1.46</v>
       </c>
       <c r="BE134">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BF134">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="BG134">
         <v>0</v>
@@ -28705,28 +28705,28 @@
         <v>0</v>
       </c>
       <c r="BI134">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BJ134">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="BK134">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="BL134">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="BM134">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BN134">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BO134">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BP134">
-        <v>0</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -29075,7 +29075,7 @@
         <v>3.65</v>
       </c>
       <c r="AU136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV136">
         <v>9</v>
@@ -29087,7 +29087,7 @@
         <v>4</v>
       </c>
       <c r="AY136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ136">
         <v>16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['69', '90']</t>
   </si>
   <si>
+    <t>['16', '33']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -638,9 +644,6 @@
   </si>
   <si>
     <t>['11', '52']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['3', '71']</t>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1381,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1456,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -1790,7 +1793,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2202,7 +2205,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2408,7 +2411,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2692,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -3107,7 +3110,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0.98</v>
@@ -3232,7 +3235,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3438,7 +3441,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3850,7 +3853,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4674,7 +4677,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4958,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ19">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR19">
         <v>1.9</v>
@@ -5164,10 +5167,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5370,7 +5373,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ21">
         <v>1.75</v>
@@ -5704,7 +5707,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5785,7 +5788,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
         <v>1.33</v>
@@ -5910,7 +5913,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6116,7 +6119,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6322,7 +6325,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6528,7 +6531,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7845,7 +7848,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR33">
         <v>1.08</v>
@@ -7970,7 +7973,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8176,7 +8179,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8257,7 +8260,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.93</v>
@@ -8382,7 +8385,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8460,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ36">
         <v>1.89</v>
@@ -8588,7 +8591,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8875,7 +8878,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ38">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.34</v>
@@ -9000,7 +9003,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9284,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9412,7 +9415,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9618,7 +9621,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9824,7 +9827,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9902,7 +9905,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ43">
         <v>1.22</v>
@@ -10935,7 +10938,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ48">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR48">
         <v>1.34</v>
@@ -11138,7 +11141,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.22</v>
@@ -11266,7 +11269,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11553,7 +11556,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR51">
         <v>1.76</v>
@@ -11678,7 +11681,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11965,7 +11968,7 @@
         <v>3</v>
       </c>
       <c r="AQ53">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>2.35</v>
@@ -12090,7 +12093,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12502,7 +12505,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12708,7 +12711,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13120,7 +13123,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13738,7 +13741,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13819,7 +13822,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ62">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.42</v>
@@ -13944,7 +13947,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14150,7 +14153,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14231,7 +14234,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR64">
         <v>1.75</v>
@@ -14356,7 +14359,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14437,7 +14440,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14562,7 +14565,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14640,7 +14643,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14768,7 +14771,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14974,7 +14977,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15258,7 +15261,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
         <v>0.88</v>
@@ -15464,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -15798,7 +15801,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16004,7 +16007,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16416,7 +16419,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16497,7 +16500,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR75">
         <v>1.49</v>
@@ -16622,7 +16625,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16828,7 +16831,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17115,7 +17118,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ78">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.78</v>
@@ -17446,7 +17449,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17527,7 +17530,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17652,7 +17655,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17858,7 +17861,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18064,7 +18067,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18145,7 +18148,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.14</v>
@@ -18270,7 +18273,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18476,7 +18479,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18554,7 +18557,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ85">
         <v>1.11</v>
@@ -18682,7 +18685,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19094,7 +19097,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19172,7 +19175,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19300,7 +19303,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19378,7 +19381,7 @@
         <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ89">
         <v>2.5</v>
@@ -19712,7 +19715,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19918,7 +19921,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20330,7 +20333,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20411,7 +20414,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.52</v>
@@ -20823,7 +20826,7 @@
         <v>3</v>
       </c>
       <c r="AQ96">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR96">
         <v>2.31</v>
@@ -21154,7 +21157,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21438,7 +21441,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21772,7 +21775,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21850,7 +21853,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22265,7 +22268,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR103">
         <v>1.41</v>
@@ -22468,7 +22471,7 @@
         <v>1.83</v>
       </c>
       <c r="AP104">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>1.75</v>
@@ -22596,7 +22599,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22883,7 +22886,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ106">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR106">
         <v>1.87</v>
@@ -23420,7 +23423,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23626,7 +23629,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23913,7 +23916,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.73</v>
@@ -24038,7 +24041,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24244,7 +24247,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24322,7 +24325,7 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24450,7 +24453,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24528,7 +24531,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24656,7 +24659,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24734,7 +24737,7 @@
         <v>1.14</v>
       </c>
       <c r="AP115">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>1.13</v>
@@ -24862,7 +24865,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25068,7 +25071,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25149,7 +25152,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR117">
         <v>1.44</v>
@@ -25274,7 +25277,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25561,7 +25564,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ119">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR119">
         <v>1.64</v>
@@ -25686,7 +25689,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26098,7 +26101,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26304,7 +26307,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26716,7 +26719,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27540,7 +27543,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27746,7 +27749,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -27824,7 +27827,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ130">
         <v>0.88</v>
@@ -28030,7 +28033,7 @@
         <v>0.14</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
         <v>0.13</v>
@@ -28158,7 +28161,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>4.04</v>
@@ -28364,7 +28367,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28570,7 +28573,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28982,7 +28985,7 @@
         <v>88</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29345,6 +29348,624 @@
       </c>
       <c r="BP137">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7468219</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45633.39583333334</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>79</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>91</v>
+      </c>
+      <c r="P138" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q138">
+        <v>2.25</v>
+      </c>
+      <c r="R138">
+        <v>2.15</v>
+      </c>
+      <c r="S138">
+        <v>5</v>
+      </c>
+      <c r="T138">
+        <v>1.41</v>
+      </c>
+      <c r="U138">
+        <v>2.7</v>
+      </c>
+      <c r="V138">
+        <v>2.95</v>
+      </c>
+      <c r="W138">
+        <v>1.35</v>
+      </c>
+      <c r="X138">
+        <v>7.4</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>1.64</v>
+      </c>
+      <c r="AA138">
+        <v>3.62</v>
+      </c>
+      <c r="AB138">
+        <v>5.73</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.33</v>
+      </c>
+      <c r="AF138">
+        <v>3.2</v>
+      </c>
+      <c r="AG138">
+        <v>1.93</v>
+      </c>
+      <c r="AH138">
+        <v>1.75</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.11</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>2.2</v>
+      </c>
+      <c r="AN138">
+        <v>1.63</v>
+      </c>
+      <c r="AO138">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP138">
+        <v>1.56</v>
+      </c>
+      <c r="AQ138">
+        <v>0.6</v>
+      </c>
+      <c r="AR138">
+        <v>1.11</v>
+      </c>
+      <c r="AS138">
+        <v>1.03</v>
+      </c>
+      <c r="AT138">
+        <v>2.14</v>
+      </c>
+      <c r="AU138">
+        <v>8</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>8</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>21</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>9</v>
+      </c>
+      <c r="BC138">
+        <v>18</v>
+      </c>
+      <c r="BD138">
+        <v>1.32</v>
+      </c>
+      <c r="BE138">
+        <v>8.4</v>
+      </c>
+      <c r="BF138">
+        <v>3.95</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>1.29</v>
+      </c>
+      <c r="BJ138">
+        <v>3.25</v>
+      </c>
+      <c r="BK138">
+        <v>1.52</v>
+      </c>
+      <c r="BL138">
+        <v>2.32</v>
+      </c>
+      <c r="BM138">
+        <v>1.9</v>
+      </c>
+      <c r="BN138">
+        <v>1.78</v>
+      </c>
+      <c r="BO138">
+        <v>2.52</v>
+      </c>
+      <c r="BP138">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7468222</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" t="s">
+        <v>74</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>179</v>
+      </c>
+      <c r="P139" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q139">
+        <v>1.9</v>
+      </c>
+      <c r="R139">
+        <v>2.45</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.3</v>
+      </c>
+      <c r="U139">
+        <v>3.25</v>
+      </c>
+      <c r="V139">
+        <v>2.4</v>
+      </c>
+      <c r="W139">
+        <v>1.51</v>
+      </c>
+      <c r="X139">
+        <v>5.45</v>
+      </c>
+      <c r="Y139">
+        <v>1.12</v>
+      </c>
+      <c r="Z139">
+        <v>1.44</v>
+      </c>
+      <c r="AA139">
+        <v>4.56</v>
+      </c>
+      <c r="AB139">
+        <v>6.67</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>9.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.2</v>
+      </c>
+      <c r="AF139">
+        <v>4.2</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.83</v>
+      </c>
+      <c r="AJ139">
+        <v>1.9</v>
+      </c>
+      <c r="AK139">
+        <v>1.06</v>
+      </c>
+      <c r="AL139">
+        <v>1.15</v>
+      </c>
+      <c r="AM139">
+        <v>2.7</v>
+      </c>
+      <c r="AN139">
+        <v>2</v>
+      </c>
+      <c r="AO139">
+        <v>0.25</v>
+      </c>
+      <c r="AP139">
+        <v>2.11</v>
+      </c>
+      <c r="AQ139">
+        <v>0.22</v>
+      </c>
+      <c r="AR139">
+        <v>1.71</v>
+      </c>
+      <c r="AS139">
+        <v>0.86</v>
+      </c>
+      <c r="AT139">
+        <v>2.57</v>
+      </c>
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>4</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>14</v>
+      </c>
+      <c r="AZ139">
+        <v>13</v>
+      </c>
+      <c r="BA139">
+        <v>8</v>
+      </c>
+      <c r="BB139">
+        <v>6</v>
+      </c>
+      <c r="BC139">
+        <v>14</v>
+      </c>
+      <c r="BD139">
+        <v>1.18</v>
+      </c>
+      <c r="BE139">
+        <v>10</v>
+      </c>
+      <c r="BF139">
+        <v>5.55</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>1.22</v>
+      </c>
+      <c r="BJ139">
+        <v>3.8</v>
+      </c>
+      <c r="BK139">
+        <v>1.43</v>
+      </c>
+      <c r="BL139">
+        <v>2.6</v>
+      </c>
+      <c r="BM139">
+        <v>1.75</v>
+      </c>
+      <c r="BN139">
+        <v>1.92</v>
+      </c>
+      <c r="BO139">
+        <v>2.25</v>
+      </c>
+      <c r="BP139">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7468223</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45633.625</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>180</v>
+      </c>
+      <c r="P140" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q140">
+        <v>1.63</v>
+      </c>
+      <c r="R140">
+        <v>2.75</v>
+      </c>
+      <c r="S140">
+        <v>7.5</v>
+      </c>
+      <c r="T140">
+        <v>1.24</v>
+      </c>
+      <c r="U140">
+        <v>3.7</v>
+      </c>
+      <c r="V140">
+        <v>2.09</v>
+      </c>
+      <c r="W140">
+        <v>1.67</v>
+      </c>
+      <c r="X140">
+        <v>4.45</v>
+      </c>
+      <c r="Y140">
+        <v>1.17</v>
+      </c>
+      <c r="Z140">
+        <v>1.26</v>
+      </c>
+      <c r="AA140">
+        <v>5.96</v>
+      </c>
+      <c r="AB140">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>17</v>
+      </c>
+      <c r="AE140">
+        <v>1.13</v>
+      </c>
+      <c r="AF140">
+        <v>5.25</v>
+      </c>
+      <c r="AG140">
+        <v>1.45</v>
+      </c>
+      <c r="AH140">
+        <v>2.65</v>
+      </c>
+      <c r="AI140">
+        <v>1.87</v>
+      </c>
+      <c r="AJ140">
+        <v>1.87</v>
+      </c>
+      <c r="AK140">
+        <v>1.01</v>
+      </c>
+      <c r="AL140">
+        <v>1.08</v>
+      </c>
+      <c r="AM140">
+        <v>3.75</v>
+      </c>
+      <c r="AN140">
+        <v>1.75</v>
+      </c>
+      <c r="AO140">
+        <v>1.5</v>
+      </c>
+      <c r="AP140">
+        <v>1.89</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>2.06</v>
+      </c>
+      <c r="AS140">
+        <v>1.31</v>
+      </c>
+      <c r="AT140">
+        <v>3.37</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>11</v>
+      </c>
+      <c r="AZ140">
+        <v>15</v>
+      </c>
+      <c r="BA140">
+        <v>9</v>
+      </c>
+      <c r="BB140">
+        <v>5</v>
+      </c>
+      <c r="BC140">
+        <v>14</v>
+      </c>
+      <c r="BD140">
+        <v>1.11</v>
+      </c>
+      <c r="BE140">
+        <v>11.5</v>
+      </c>
+      <c r="BF140">
+        <v>7</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>1.22</v>
+      </c>
+      <c r="BJ140">
+        <v>3.8</v>
+      </c>
+      <c r="BK140">
+        <v>1.43</v>
+      </c>
+      <c r="BL140">
+        <v>2.6</v>
+      </c>
+      <c r="BM140">
+        <v>1.75</v>
+      </c>
+      <c r="BN140">
+        <v>1.92</v>
+      </c>
+      <c r="BO140">
+        <v>2.25</v>
+      </c>
+      <c r="BP140">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,10 +553,16 @@
     <t>['69', '90']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['16', '33']</t>
   </si>
   <si>
-    <t>['74']</t>
+    <t>['20', '78', '90+2']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -761,6 +767,18 @@
   </si>
   <si>
     <t>['29']</t>
+  </si>
+  <si>
+    <t>['76', '86']</t>
+  </si>
+  <si>
+    <t>['60', '65', '68', '90+3']</t>
+  </si>
+  <si>
+    <t>['79', '81']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1399,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1668,7 +1686,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1793,7 +1811,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1871,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2080,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2205,7 +2223,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2286,7 +2304,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2411,7 +2429,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2489,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.11</v>
@@ -2698,7 +2716,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2901,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3235,7 +3253,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3441,7 +3459,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3853,7 +3871,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3931,7 +3949,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4677,7 +4695,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4755,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5376,7 +5394,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ21">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5579,10 +5597,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5707,7 +5725,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5785,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ23">
         <v>0.6</v>
@@ -5913,7 +5931,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5991,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.19</v>
@@ -6119,7 +6137,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6325,7 +6343,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6531,7 +6549,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7845,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>0.22</v>
@@ -7973,7 +7991,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8054,7 +8072,7 @@
         <v>3</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR34">
         <v>2.27</v>
@@ -8179,7 +8197,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8257,7 +8275,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8385,7 +8403,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8591,7 +8609,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -8669,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.25</v>
@@ -8875,7 +8893,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -9003,7 +9021,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9081,10 +9099,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR39">
         <v>1.46</v>
@@ -9290,7 +9308,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.19</v>
@@ -9415,7 +9433,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9621,7 +9639,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9827,7 +9845,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -10729,10 +10747,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.77</v>
@@ -10935,7 +10953,7 @@
         <v>1.33</v>
       </c>
       <c r="AP48">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11269,7 +11287,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11347,7 +11365,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>1.89</v>
@@ -11553,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>0.22</v>
@@ -11681,7 +11699,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11759,10 +11777,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.61</v>
@@ -12093,7 +12111,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12174,7 +12192,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.4</v>
@@ -12377,10 +12395,10 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ55">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12505,7 +12523,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12711,7 +12729,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12792,7 +12810,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12995,7 +13013,7 @@
         <v>1.33</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ58">
         <v>1.22</v>
@@ -13123,7 +13141,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13204,7 +13222,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13407,7 +13425,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.22</v>
@@ -13616,7 +13634,7 @@
         <v>3</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR61">
         <v>2.33</v>
@@ -13741,7 +13759,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13947,7 +13965,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14025,7 +14043,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ63">
         <v>1.89</v>
@@ -14153,7 +14171,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14231,7 +14249,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>0.22</v>
@@ -14359,7 +14377,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14437,7 +14455,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
         <v>1.33</v>
@@ -14565,7 +14583,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14771,7 +14789,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14977,7 +14995,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15058,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR68">
         <v>1.23</v>
@@ -15801,7 +15819,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15882,7 +15900,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ72">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
         <v>1.84</v>
@@ -16007,7 +16025,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16088,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16291,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.89</v>
@@ -16419,7 +16437,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16625,7 +16643,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16703,7 +16721,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ76">
         <v>1.22</v>
@@ -16831,7 +16849,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16909,7 +16927,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ77">
         <v>1.22</v>
@@ -17324,7 +17342,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17449,7 +17467,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17527,7 +17545,7 @@
         <v>1.2</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.33</v>
@@ -17655,7 +17673,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17861,7 +17879,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17939,7 +17957,7 @@
         <v>1.4</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18067,7 +18085,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18273,7 +18291,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18354,7 +18372,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR84">
         <v>1.81</v>
@@ -18479,7 +18497,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18685,7 +18703,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18766,7 +18784,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.41</v>
@@ -18969,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.13</v>
@@ -19097,7 +19115,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19178,7 +19196,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR88">
         <v>1.12</v>
@@ -19303,7 +19321,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19384,7 +19402,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -19587,7 +19605,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ90">
         <v>1.22</v>
@@ -19715,7 +19733,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19796,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.11</v>
@@ -19921,7 +19939,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -19999,7 +20017,7 @@
         <v>0.2</v>
       </c>
       <c r="AP92">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ92">
         <v>0.89</v>
@@ -20205,7 +20223,7 @@
         <v>1.67</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>1.22</v>
@@ -20333,7 +20351,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -21157,7 +21175,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21238,7 +21256,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.15</v>
@@ -21444,7 +21462,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR99">
         <v>1.65</v>
@@ -21647,7 +21665,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21775,7 +21793,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21856,7 +21874,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.9</v>
@@ -22059,7 +22077,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ102">
         <v>1.11</v>
@@ -22474,7 +22492,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR104">
         <v>1.15</v>
@@ -22599,7 +22617,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -22677,10 +22695,10 @@
         <v>2.6</v>
       </c>
       <c r="AP105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23295,7 +23313,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ108">
         <v>0.89</v>
@@ -23423,7 +23441,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23629,7 +23647,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -24041,7 +24059,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24247,7 +24265,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24328,7 +24346,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.63</v>
@@ -24453,7 +24471,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24534,7 +24552,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.87</v>
@@ -24659,7 +24677,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24740,7 +24758,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.11</v>
@@ -24865,7 +24883,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -24943,10 +24961,10 @@
         <v>1.57</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -25071,7 +25089,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25277,7 +25295,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25355,10 +25373,10 @@
         <v>2.33</v>
       </c>
       <c r="AP118">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AQ118">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25561,7 +25579,7 @@
         <v>0.63</v>
       </c>
       <c r="AP119">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>0.6</v>
@@ -25689,7 +25707,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25767,7 +25785,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ120">
         <v>1.11</v>
@@ -25973,7 +25991,7 @@
         <v>1.17</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
         <v>1.22</v>
@@ -26101,7 +26119,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26307,7 +26325,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26719,7 +26737,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27543,7 +27561,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27749,7 +27767,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -28161,7 +28179,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>4.04</v>
@@ -28367,7 +28385,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28573,7 +28591,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28985,7 +29003,7 @@
         <v>88</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29066,7 +29084,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ136">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AR136">
         <v>2.02</v>
@@ -29272,7 +29290,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.7</v>
@@ -29355,7 +29373,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7468219</v>
+        <v>7468223</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29364,166 +29382,166 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45633.39583333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F138">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H138" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>179</v>
+      </c>
+      <c r="P138" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q138">
+        <v>1.63</v>
+      </c>
+      <c r="R138">
+        <v>2.75</v>
+      </c>
+      <c r="S138">
+        <v>7.5</v>
+      </c>
+      <c r="T138">
+        <v>1.24</v>
+      </c>
+      <c r="U138">
+        <v>3.7</v>
+      </c>
+      <c r="V138">
+        <v>2.09</v>
+      </c>
+      <c r="W138">
+        <v>1.67</v>
+      </c>
+      <c r="X138">
+        <v>4.45</v>
+      </c>
+      <c r="Y138">
+        <v>1.17</v>
+      </c>
+      <c r="Z138">
+        <v>1.26</v>
+      </c>
+      <c r="AA138">
+        <v>5.96</v>
+      </c>
+      <c r="AB138">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>17</v>
+      </c>
+      <c r="AE138">
+        <v>1.13</v>
+      </c>
+      <c r="AF138">
+        <v>5.25</v>
+      </c>
+      <c r="AG138">
+        <v>1.45</v>
+      </c>
+      <c r="AH138">
+        <v>2.65</v>
+      </c>
+      <c r="AI138">
+        <v>1.87</v>
+      </c>
+      <c r="AJ138">
+        <v>1.87</v>
+      </c>
+      <c r="AK138">
+        <v>1.01</v>
+      </c>
+      <c r="AL138">
+        <v>1.08</v>
+      </c>
+      <c r="AM138">
+        <v>3.75</v>
+      </c>
+      <c r="AN138">
+        <v>1.75</v>
+      </c>
+      <c r="AO138">
+        <v>1.5</v>
+      </c>
+      <c r="AP138">
+        <v>1.89</v>
+      </c>
+      <c r="AQ138">
+        <v>1.33</v>
+      </c>
+      <c r="AR138">
+        <v>2.06</v>
+      </c>
+      <c r="AS138">
+        <v>1.31</v>
+      </c>
+      <c r="AT138">
+        <v>3.37</v>
+      </c>
+      <c r="AU138">
         <v>2</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>2</v>
-      </c>
-      <c r="O138" t="s">
-        <v>91</v>
-      </c>
-      <c r="P138" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q138">
-        <v>2.25</v>
-      </c>
-      <c r="R138">
-        <v>2.15</v>
-      </c>
-      <c r="S138">
-        <v>5</v>
-      </c>
-      <c r="T138">
-        <v>1.41</v>
-      </c>
-      <c r="U138">
-        <v>2.7</v>
-      </c>
-      <c r="V138">
-        <v>2.95</v>
-      </c>
-      <c r="W138">
-        <v>1.35</v>
-      </c>
-      <c r="X138">
-        <v>7.4</v>
-      </c>
-      <c r="Y138">
-        <v>1.06</v>
-      </c>
-      <c r="Z138">
-        <v>1.64</v>
-      </c>
-      <c r="AA138">
-        <v>3.62</v>
-      </c>
-      <c r="AB138">
-        <v>5.73</v>
-      </c>
-      <c r="AC138">
-        <v>1.05</v>
-      </c>
-      <c r="AD138">
-        <v>8.5</v>
-      </c>
-      <c r="AE138">
-        <v>1.33</v>
-      </c>
-      <c r="AF138">
-        <v>3.2</v>
-      </c>
-      <c r="AG138">
-        <v>1.93</v>
-      </c>
-      <c r="AH138">
-        <v>1.75</v>
-      </c>
-      <c r="AI138">
-        <v>1.95</v>
-      </c>
-      <c r="AJ138">
-        <v>1.8</v>
-      </c>
-      <c r="AK138">
-        <v>1.11</v>
-      </c>
-      <c r="AL138">
-        <v>1.22</v>
-      </c>
-      <c r="AM138">
-        <v>2.2</v>
-      </c>
-      <c r="AN138">
-        <v>1.63</v>
-      </c>
-      <c r="AO138">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP138">
-        <v>1.56</v>
-      </c>
-      <c r="AQ138">
-        <v>0.6</v>
-      </c>
-      <c r="AR138">
-        <v>1.11</v>
-      </c>
-      <c r="AS138">
-        <v>1.03</v>
-      </c>
-      <c r="AT138">
-        <v>2.14</v>
-      </c>
-      <c r="AU138">
-        <v>8</v>
       </c>
       <c r="AV138">
         <v>5</v>
       </c>
       <c r="AW138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX138">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY138">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA138">
         <v>9</v>
       </c>
       <c r="BB138">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC138">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD138">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="BE138">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="BF138">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="BG138">
         <v>0</v>
@@ -29532,28 +29550,28 @@
         <v>0</v>
       </c>
       <c r="BI138">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BJ138">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="BK138">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BL138">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BM138">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="BN138">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="BO138">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="BP138">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29570,7 +29588,7 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45633.5</v>
+        <v>45632.875</v>
       </c>
       <c r="F139">
         <v>18</v>
@@ -29600,10 +29618,10 @@
         <v>3</v>
       </c>
       <c r="O139" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -29708,7 +29726,7 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ139">
         <v>13</v>
@@ -29767,7 +29785,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7468223</v>
+        <v>7468219</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29776,196 +29794,1226 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45633.625</v>
+        <v>45632.875</v>
       </c>
       <c r="F140">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H140" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L140">
         <v>1</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="Q140">
+        <v>2.25</v>
+      </c>
+      <c r="R140">
+        <v>2.15</v>
+      </c>
+      <c r="S140">
+        <v>5</v>
+      </c>
+      <c r="T140">
+        <v>1.41</v>
+      </c>
+      <c r="U140">
+        <v>2.7</v>
+      </c>
+      <c r="V140">
+        <v>2.95</v>
+      </c>
+      <c r="W140">
+        <v>1.35</v>
+      </c>
+      <c r="X140">
+        <v>7.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>1.64</v>
+      </c>
+      <c r="AA140">
+        <v>3.62</v>
+      </c>
+      <c r="AB140">
+        <v>5.73</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>8.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3.2</v>
+      </c>
+      <c r="AG140">
+        <v>1.93</v>
+      </c>
+      <c r="AH140">
+        <v>1.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.95</v>
+      </c>
+      <c r="AJ140">
+        <v>1.8</v>
+      </c>
+      <c r="AK140">
+        <v>1.11</v>
+      </c>
+      <c r="AL140">
+        <v>1.22</v>
+      </c>
+      <c r="AM140">
+        <v>2.2</v>
+      </c>
+      <c r="AN140">
         <v>1.63</v>
       </c>
-      <c r="R140">
-        <v>2.75</v>
-      </c>
-      <c r="S140">
-        <v>7.5</v>
-      </c>
-      <c r="T140">
-        <v>1.24</v>
-      </c>
-      <c r="U140">
-        <v>3.7</v>
-      </c>
-      <c r="V140">
-        <v>2.09</v>
-      </c>
-      <c r="W140">
-        <v>1.67</v>
-      </c>
-      <c r="X140">
-        <v>4.45</v>
-      </c>
-      <c r="Y140">
-        <v>1.17</v>
-      </c>
-      <c r="Z140">
-        <v>1.26</v>
-      </c>
-      <c r="AA140">
-        <v>5.96</v>
-      </c>
-      <c r="AB140">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AC140">
-        <v>1.01</v>
-      </c>
-      <c r="AD140">
-        <v>17</v>
-      </c>
-      <c r="AE140">
-        <v>1.13</v>
-      </c>
-      <c r="AF140">
-        <v>5.25</v>
-      </c>
-      <c r="AG140">
-        <v>1.45</v>
-      </c>
-      <c r="AH140">
-        <v>2.65</v>
-      </c>
-      <c r="AI140">
-        <v>1.87</v>
-      </c>
-      <c r="AJ140">
-        <v>1.87</v>
-      </c>
-      <c r="AK140">
-        <v>1.01</v>
-      </c>
-      <c r="AL140">
-        <v>1.08</v>
-      </c>
-      <c r="AM140">
-        <v>3.75</v>
-      </c>
-      <c r="AN140">
-        <v>1.75</v>
-      </c>
       <c r="AO140">
-        <v>1.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP140">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR140">
-        <v>2.06</v>
+        <v>1.11</v>
       </c>
       <c r="AS140">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="AT140">
-        <v>3.37</v>
+        <v>2.14</v>
       </c>
       <c r="AU140">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV140">
         <v>5</v>
       </c>
       <c r="AW140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY140">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ140">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA140">
         <v>9</v>
       </c>
       <c r="BB140">
+        <v>9</v>
+      </c>
+      <c r="BC140">
+        <v>18</v>
+      </c>
+      <c r="BD140">
+        <v>1.32</v>
+      </c>
+      <c r="BE140">
+        <v>8.4</v>
+      </c>
+      <c r="BF140">
+        <v>3.95</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>1.29</v>
+      </c>
+      <c r="BJ140">
+        <v>3.25</v>
+      </c>
+      <c r="BK140">
+        <v>1.52</v>
+      </c>
+      <c r="BL140">
+        <v>2.32</v>
+      </c>
+      <c r="BM140">
+        <v>1.9</v>
+      </c>
+      <c r="BN140">
+        <v>1.78</v>
+      </c>
+      <c r="BO140">
+        <v>2.52</v>
+      </c>
+      <c r="BP140">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7468220</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45634.375</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>117</v>
+      </c>
+      <c r="P141" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>2.15</v>
+      </c>
+      <c r="S141">
+        <v>2.5</v>
+      </c>
+      <c r="T141">
+        <v>1.34</v>
+      </c>
+      <c r="U141">
+        <v>3.05</v>
+      </c>
+      <c r="V141">
+        <v>2.45</v>
+      </c>
+      <c r="W141">
+        <v>1.49</v>
+      </c>
+      <c r="X141">
+        <v>5.45</v>
+      </c>
+      <c r="Y141">
+        <v>1.12</v>
+      </c>
+      <c r="Z141">
+        <v>3.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.95</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>9</v>
+      </c>
+      <c r="AE141">
+        <v>1.2</v>
+      </c>
+      <c r="AF141">
+        <v>4.2</v>
+      </c>
+      <c r="AG141">
+        <v>1.66</v>
+      </c>
+      <c r="AH141">
+        <v>2.15</v>
+      </c>
+      <c r="AI141">
+        <v>1.57</v>
+      </c>
+      <c r="AJ141">
+        <v>2.3</v>
+      </c>
+      <c r="AK141">
+        <v>1.83</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.2</v>
+      </c>
+      <c r="AN141">
+        <v>1.67</v>
+      </c>
+      <c r="AO141">
+        <v>1.75</v>
+      </c>
+      <c r="AP141">
+        <v>1.5</v>
+      </c>
+      <c r="AQ141">
+        <v>1.89</v>
+      </c>
+      <c r="AR141">
+        <v>1.59</v>
+      </c>
+      <c r="AS141">
+        <v>1.23</v>
+      </c>
+      <c r="AT141">
+        <v>2.82</v>
+      </c>
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
         <v>5</v>
       </c>
-      <c r="BC140">
-        <v>14</v>
-      </c>
-      <c r="BD140">
-        <v>1.11</v>
-      </c>
-      <c r="BE140">
-        <v>11.5</v>
-      </c>
-      <c r="BF140">
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>8</v>
+      </c>
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>16</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
         <v>7</v>
       </c>
-      <c r="BG140">
-        <v>0</v>
-      </c>
-      <c r="BH140">
-        <v>0</v>
-      </c>
-      <c r="BI140">
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7468218</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45634.375</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>4</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>88</v>
+      </c>
+      <c r="P142" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>2.45</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.25</v>
+      </c>
+      <c r="V142">
+        <v>2.29</v>
+      </c>
+      <c r="W142">
+        <v>1.56</v>
+      </c>
+      <c r="X142">
+        <v>4.95</v>
+      </c>
+      <c r="Y142">
+        <v>1.14</v>
+      </c>
+      <c r="Z142">
+        <v>4</v>
+      </c>
+      <c r="AA142">
+        <v>3.5</v>
+      </c>
+      <c r="AB142">
+        <v>1.9</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>13</v>
+      </c>
+      <c r="AE142">
+        <v>1.18</v>
+      </c>
+      <c r="AF142">
+        <v>4.5</v>
+      </c>
+      <c r="AG142">
+        <v>1.55</v>
+      </c>
+      <c r="AH142">
+        <v>2.35</v>
+      </c>
+      <c r="AI142">
+        <v>1.5</v>
+      </c>
+      <c r="AJ142">
+        <v>2.5</v>
+      </c>
+      <c r="AK142">
+        <v>1.87</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.2</v>
+      </c>
+      <c r="AN142">
+        <v>0.22</v>
+      </c>
+      <c r="AO142">
+        <v>1.13</v>
+      </c>
+      <c r="AP142">
+        <v>0.2</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.34</v>
+      </c>
+      <c r="AS142">
+        <v>1.28</v>
+      </c>
+      <c r="AT142">
+        <v>2.62</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>7</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>15</v>
+      </c>
+      <c r="AZ142">
+        <v>18</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>8</v>
+      </c>
+      <c r="BC142">
+        <v>13</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7468217</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>81</v>
+      </c>
+      <c r="H143" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>181</v>
+      </c>
+      <c r="P143" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q143">
+        <v>2.4</v>
+      </c>
+      <c r="R143">
+        <v>2.25</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.32</v>
+      </c>
+      <c r="U143">
+        <v>3.15</v>
+      </c>
+      <c r="V143">
+        <v>2.4</v>
+      </c>
+      <c r="W143">
+        <v>1.51</v>
+      </c>
+      <c r="X143">
+        <v>5.45</v>
+      </c>
+      <c r="Y143">
+        <v>1.12</v>
+      </c>
+      <c r="Z143">
+        <v>1.85</v>
+      </c>
+      <c r="AA143">
+        <v>3.6</v>
+      </c>
+      <c r="AB143">
+        <v>4</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>9</v>
+      </c>
+      <c r="AE143">
+        <v>1.2</v>
+      </c>
+      <c r="AF143">
+        <v>4.33</v>
+      </c>
+      <c r="AG143">
+        <v>1.63</v>
+      </c>
+      <c r="AH143">
+        <v>2.2</v>
+      </c>
+      <c r="AI143">
+        <v>1.57</v>
+      </c>
+      <c r="AJ143">
+        <v>2.3</v>
+      </c>
+      <c r="AK143">
+        <v>1.2</v>
+      </c>
+      <c r="AL143">
         <v>1.22</v>
       </c>
-      <c r="BJ140">
-        <v>3.8</v>
-      </c>
-      <c r="BK140">
-        <v>1.43</v>
-      </c>
-      <c r="BL140">
-        <v>2.6</v>
-      </c>
-      <c r="BM140">
+      <c r="AM143">
+        <v>1.9</v>
+      </c>
+      <c r="AN143">
+        <v>1.25</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.44</v>
+      </c>
+      <c r="AQ143">
+        <v>0.89</v>
+      </c>
+      <c r="AR143">
+        <v>1.52</v>
+      </c>
+      <c r="AS143">
+        <v>1.26</v>
+      </c>
+      <c r="AT143">
+        <v>2.78</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
+        <v>6</v>
+      </c>
+      <c r="AY143">
+        <v>15</v>
+      </c>
+      <c r="AZ143">
+        <v>13</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>5</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>1.33</v>
+      </c>
+      <c r="BE143">
+        <v>8.4</v>
+      </c>
+      <c r="BF143">
+        <v>3.9</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>1.29</v>
+      </c>
+      <c r="BJ143">
+        <v>3.25</v>
+      </c>
+      <c r="BK143">
+        <v>1.52</v>
+      </c>
+      <c r="BL143">
+        <v>2.32</v>
+      </c>
+      <c r="BM143">
+        <v>1.9</v>
+      </c>
+      <c r="BN143">
+        <v>1.78</v>
+      </c>
+      <c r="BO143">
+        <v>2.52</v>
+      </c>
+      <c r="BP143">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7468216</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>85</v>
+      </c>
+      <c r="H144" t="s">
+        <v>80</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>182</v>
+      </c>
+      <c r="P144" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>2.5</v>
+      </c>
+      <c r="S144">
+        <v>1.83</v>
+      </c>
+      <c r="T144">
+        <v>1.28</v>
+      </c>
+      <c r="U144">
+        <v>3.4</v>
+      </c>
+      <c r="V144">
+        <v>2.29</v>
+      </c>
+      <c r="W144">
+        <v>1.56</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
+      </c>
+      <c r="Y144">
+        <v>1.14</v>
+      </c>
+      <c r="Z144">
+        <v>7.5</v>
+      </c>
+      <c r="AA144">
+        <v>4.75</v>
+      </c>
+      <c r="AB144">
+        <v>1.38</v>
+      </c>
+      <c r="AC144">
+        <v>1.03</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.18</v>
+      </c>
+      <c r="AF144">
+        <v>4.75</v>
+      </c>
+      <c r="AG144">
+        <v>1.57</v>
+      </c>
+      <c r="AH144">
+        <v>2.3</v>
+      </c>
+      <c r="AI144">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144">
+        <v>1.95</v>
+      </c>
+      <c r="AK144">
+        <v>3</v>
+      </c>
+      <c r="AL144">
+        <v>1.12</v>
+      </c>
+      <c r="AM144">
+        <v>1.04</v>
+      </c>
+      <c r="AN144">
         <v>1.75</v>
       </c>
-      <c r="BN140">
+      <c r="AO144">
+        <v>2.5</v>
+      </c>
+      <c r="AP144">
+        <v>1.56</v>
+      </c>
+      <c r="AQ144">
+        <v>2.56</v>
+      </c>
+      <c r="AR144">
+        <v>1.69</v>
+      </c>
+      <c r="AS144">
+        <v>1.67</v>
+      </c>
+      <c r="AT144">
+        <v>3.36</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>1</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>7</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>7</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>6.6</v>
+      </c>
+      <c r="BE144">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF144">
+        <v>1.16</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>1.25</v>
+      </c>
+      <c r="BJ144">
+        <v>3.5</v>
+      </c>
+      <c r="BK144">
+        <v>1.48</v>
+      </c>
+      <c r="BL144">
+        <v>2.42</v>
+      </c>
+      <c r="BM144">
+        <v>1.82</v>
+      </c>
+      <c r="BN144">
+        <v>1.82</v>
+      </c>
+      <c r="BO144">
+        <v>2.42</v>
+      </c>
+      <c r="BP144">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7468221</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45634.60416666666</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>83</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>88</v>
+      </c>
+      <c r="P145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145">
+        <v>3.5</v>
+      </c>
+      <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
+        <v>1.41</v>
+      </c>
+      <c r="U145">
+        <v>2.7</v>
+      </c>
+      <c r="V145">
+        <v>2.8</v>
+      </c>
+      <c r="W145">
+        <v>1.39</v>
+      </c>
+      <c r="X145">
+        <v>6.95</v>
+      </c>
+      <c r="Y145">
+        <v>1.07</v>
+      </c>
+      <c r="Z145">
+        <v>2.85</v>
+      </c>
+      <c r="AA145">
+        <v>3.2</v>
+      </c>
+      <c r="AB145">
+        <v>2.45</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.4</v>
+      </c>
+      <c r="AG145">
+        <v>1.9</v>
+      </c>
+      <c r="AH145">
+        <v>1.83</v>
+      </c>
+      <c r="AI145">
+        <v>1.72</v>
+      </c>
+      <c r="AJ145">
+        <v>2.05</v>
+      </c>
+      <c r="AK145">
+        <v>1.53</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.4</v>
+      </c>
+      <c r="AN145">
+        <v>1.75</v>
+      </c>
+      <c r="AO145">
+        <v>1.33</v>
+      </c>
+      <c r="AP145">
+        <v>1.56</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.32</v>
+      </c>
+      <c r="AS145">
+        <v>1.63</v>
+      </c>
+      <c r="AT145">
+        <v>2.95</v>
+      </c>
+      <c r="AU145">
+        <v>9</v>
+      </c>
+      <c r="AV145">
+        <v>4</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>21</v>
+      </c>
+      <c r="AZ145">
+        <v>16</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>7</v>
+      </c>
+      <c r="BC145">
+        <v>10</v>
+      </c>
+      <c r="BD145">
+        <v>2.28</v>
+      </c>
+      <c r="BE145">
+        <v>6.1</v>
+      </c>
+      <c r="BF145">
+        <v>1.9</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>1.24</v>
+      </c>
+      <c r="BJ145">
+        <v>3.55</v>
+      </c>
+      <c r="BK145">
+        <v>1.45</v>
+      </c>
+      <c r="BL145">
+        <v>2.52</v>
+      </c>
+      <c r="BM145">
+        <v>1.78</v>
+      </c>
+      <c r="BN145">
         <v>1.92</v>
       </c>
-      <c r="BO140">
-        <v>2.25</v>
-      </c>
-      <c r="BP140">
-        <v>1.55</v>
+      <c r="BO145">
+        <v>2.28</v>
+      </c>
+      <c r="BP145">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -553,10 +553,10 @@
     <t>['69', '90']</t>
   </si>
   <si>
-    <t>['74']</t>
+    <t>['16', '33']</t>
   </si>
   <si>
-    <t>['16', '33']</t>
+    <t>['74']</t>
   </si>
   <si>
     <t>['20', '78', '90+2']</t>
@@ -14171,7 +14171,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -22617,7 +22617,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -29373,7 +29373,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7468223</v>
+        <v>7468219</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29382,166 +29382,166 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45632.875</v>
+        <v>45633.39583333334</v>
       </c>
       <c r="F138">
         <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>1</v>
       </c>
       <c r="M138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O138" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="Q138">
+        <v>2.25</v>
+      </c>
+      <c r="R138">
+        <v>2.15</v>
+      </c>
+      <c r="S138">
+        <v>5</v>
+      </c>
+      <c r="T138">
+        <v>1.41</v>
+      </c>
+      <c r="U138">
+        <v>2.7</v>
+      </c>
+      <c r="V138">
+        <v>2.95</v>
+      </c>
+      <c r="W138">
+        <v>1.35</v>
+      </c>
+      <c r="X138">
+        <v>7.4</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>1.64</v>
+      </c>
+      <c r="AA138">
+        <v>3.62</v>
+      </c>
+      <c r="AB138">
+        <v>5.73</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.33</v>
+      </c>
+      <c r="AF138">
+        <v>3.2</v>
+      </c>
+      <c r="AG138">
+        <v>1.93</v>
+      </c>
+      <c r="AH138">
+        <v>1.75</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.11</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>2.2</v>
+      </c>
+      <c r="AN138">
         <v>1.63</v>
       </c>
-      <c r="R138">
-        <v>2.75</v>
-      </c>
-      <c r="S138">
-        <v>7.5</v>
-      </c>
-      <c r="T138">
-        <v>1.24</v>
-      </c>
-      <c r="U138">
-        <v>3.7</v>
-      </c>
-      <c r="V138">
-        <v>2.09</v>
-      </c>
-      <c r="W138">
-        <v>1.67</v>
-      </c>
-      <c r="X138">
-        <v>4.45</v>
-      </c>
-      <c r="Y138">
-        <v>1.17</v>
-      </c>
-      <c r="Z138">
-        <v>1.26</v>
-      </c>
-      <c r="AA138">
-        <v>5.96</v>
-      </c>
-      <c r="AB138">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AC138">
-        <v>1.01</v>
-      </c>
-      <c r="AD138">
-        <v>17</v>
-      </c>
-      <c r="AE138">
-        <v>1.13</v>
-      </c>
-      <c r="AF138">
-        <v>5.25</v>
-      </c>
-      <c r="AG138">
-        <v>1.45</v>
-      </c>
-      <c r="AH138">
-        <v>2.65</v>
-      </c>
-      <c r="AI138">
-        <v>1.87</v>
-      </c>
-      <c r="AJ138">
-        <v>1.87</v>
-      </c>
-      <c r="AK138">
-        <v>1.01</v>
-      </c>
-      <c r="AL138">
-        <v>1.08</v>
-      </c>
-      <c r="AM138">
-        <v>3.75</v>
-      </c>
-      <c r="AN138">
-        <v>1.75</v>
-      </c>
       <c r="AO138">
-        <v>1.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP138">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.33</v>
+        <v>0.6</v>
       </c>
       <c r="AR138">
-        <v>2.06</v>
+        <v>1.11</v>
       </c>
       <c r="AS138">
-        <v>1.31</v>
+        <v>1.03</v>
       </c>
       <c r="AT138">
-        <v>3.37</v>
+        <v>2.14</v>
       </c>
       <c r="AU138">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV138">
         <v>5</v>
       </c>
       <c r="AW138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX138">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY138">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ138">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA138">
         <v>9</v>
       </c>
       <c r="BB138">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC138">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BD138">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="BE138">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF138">
-        <v>7</v>
+        <v>3.95</v>
       </c>
       <c r="BG138">
         <v>0</v>
@@ -29550,28 +29550,28 @@
         <v>0</v>
       </c>
       <c r="BI138">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BJ138">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="BK138">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="BL138">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="BM138">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="BN138">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="BO138">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="BP138">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29588,7 +29588,7 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45632.875</v>
+        <v>45633.5</v>
       </c>
       <c r="F139">
         <v>18</v>
@@ -29618,7 +29618,7 @@
         <v>3</v>
       </c>
       <c r="O139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P139" t="s">
         <v>246</v>
@@ -29785,7 +29785,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7468219</v>
+        <v>7468223</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29794,166 +29794,166 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45632.875</v>
+        <v>45633.625</v>
       </c>
       <c r="F140">
         <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H140" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>180</v>
+      </c>
+      <c r="P140" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q140">
+        <v>1.63</v>
+      </c>
+      <c r="R140">
+        <v>2.75</v>
+      </c>
+      <c r="S140">
+        <v>7.5</v>
+      </c>
+      <c r="T140">
+        <v>1.24</v>
+      </c>
+      <c r="U140">
+        <v>3.7</v>
+      </c>
+      <c r="V140">
+        <v>2.09</v>
+      </c>
+      <c r="W140">
+        <v>1.67</v>
+      </c>
+      <c r="X140">
+        <v>4.45</v>
+      </c>
+      <c r="Y140">
+        <v>1.17</v>
+      </c>
+      <c r="Z140">
+        <v>1.26</v>
+      </c>
+      <c r="AA140">
+        <v>5.96</v>
+      </c>
+      <c r="AB140">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AC140">
+        <v>1.01</v>
+      </c>
+      <c r="AD140">
+        <v>17</v>
+      </c>
+      <c r="AE140">
+        <v>1.13</v>
+      </c>
+      <c r="AF140">
+        <v>5.25</v>
+      </c>
+      <c r="AG140">
+        <v>1.45</v>
+      </c>
+      <c r="AH140">
+        <v>2.65</v>
+      </c>
+      <c r="AI140">
+        <v>1.87</v>
+      </c>
+      <c r="AJ140">
+        <v>1.87</v>
+      </c>
+      <c r="AK140">
+        <v>1.01</v>
+      </c>
+      <c r="AL140">
+        <v>1.08</v>
+      </c>
+      <c r="AM140">
+        <v>3.75</v>
+      </c>
+      <c r="AN140">
+        <v>1.75</v>
+      </c>
+      <c r="AO140">
+        <v>1.5</v>
+      </c>
+      <c r="AP140">
+        <v>1.89</v>
+      </c>
+      <c r="AQ140">
+        <v>1.33</v>
+      </c>
+      <c r="AR140">
+        <v>2.06</v>
+      </c>
+      <c r="AS140">
+        <v>1.31</v>
+      </c>
+      <c r="AT140">
+        <v>3.37</v>
+      </c>
+      <c r="AU140">
         <v>2</v>
-      </c>
-      <c r="L140">
-        <v>1</v>
-      </c>
-      <c r="M140">
-        <v>1</v>
-      </c>
-      <c r="N140">
-        <v>2</v>
-      </c>
-      <c r="O140" t="s">
-        <v>91</v>
-      </c>
-      <c r="P140" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q140">
-        <v>2.25</v>
-      </c>
-      <c r="R140">
-        <v>2.15</v>
-      </c>
-      <c r="S140">
-        <v>5</v>
-      </c>
-      <c r="T140">
-        <v>1.41</v>
-      </c>
-      <c r="U140">
-        <v>2.7</v>
-      </c>
-      <c r="V140">
-        <v>2.95</v>
-      </c>
-      <c r="W140">
-        <v>1.35</v>
-      </c>
-      <c r="X140">
-        <v>7.4</v>
-      </c>
-      <c r="Y140">
-        <v>1.06</v>
-      </c>
-      <c r="Z140">
-        <v>1.64</v>
-      </c>
-      <c r="AA140">
-        <v>3.62</v>
-      </c>
-      <c r="AB140">
-        <v>5.73</v>
-      </c>
-      <c r="AC140">
-        <v>1.05</v>
-      </c>
-      <c r="AD140">
-        <v>8.5</v>
-      </c>
-      <c r="AE140">
-        <v>1.33</v>
-      </c>
-      <c r="AF140">
-        <v>3.2</v>
-      </c>
-      <c r="AG140">
-        <v>1.93</v>
-      </c>
-      <c r="AH140">
-        <v>1.75</v>
-      </c>
-      <c r="AI140">
-        <v>1.95</v>
-      </c>
-      <c r="AJ140">
-        <v>1.8</v>
-      </c>
-      <c r="AK140">
-        <v>1.11</v>
-      </c>
-      <c r="AL140">
-        <v>1.22</v>
-      </c>
-      <c r="AM140">
-        <v>2.2</v>
-      </c>
-      <c r="AN140">
-        <v>1.63</v>
-      </c>
-      <c r="AO140">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AP140">
-        <v>1.56</v>
-      </c>
-      <c r="AQ140">
-        <v>0.6</v>
-      </c>
-      <c r="AR140">
-        <v>1.11</v>
-      </c>
-      <c r="AS140">
-        <v>1.03</v>
-      </c>
-      <c r="AT140">
-        <v>2.14</v>
-      </c>
-      <c r="AU140">
-        <v>8</v>
       </c>
       <c r="AV140">
         <v>5</v>
       </c>
       <c r="AW140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY140">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA140">
         <v>9</v>
       </c>
       <c r="BB140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BC140">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD140">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="BE140">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="BF140">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="BG140">
         <v>0</v>
@@ -29962,28 +29962,28 @@
         <v>0</v>
       </c>
       <c r="BI140">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="BJ140">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="BK140">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="BL140">
-        <v>2.32</v>
+        <v>2.6</v>
       </c>
       <c r="BM140">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="BN140">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="BO140">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="BP140">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="141" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -30129,7 +30129,7 @@
         <v>4</v>
       </c>
       <c r="AV141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW141">
         <v>4</v>
@@ -30141,7 +30141,7 @@
         <v>10</v>
       </c>
       <c r="AZ141">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30347,7 +30347,7 @@
         <v>15</v>
       </c>
       <c r="AZ142">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA142">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,18 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['19', '87', '90+2']</t>
+  </si>
+  <si>
+    <t>['2', '24', '90']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -779,6 +791,15 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['28', '33']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['26', '30', '38']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1420,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1811,7 +1832,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -2223,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2301,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>1.89</v>
@@ -2429,7 +2450,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2510,7 +2531,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3125,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3253,7 +3274,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3459,7 +3480,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3540,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3871,7 +3892,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -4158,7 +4179,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ15">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4361,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>1.22</v>
@@ -4570,7 +4591,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4695,7 +4716,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -5725,7 +5746,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5931,7 +5952,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6137,7 +6158,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6215,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.22</v>
@@ -6343,7 +6364,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6549,7 +6570,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6630,7 +6651,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR27">
         <v>1.06</v>
@@ -7042,7 +7063,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7245,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>1.24</v>
@@ -7660,7 +7681,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>1.64</v>
@@ -7991,7 +8012,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8197,7 +8218,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8403,7 +8424,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8609,7 +8630,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9021,7 +9042,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9433,7 +9454,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9639,7 +9660,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9720,7 +9741,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>1.41</v>
@@ -9845,7 +9866,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9926,7 +9947,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ43">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR43">
         <v>2.07</v>
@@ -10132,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.16</v>
@@ -10335,10 +10356,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ45">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR45">
         <v>1.87</v>
@@ -10541,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
         <v>0.13</v>
@@ -11287,7 +11308,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11699,7 +11720,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12111,7 +12132,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12523,7 +12544,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12729,7 +12750,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -13016,7 +13037,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR58">
         <v>1.32</v>
@@ -13141,7 +13162,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13759,7 +13780,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13965,7 +13986,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14377,7 +14398,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14583,7 +14604,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14789,7 +14810,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -14867,10 +14888,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.08</v>
@@ -14995,7 +15016,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15282,7 +15303,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR69">
         <v>1.16</v>
@@ -15488,7 +15509,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR70">
         <v>1.53</v>
@@ -15691,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ71">
         <v>0.13</v>
@@ -15819,7 +15840,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -16025,7 +16046,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16312,7 +16333,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR74">
         <v>1.81</v>
@@ -16437,7 +16458,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16643,7 +16664,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16724,7 +16745,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ76">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR76">
         <v>1.29</v>
@@ -16849,7 +16870,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -17467,7 +17488,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17673,7 +17694,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17879,7 +17900,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -18085,7 +18106,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18163,7 +18184,7 @@
         <v>0.67</v>
       </c>
       <c r="AP83">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18291,7 +18312,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18369,7 +18390,7 @@
         <v>1.6</v>
       </c>
       <c r="AP84">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
         <v>1.89</v>
@@ -18497,7 +18518,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18578,7 +18599,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR85">
         <v>2.02</v>
@@ -18703,7 +18724,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19115,7 +19136,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19321,7 +19342,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19608,7 +19629,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR90">
         <v>1.39</v>
@@ -19733,7 +19754,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19939,7 +19960,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20020,7 +20041,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ92">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR92">
         <v>1.33</v>
@@ -20351,7 +20372,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20638,7 +20659,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.43</v>
@@ -21175,7 +21196,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21253,7 +21274,7 @@
         <v>0.83</v>
       </c>
       <c r="AP98">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21793,7 +21814,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -22080,7 +22101,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ102">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22901,7 +22922,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ106">
         <v>0.22</v>
@@ -23316,7 +23337,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.5</v>
@@ -23441,7 +23462,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23647,7 +23668,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -24059,7 +24080,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24140,7 +24161,7 @@
         <v>3</v>
       </c>
       <c r="AQ112">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24265,7 +24286,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24471,7 +24492,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24677,7 +24698,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24883,7 +24904,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25089,7 +25110,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25295,7 +25316,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25707,7 +25728,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -25788,7 +25809,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR120">
         <v>1.59</v>
@@ -25994,7 +26015,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ121">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR121">
         <v>1.57</v>
@@ -26119,7 +26140,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26200,7 +26221,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26325,7 +26346,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26403,10 +26424,10 @@
         <v>1.17</v>
       </c>
       <c r="AP123">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.87</v>
@@ -26737,7 +26758,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -26815,7 +26836,7 @@
         <v>2</v>
       </c>
       <c r="AP125">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ125">
         <v>1.89</v>
@@ -27024,7 +27045,7 @@
         <v>3</v>
       </c>
       <c r="AQ126">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR126">
         <v>2.37</v>
@@ -27230,7 +27251,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ127">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR127">
         <v>1.5</v>
@@ -27561,7 +27582,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27767,7 +27788,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -27848,7 +27869,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR130">
         <v>1.93</v>
@@ -28179,7 +28200,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>4.04</v>
@@ -28257,10 +28278,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
         <v>1.24</v>
@@ -28385,7 +28406,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28591,7 +28612,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28672,7 +28693,7 @@
         <v>1</v>
       </c>
       <c r="AQ134">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR134">
         <v>1.51</v>
@@ -28878,7 +28899,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR135">
         <v>1.56</v>
@@ -29003,7 +29024,7 @@
         <v>88</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29081,7 +29102,7 @@
         <v>2.43</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
         <v>2.56</v>
@@ -29415,7 +29436,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29621,7 +29642,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -30033,7 +30054,7 @@
         <v>117</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30239,7 +30260,7 @@
         <v>88</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30651,7 +30672,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -30857,7 +30878,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31014,6 +31035,830 @@
       </c>
       <c r="BP145">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7468229</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>183</v>
+      </c>
+      <c r="P146" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q146">
+        <v>4.33</v>
+      </c>
+      <c r="R146">
+        <v>2.1</v>
+      </c>
+      <c r="S146">
+        <v>2.75</v>
+      </c>
+      <c r="T146">
+        <v>1.44</v>
+      </c>
+      <c r="U146">
+        <v>2.63</v>
+      </c>
+      <c r="V146">
+        <v>3.25</v>
+      </c>
+      <c r="W146">
+        <v>1.33</v>
+      </c>
+      <c r="X146">
+        <v>9</v>
+      </c>
+      <c r="Y146">
+        <v>1.07</v>
+      </c>
+      <c r="Z146">
+        <v>3.9</v>
+      </c>
+      <c r="AA146">
+        <v>3.2</v>
+      </c>
+      <c r="AB146">
+        <v>2</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.33</v>
+      </c>
+      <c r="AF146">
+        <v>3.1</v>
+      </c>
+      <c r="AG146">
+        <v>2.08</v>
+      </c>
+      <c r="AH146">
+        <v>1.73</v>
+      </c>
+      <c r="AI146">
+        <v>1.91</v>
+      </c>
+      <c r="AJ146">
+        <v>1.91</v>
+      </c>
+      <c r="AK146">
+        <v>1.8</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.25</v>
+      </c>
+      <c r="AN146">
+        <v>1.11</v>
+      </c>
+      <c r="AO146">
+        <v>0.89</v>
+      </c>
+      <c r="AP146">
+        <v>1</v>
+      </c>
+      <c r="AQ146">
+        <v>1.1</v>
+      </c>
+      <c r="AR146">
+        <v>1.22</v>
+      </c>
+      <c r="AS146">
+        <v>1.25</v>
+      </c>
+      <c r="AT146">
+        <v>2.47</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>10</v>
+      </c>
+      <c r="BA146">
+        <v>2</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>4</v>
+      </c>
+      <c r="BD146">
+        <v>2.41</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>1.75</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>1.58</v>
+      </c>
+      <c r="BL146">
+        <v>2.29</v>
+      </c>
+      <c r="BM146">
+        <v>1.95</v>
+      </c>
+      <c r="BN146">
+        <v>1.77</v>
+      </c>
+      <c r="BO146">
+        <v>2.44</v>
+      </c>
+      <c r="BP146">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7468225</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>184</v>
+      </c>
+      <c r="P147" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q147">
+        <v>3.8</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>2.73</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.82</v>
+      </c>
+      <c r="V147">
+        <v>2.86</v>
+      </c>
+      <c r="W147">
+        <v>1.39</v>
+      </c>
+      <c r="X147">
+        <v>7.3</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>3.2</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>2.16</v>
+      </c>
+      <c r="AC147">
+        <v>1</v>
+      </c>
+      <c r="AD147">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE147">
+        <v>1.26</v>
+      </c>
+      <c r="AF147">
+        <v>3.08</v>
+      </c>
+      <c r="AG147">
+        <v>1.95</v>
+      </c>
+      <c r="AH147">
+        <v>1.82</v>
+      </c>
+      <c r="AI147">
+        <v>1.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.96</v>
+      </c>
+      <c r="AK147">
+        <v>1.65</v>
+      </c>
+      <c r="AL147">
+        <v>1.29</v>
+      </c>
+      <c r="AM147">
+        <v>1.33</v>
+      </c>
+      <c r="AN147">
+        <v>1</v>
+      </c>
+      <c r="AO147">
+        <v>1.11</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>1.1</v>
+      </c>
+      <c r="AR147">
+        <v>1.26</v>
+      </c>
+      <c r="AS147">
+        <v>1.47</v>
+      </c>
+      <c r="AT147">
+        <v>2.73</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>9</v>
+      </c>
+      <c r="AX147">
+        <v>8</v>
+      </c>
+      <c r="AY147">
+        <v>18</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>8</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>12</v>
+      </c>
+      <c r="BD147">
+        <v>3.06</v>
+      </c>
+      <c r="BE147">
+        <v>9</v>
+      </c>
+      <c r="BF147">
+        <v>1.51</v>
+      </c>
+      <c r="BG147">
+        <v>1.15</v>
+      </c>
+      <c r="BH147">
+        <v>4.33</v>
+      </c>
+      <c r="BI147">
+        <v>1.36</v>
+      </c>
+      <c r="BJ147">
+        <v>3</v>
+      </c>
+      <c r="BK147">
+        <v>1.51</v>
+      </c>
+      <c r="BL147">
+        <v>2.46</v>
+      </c>
+      <c r="BM147">
+        <v>1.77</v>
+      </c>
+      <c r="BN147">
+        <v>1.95</v>
+      </c>
+      <c r="BO147">
+        <v>2.27</v>
+      </c>
+      <c r="BP147">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7468230</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>6</v>
+      </c>
+      <c r="O148" t="s">
+        <v>185</v>
+      </c>
+      <c r="P148" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q148">
+        <v>2.5</v>
+      </c>
+      <c r="R148">
+        <v>2.25</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.9</v>
+      </c>
+      <c r="AA148">
+        <v>3.7</v>
+      </c>
+      <c r="AB148">
+        <v>3.8</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>9</v>
+      </c>
+      <c r="AE148">
+        <v>1.22</v>
+      </c>
+      <c r="AF148">
+        <v>4</v>
+      </c>
+      <c r="AG148">
+        <v>1.73</v>
+      </c>
+      <c r="AH148">
+        <v>2.08</v>
+      </c>
+      <c r="AI148">
+        <v>1.67</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>1.22</v>
+      </c>
+      <c r="AL148">
+        <v>1.22</v>
+      </c>
+      <c r="AM148">
+        <v>1.85</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
+        <v>0.88</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+      <c r="AQ148">
+        <v>0.89</v>
+      </c>
+      <c r="AR148">
+        <v>1.47</v>
+      </c>
+      <c r="AS148">
+        <v>1.5</v>
+      </c>
+      <c r="AT148">
+        <v>2.97</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>9</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>26</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
+        <v>10</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>10</v>
+      </c>
+      <c r="BD148">
+        <v>1.51</v>
+      </c>
+      <c r="BE148">
+        <v>8.5</v>
+      </c>
+      <c r="BF148">
+        <v>3.07</v>
+      </c>
+      <c r="BG148">
+        <v>1.14</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>1.38</v>
+      </c>
+      <c r="BJ148">
+        <v>2.88</v>
+      </c>
+      <c r="BK148">
+        <v>1.63</v>
+      </c>
+      <c r="BL148">
+        <v>2.18</v>
+      </c>
+      <c r="BM148">
+        <v>1.95</v>
+      </c>
+      <c r="BN148">
+        <v>1.77</v>
+      </c>
+      <c r="BO148">
+        <v>2.57</v>
+      </c>
+      <c r="BP148">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7468228</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45640.625</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>76</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>186</v>
+      </c>
+      <c r="P149" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q149">
+        <v>2.05</v>
+      </c>
+      <c r="R149">
+        <v>2.38</v>
+      </c>
+      <c r="S149">
+        <v>6</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.25</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.53</v>
+      </c>
+      <c r="AA149">
+        <v>4.2</v>
+      </c>
+      <c r="AB149">
+        <v>5.75</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>9</v>
+      </c>
+      <c r="AE149">
+        <v>1.22</v>
+      </c>
+      <c r="AF149">
+        <v>4</v>
+      </c>
+      <c r="AG149">
+        <v>1.75</v>
+      </c>
+      <c r="AH149">
+        <v>2.05</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.91</v>
+      </c>
+      <c r="AK149">
+        <v>1.08</v>
+      </c>
+      <c r="AL149">
+        <v>1.17</v>
+      </c>
+      <c r="AM149">
+        <v>2.55</v>
+      </c>
+      <c r="AN149">
+        <v>2.25</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>2.33</v>
+      </c>
+      <c r="AQ149">
+        <v>1.1</v>
+      </c>
+      <c r="AR149">
+        <v>1.91</v>
+      </c>
+      <c r="AS149">
+        <v>1.17</v>
+      </c>
+      <c r="AT149">
+        <v>3.08</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>9</v>
+      </c>
+      <c r="AW149">
+        <v>7</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>20</v>
+      </c>
+      <c r="AZ149">
+        <v>15</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.26</v>
+      </c>
+      <c r="BE149">
+        <v>11</v>
+      </c>
+      <c r="BF149">
+        <v>4.61</v>
+      </c>
+      <c r="BG149">
+        <v>1.13</v>
+      </c>
+      <c r="BH149">
+        <v>5.1</v>
+      </c>
+      <c r="BI149">
+        <v>1.26</v>
+      </c>
+      <c r="BJ149">
+        <v>3.5</v>
+      </c>
+      <c r="BK149">
+        <v>1.54</v>
+      </c>
+      <c r="BL149">
+        <v>2.38</v>
+      </c>
+      <c r="BM149">
+        <v>1.85</v>
+      </c>
+      <c r="BN149">
+        <v>1.85</v>
+      </c>
+      <c r="BO149">
+        <v>2.35</v>
+      </c>
+      <c r="BP149">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,18 @@
     <t>['2', '24', '90']</t>
   </si>
   <si>
+    <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['2', '15', '18', '28', '56', '59', '77']</t>
+  </si>
+  <si>
     <t>['25']</t>
   </si>
   <si>
@@ -611,9 +623,6 @@
   </si>
   <si>
     <t>['45+4', '62']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -727,9 +736,6 @@
     <t>['6', '39']</t>
   </si>
   <si>
-    <t>['52']</t>
-  </si>
-  <si>
     <t>['22', '45+1', '86']</t>
   </si>
   <si>
@@ -800,6 +806,15 @@
   </si>
   <si>
     <t>['26', '30', '38']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['4', '27', '73']</t>
+  </si>
+  <si>
+    <t>['12', '58']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>1.53</v>
@@ -1498,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.6</v>
@@ -1832,7 +1847,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>2.88</v>
@@ -1913,7 +1928,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2244,7 +2259,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>5.5</v>
@@ -2450,7 +2465,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>3.2</v>
@@ -2737,7 +2752,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ8">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3274,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>6.5</v>
@@ -3352,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
         <v>1.89</v>
@@ -3480,7 +3495,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.85</v>
@@ -3767,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3892,7 +3907,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.45</v>
@@ -3973,7 +3988,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4176,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>1.1</v>
@@ -4385,7 +4400,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4588,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -4716,7 +4731,7 @@
         <v>88</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
@@ -4797,7 +4812,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5000,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.22</v>
@@ -5746,7 +5761,7 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>2.6</v>
@@ -5952,7 +5967,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6158,7 +6173,7 @@
         <v>88</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>1.06</v>
@@ -6239,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6364,7 +6379,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>6.23</v>
@@ -6570,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6648,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
         <v>1.1</v>
@@ -6857,7 +6872,7 @@
         <v>3</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -7472,10 +7487,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR31">
         <v>1.76</v>
@@ -7678,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -8012,7 +8027,7 @@
         <v>111</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>1.45</v>
@@ -8218,7 +8233,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.84</v>
@@ -8424,7 +8439,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>5.63</v>
@@ -8630,7 +8645,7 @@
         <v>114</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.58</v>
@@ -9042,7 +9057,7 @@
         <v>88</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>4.75</v>
@@ -9454,7 +9469,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.4</v>
@@ -9535,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9660,7 +9675,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>2.61</v>
@@ -9738,7 +9753,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42">
         <v>0.89</v>
@@ -9866,7 +9881,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>1.69</v>
@@ -9944,7 +9959,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.1</v>
@@ -10565,7 +10580,7 @@
         <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR46">
         <v>0.97</v>
@@ -11183,7 +11198,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR49">
         <v>1.24</v>
@@ -11308,7 +11323,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>5.1</v>
@@ -11720,7 +11735,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12132,7 +12147,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -12210,7 +12225,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54">
         <v>1.33</v>
@@ -12544,7 +12559,7 @@
         <v>125</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>1.85</v>
@@ -12622,10 +12637,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12750,7 +12765,7 @@
         <v>88</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>5.88</v>
@@ -12828,10 +12843,10 @@
         <v>2</v>
       </c>
       <c r="AP57">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -13162,7 +13177,7 @@
         <v>127</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>3.86</v>
@@ -13240,7 +13255,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13449,7 +13464,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR60">
         <v>1.83</v>
@@ -13780,7 +13795,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>1.83</v>
@@ -13858,7 +13873,7 @@
         <v>0.75</v>
       </c>
       <c r="AP62">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -13986,7 +14001,7 @@
         <v>88</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>8.77</v>
@@ -14398,7 +14413,7 @@
         <v>132</v>
       </c>
       <c r="P65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14604,7 +14619,7 @@
         <v>133</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>1.55</v>
@@ -14682,10 +14697,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR66">
         <v>2.05</v>
@@ -14810,7 +14825,7 @@
         <v>134</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -15016,7 +15031,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15715,7 +15730,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ71">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR71">
         <v>1.82</v>
@@ -15840,7 +15855,7 @@
         <v>124</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>1.88</v>
@@ -15918,7 +15933,7 @@
         <v>0.75</v>
       </c>
       <c r="AP72">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16046,7 +16061,7 @@
         <v>88</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -16127,7 +16142,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16458,7 +16473,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16536,7 +16551,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ75">
         <v>0.22</v>
@@ -16664,7 +16679,7 @@
         <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3.7</v>
@@ -16870,7 +16885,7 @@
         <v>88</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>2.47</v>
@@ -16951,7 +16966,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ77">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR77">
         <v>1.45</v>
@@ -17154,7 +17169,7 @@
         <v>0.8</v>
       </c>
       <c r="AP78">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ78">
         <v>0.6</v>
@@ -17360,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17488,7 +17503,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.5</v>
@@ -17694,7 +17709,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17900,7 +17915,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>2.8</v>
@@ -17981,7 +17996,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18106,7 +18121,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>2.6</v>
@@ -18312,7 +18327,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18518,7 +18533,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>1.65</v>
@@ -18596,7 +18611,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>1.1</v>
@@ -18724,7 +18739,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19011,7 +19026,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR87">
         <v>1.73</v>
@@ -19136,7 +19151,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.6</v>
@@ -19342,7 +19357,7 @@
         <v>93</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>6.5</v>
@@ -19423,7 +19438,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ89">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR89">
         <v>1.74</v>
@@ -19754,7 +19769,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>4.7</v>
@@ -19960,7 +19975,7 @@
         <v>88</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>3.8</v>
@@ -20247,7 +20262,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.61</v>
@@ -20372,7 +20387,7 @@
         <v>150</v>
       </c>
       <c r="P94" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20450,7 +20465,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ94">
         <v>1.33</v>
@@ -20656,7 +20671,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ95">
         <v>0.89</v>
@@ -21068,7 +21083,7 @@
         <v>2.5</v>
       </c>
       <c r="AP97">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21196,7 +21211,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -21689,7 +21704,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.67</v>
@@ -21814,7 +21829,7 @@
         <v>156</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>1.83</v>
@@ -21892,7 +21907,7 @@
         <v>1.29</v>
       </c>
       <c r="AP101">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22719,7 +22734,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ105">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23131,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="AQ107">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23462,7 +23477,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.24</v>
@@ -23540,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ109">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR109">
         <v>1.51</v>
@@ -23668,7 +23683,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>4.6</v>
@@ -23746,7 +23761,7 @@
         <v>2.14</v>
       </c>
       <c r="AP110">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ110">
         <v>1.89</v>
@@ -23952,7 +23967,7 @@
         <v>1.71</v>
       </c>
       <c r="AP111">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ111">
         <v>1.33</v>
@@ -24080,7 +24095,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q112">
         <v>1.44</v>
@@ -24286,7 +24301,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>3.25</v>
@@ -24492,7 +24507,7 @@
         <v>99</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>1.73</v>
@@ -24570,7 +24585,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>0.89</v>
@@ -24698,7 +24713,7 @@
         <v>151</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>2.88</v>
@@ -24904,7 +24919,7 @@
         <v>88</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>4.33</v>
@@ -25110,7 +25125,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -25316,7 +25331,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>15</v>
@@ -25397,7 +25412,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ118">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25728,7 +25743,7 @@
         <v>168</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -26140,7 +26155,7 @@
         <v>170</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.25</v>
@@ -26346,7 +26361,7 @@
         <v>171</v>
       </c>
       <c r="P123" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q123">
         <v>1.83</v>
@@ -26630,10 +26645,10 @@
         <v>1.14</v>
       </c>
       <c r="AP124">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR124">
         <v>1.58</v>
@@ -26758,7 +26773,7 @@
         <v>172</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>6.3</v>
@@ -27248,7 +27263,7 @@
         <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ127">
         <v>1.1</v>
@@ -27457,7 +27472,7 @@
         <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR128">
         <v>1.1</v>
@@ -27582,7 +27597,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>2.1</v>
@@ -27660,10 +27675,10 @@
         <v>1.38</v>
       </c>
       <c r="AP129">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ129">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -27788,7 +27803,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>1.5</v>
@@ -27866,7 +27881,7 @@
         <v>1</v>
       </c>
       <c r="AP130">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ130">
         <v>0.89</v>
@@ -28075,7 +28090,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28200,7 +28215,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>4.04</v>
@@ -28406,7 +28421,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3.5</v>
@@ -28487,7 +28502,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR133">
         <v>1.21</v>
@@ -28612,7 +28627,7 @@
         <v>88</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28896,7 +28911,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ135">
         <v>1.1</v>
@@ -29024,7 +29039,7 @@
         <v>88</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>4.5</v>
@@ -29105,7 +29120,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR136">
         <v>2.02</v>
@@ -29308,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ137">
         <v>0.89</v>
@@ -29436,7 +29451,7 @@
         <v>91</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>2.25</v>
@@ -29642,7 +29657,7 @@
         <v>179</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>1.9</v>
@@ -29926,7 +29941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP140">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30054,7 +30069,7 @@
         <v>117</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -30260,7 +30275,7 @@
         <v>88</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -30672,7 +30687,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>6</v>
@@ -30753,7 +30768,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ144">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -30878,7 +30893,7 @@
         <v>88</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q145">
         <v>3.5</v>
@@ -31084,7 +31099,7 @@
         <v>183</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>4.33</v>
@@ -31290,7 +31305,7 @@
         <v>184</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>3.8</v>
@@ -31496,7 +31511,7 @@
         <v>185</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>2.5</v>
@@ -31702,7 +31717,7 @@
         <v>186</v>
       </c>
       <c r="P149" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>2.05</v>
@@ -31858,6 +31873,830 @@
         <v>2.35</v>
       </c>
       <c r="BP149">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7468227</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45641.375</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>71</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>187</v>
+      </c>
+      <c r="P150" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q150">
+        <v>1.95</v>
+      </c>
+      <c r="R150">
+        <v>2.45</v>
+      </c>
+      <c r="S150">
+        <v>5.5</v>
+      </c>
+      <c r="T150">
+        <v>1.29</v>
+      </c>
+      <c r="U150">
+        <v>3.3</v>
+      </c>
+      <c r="V150">
+        <v>2.36</v>
+      </c>
+      <c r="W150">
+        <v>1.54</v>
+      </c>
+      <c r="X150">
+        <v>5.45</v>
+      </c>
+      <c r="Y150">
+        <v>1.12</v>
+      </c>
+      <c r="Z150">
+        <v>1.47</v>
+      </c>
+      <c r="AA150">
+        <v>4.5</v>
+      </c>
+      <c r="AB150">
+        <v>6</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.18</v>
+      </c>
+      <c r="AF150">
+        <v>4.5</v>
+      </c>
+      <c r="AG150">
+        <v>1.62</v>
+      </c>
+      <c r="AH150">
+        <v>2.2</v>
+      </c>
+      <c r="AI150">
+        <v>1.75</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>1.08</v>
+      </c>
+      <c r="AL150">
+        <v>1.15</v>
+      </c>
+      <c r="AM150">
+        <v>2.6</v>
+      </c>
+      <c r="AN150">
+        <v>1.89</v>
+      </c>
+      <c r="AO150">
+        <v>1.22</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>1.1</v>
+      </c>
+      <c r="AR150">
+        <v>1.98</v>
+      </c>
+      <c r="AS150">
+        <v>1.38</v>
+      </c>
+      <c r="AT150">
+        <v>3.36</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
+        <v>19</v>
+      </c>
+      <c r="AZ150">
+        <v>10</v>
+      </c>
+      <c r="BA150">
+        <v>10</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>10</v>
+      </c>
+      <c r="BD150">
+        <v>1.55</v>
+      </c>
+      <c r="BE150">
+        <v>8.5</v>
+      </c>
+      <c r="BF150">
+        <v>2.91</v>
+      </c>
+      <c r="BG150">
+        <v>1.17</v>
+      </c>
+      <c r="BH150">
+        <v>4.5</v>
+      </c>
+      <c r="BI150">
+        <v>1.38</v>
+      </c>
+      <c r="BJ150">
+        <v>2.88</v>
+      </c>
+      <c r="BK150">
+        <v>1.63</v>
+      </c>
+      <c r="BL150">
+        <v>2.18</v>
+      </c>
+      <c r="BM150">
+        <v>1.95</v>
+      </c>
+      <c r="BN150">
+        <v>1.77</v>
+      </c>
+      <c r="BO150">
+        <v>2.57</v>
+      </c>
+      <c r="BP150">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7468224</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45641.47916666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s">
+        <v>85</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>188</v>
+      </c>
+      <c r="P151" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q151">
+        <v>2.48</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>4.05</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.15</v>
+      </c>
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>6.7</v>
+      </c>
+      <c r="Y151">
+        <v>1.09</v>
+      </c>
+      <c r="Z151">
+        <v>1.95</v>
+      </c>
+      <c r="AA151">
+        <v>3.64</v>
+      </c>
+      <c r="AB151">
+        <v>3.54</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.18</v>
+      </c>
+      <c r="AF151">
+        <v>3.72</v>
+      </c>
+      <c r="AG151">
+        <v>1.77</v>
+      </c>
+      <c r="AH151">
+        <v>2.01</v>
+      </c>
+      <c r="AI151">
+        <v>1.65</v>
+      </c>
+      <c r="AJ151">
+        <v>2.11</v>
+      </c>
+      <c r="AK151">
+        <v>1.28</v>
+      </c>
+      <c r="AL151">
+        <v>1.26</v>
+      </c>
+      <c r="AM151">
+        <v>1.8</v>
+      </c>
+      <c r="AN151">
+        <v>1.78</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>1.6</v>
+      </c>
+      <c r="AQ151">
+        <v>1.2</v>
+      </c>
+      <c r="AR151">
+        <v>1.53</v>
+      </c>
+      <c r="AS151">
+        <v>1.2</v>
+      </c>
+      <c r="AT151">
+        <v>2.73</v>
+      </c>
+      <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AV151">
+        <v>6</v>
+      </c>
+      <c r="AW151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>20</v>
+      </c>
+      <c r="AZ151">
+        <v>11</v>
+      </c>
+      <c r="BA151">
+        <v>8</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.64</v>
+      </c>
+      <c r="BE151">
+        <v>8.5</v>
+      </c>
+      <c r="BF151">
+        <v>2.66</v>
+      </c>
+      <c r="BG151">
+        <v>1.14</v>
+      </c>
+      <c r="BH151">
+        <v>4.9</v>
+      </c>
+      <c r="BI151">
+        <v>1.28</v>
+      </c>
+      <c r="BJ151">
+        <v>3.3</v>
+      </c>
+      <c r="BK151">
+        <v>1.46</v>
+      </c>
+      <c r="BL151">
+        <v>2.58</v>
+      </c>
+      <c r="BM151">
+        <v>1.77</v>
+      </c>
+      <c r="BN151">
+        <v>1.95</v>
+      </c>
+      <c r="BO151">
+        <v>2.16</v>
+      </c>
+      <c r="BP151">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7468226</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45641.47916666666</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>80</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>189</v>
+      </c>
+      <c r="P152" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q152">
+        <v>7.6</v>
+      </c>
+      <c r="R152">
+        <v>2.28</v>
+      </c>
+      <c r="S152">
+        <v>1.87</v>
+      </c>
+      <c r="T152">
+        <v>1.38</v>
+      </c>
+      <c r="U152">
+        <v>2.9</v>
+      </c>
+      <c r="V152">
+        <v>2.86</v>
+      </c>
+      <c r="W152">
+        <v>1.39</v>
+      </c>
+      <c r="X152">
+        <v>7.4</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>8.5</v>
+      </c>
+      <c r="AA152">
+        <v>4.6</v>
+      </c>
+      <c r="AB152">
+        <v>1.36</v>
+      </c>
+      <c r="AC152">
+        <v>1.03</v>
+      </c>
+      <c r="AD152">
+        <v>9</v>
+      </c>
+      <c r="AE152">
+        <v>1.24</v>
+      </c>
+      <c r="AF152">
+        <v>3.22</v>
+      </c>
+      <c r="AG152">
+        <v>1.92</v>
+      </c>
+      <c r="AH152">
+        <v>1.85</v>
+      </c>
+      <c r="AI152">
+        <v>2.23</v>
+      </c>
+      <c r="AJ152">
+        <v>1.58</v>
+      </c>
+      <c r="AK152">
+        <v>3</v>
+      </c>
+      <c r="AL152">
+        <v>1.17</v>
+      </c>
+      <c r="AM152">
+        <v>1.05</v>
+      </c>
+      <c r="AN152">
+        <v>1.11</v>
+      </c>
+      <c r="AO152">
+        <v>2.56</v>
+      </c>
+      <c r="AP152">
+        <v>1.3</v>
+      </c>
+      <c r="AQ152">
+        <v>2.3</v>
+      </c>
+      <c r="AR152">
+        <v>1.55</v>
+      </c>
+      <c r="AS152">
+        <v>1.68</v>
+      </c>
+      <c r="AT152">
+        <v>3.23</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>1</v>
+      </c>
+      <c r="AX152">
+        <v>14</v>
+      </c>
+      <c r="AY152">
+        <v>6</v>
+      </c>
+      <c r="AZ152">
+        <v>26</v>
+      </c>
+      <c r="BA152">
+        <v>1</v>
+      </c>
+      <c r="BB152">
+        <v>10</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>4.11</v>
+      </c>
+      <c r="BE152">
+        <v>10</v>
+      </c>
+      <c r="BF152">
+        <v>1.31</v>
+      </c>
+      <c r="BG152">
+        <v>1.18</v>
+      </c>
+      <c r="BH152">
+        <v>4.2</v>
+      </c>
+      <c r="BI152">
+        <v>1.38</v>
+      </c>
+      <c r="BJ152">
+        <v>2.88</v>
+      </c>
+      <c r="BK152">
+        <v>1.63</v>
+      </c>
+      <c r="BL152">
+        <v>2.18</v>
+      </c>
+      <c r="BM152">
+        <v>1.95</v>
+      </c>
+      <c r="BN152">
+        <v>1.77</v>
+      </c>
+      <c r="BO152">
+        <v>2.57</v>
+      </c>
+      <c r="BP152">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7468231</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45641.60416666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>84</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>4</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>7</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>9</v>
+      </c>
+      <c r="O153" t="s">
+        <v>190</v>
+      </c>
+      <c r="P153" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q153">
+        <v>1.4</v>
+      </c>
+      <c r="R153">
+        <v>3.4</v>
+      </c>
+      <c r="S153">
+        <v>15</v>
+      </c>
+      <c r="T153">
+        <v>1.18</v>
+      </c>
+      <c r="U153">
+        <v>4.5</v>
+      </c>
+      <c r="V153">
+        <v>1.91</v>
+      </c>
+      <c r="W153">
+        <v>1.8</v>
+      </c>
+      <c r="X153">
+        <v>4</v>
+      </c>
+      <c r="Y153">
+        <v>1.22</v>
+      </c>
+      <c r="Z153">
+        <v>1.1</v>
+      </c>
+      <c r="AA153">
+        <v>9</v>
+      </c>
+      <c r="AB153">
+        <v>26</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>29</v>
+      </c>
+      <c r="AE153">
+        <v>1.09</v>
+      </c>
+      <c r="AF153">
+        <v>6.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.33</v>
+      </c>
+      <c r="AH153">
+        <v>3.4</v>
+      </c>
+      <c r="AI153">
+        <v>2.25</v>
+      </c>
+      <c r="AJ153">
+        <v>1.57</v>
+      </c>
+      <c r="AK153">
+        <v>1.02</v>
+      </c>
+      <c r="AL153">
+        <v>1.07</v>
+      </c>
+      <c r="AM153">
+        <v>7</v>
+      </c>
+      <c r="AN153">
+        <v>2.56</v>
+      </c>
+      <c r="AO153">
+        <v>0.13</v>
+      </c>
+      <c r="AP153">
+        <v>2.6</v>
+      </c>
+      <c r="AQ153">
+        <v>0.11</v>
+      </c>
+      <c r="AR153">
+        <v>1.75</v>
+      </c>
+      <c r="AS153">
+        <v>0.93</v>
+      </c>
+      <c r="AT153">
+        <v>2.68</v>
+      </c>
+      <c r="AU153">
+        <v>11</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>20</v>
+      </c>
+      <c r="AZ153">
+        <v>6</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>1.19</v>
+      </c>
+      <c r="BE153">
+        <v>11</v>
+      </c>
+      <c r="BF153">
+        <v>5.67</v>
+      </c>
+      <c r="BG153">
+        <v>1.09</v>
+      </c>
+      <c r="BH153">
+        <v>6</v>
+      </c>
+      <c r="BI153">
+        <v>1.2</v>
+      </c>
+      <c r="BJ153">
+        <v>4</v>
+      </c>
+      <c r="BK153">
+        <v>1.54</v>
+      </c>
+      <c r="BL153">
+        <v>2.38</v>
+      </c>
+      <c r="BM153">
+        <v>1.85</v>
+      </c>
+      <c r="BN153">
+        <v>1.85</v>
+      </c>
+      <c r="BO153">
+        <v>2.35</v>
+      </c>
+      <c r="BP153">
         <v>1.55</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -577,16 +577,16 @@
     <t>['2', '24', '90']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['2', '15', '18', '28', '56', '59', '77']</t>
+  </si>
+  <si>
     <t>['51', '78']</t>
   </si>
   <si>
     <t>['52']</t>
-  </si>
-  <si>
-    <t>['46']</t>
-  </si>
-  <si>
-    <t>['2', '15', '18', '28', '56', '59', '77']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -808,13 +808,13 @@
     <t>['26', '30', '38']</t>
   </si>
   <si>
+    <t>['12', '58']</t>
+  </si>
+  <si>
     <t>['34']</t>
   </si>
   <si>
     <t>['4', '27', '73']</t>
-  </si>
-  <si>
-    <t>['12', '58']</t>
   </si>
 </sst>
 </file>
@@ -6585,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -21211,7 +21211,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -25125,7 +25125,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -31881,7 +31881,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7468227</v>
+        <v>7468226</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31890,172 +31890,172 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45641.375</v>
+        <v>45640.875</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O150" t="s">
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="Q150">
-        <v>1.95</v>
+        <v>7.6</v>
       </c>
       <c r="R150">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="S150">
-        <v>5.5</v>
+        <v>1.87</v>
       </c>
       <c r="T150">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="U150">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="V150">
-        <v>2.36</v>
+        <v>2.86</v>
       </c>
       <c r="W150">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="X150">
-        <v>5.45</v>
+        <v>7.4</v>
       </c>
       <c r="Y150">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Z150">
-        <v>1.47</v>
+        <v>8.5</v>
       </c>
       <c r="AA150">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AB150">
-        <v>6</v>
+        <v>1.36</v>
       </c>
       <c r="AC150">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD150">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE150">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF150">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="AG150">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="AH150">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AI150">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="AJ150">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AK150">
-        <v>1.08</v>
+        <v>3</v>
       </c>
       <c r="AL150">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AM150">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="AN150">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="AO150">
-        <v>1.22</v>
+        <v>2.56</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ150">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="AR150">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="AS150">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AT150">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="AU150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV150">
         <v>6</v>
       </c>
       <c r="AW150">
+        <v>1</v>
+      </c>
+      <c r="AX150">
+        <v>14</v>
+      </c>
+      <c r="AY150">
         <v>6</v>
       </c>
-      <c r="AX150">
-        <v>2</v>
-      </c>
-      <c r="AY150">
-        <v>19</v>
-      </c>
       <c r="AZ150">
+        <v>26</v>
+      </c>
+      <c r="BA150">
+        <v>1</v>
+      </c>
+      <c r="BB150">
         <v>10</v>
       </c>
-      <c r="BA150">
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>4.11</v>
+      </c>
+      <c r="BE150">
         <v>10</v>
       </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-      <c r="BC150">
-        <v>10</v>
-      </c>
-      <c r="BD150">
-        <v>1.55</v>
-      </c>
-      <c r="BE150">
-        <v>8.5</v>
-      </c>
       <c r="BF150">
-        <v>2.91</v>
+        <v>1.31</v>
       </c>
       <c r="BG150">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH150">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BI150">
         <v>1.38</v>
@@ -32087,7 +32087,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7468224</v>
+        <v>7468231</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32096,196 +32096,196 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45641.47916666666</v>
+        <v>45640.875</v>
       </c>
       <c r="F151">
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O151" t="s">
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q151">
-        <v>2.48</v>
+        <v>1.4</v>
       </c>
       <c r="R151">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="S151">
-        <v>4.05</v>
+        <v>15</v>
       </c>
       <c r="T151">
+        <v>1.18</v>
+      </c>
+      <c r="U151">
+        <v>4.5</v>
+      </c>
+      <c r="V151">
+        <v>1.91</v>
+      </c>
+      <c r="W151">
+        <v>1.8</v>
+      </c>
+      <c r="X151">
+        <v>4</v>
+      </c>
+      <c r="Y151">
+        <v>1.22</v>
+      </c>
+      <c r="Z151">
+        <v>1.1</v>
+      </c>
+      <c r="AA151">
+        <v>9</v>
+      </c>
+      <c r="AB151">
+        <v>26</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>29</v>
+      </c>
+      <c r="AE151">
+        <v>1.09</v>
+      </c>
+      <c r="AF151">
+        <v>6.5</v>
+      </c>
+      <c r="AG151">
         <v>1.33</v>
       </c>
-      <c r="U151">
-        <v>3.15</v>
-      </c>
-      <c r="V151">
-        <v>2.63</v>
-      </c>
-      <c r="W151">
-        <v>1.45</v>
-      </c>
-      <c r="X151">
-        <v>6.7</v>
-      </c>
-      <c r="Y151">
-        <v>1.09</v>
-      </c>
-      <c r="Z151">
-        <v>1.95</v>
-      </c>
-      <c r="AA151">
-        <v>3.64</v>
-      </c>
-      <c r="AB151">
-        <v>3.54</v>
-      </c>
-      <c r="AC151">
+      <c r="AH151">
+        <v>3.4</v>
+      </c>
+      <c r="AI151">
+        <v>2.25</v>
+      </c>
+      <c r="AJ151">
+        <v>1.57</v>
+      </c>
+      <c r="AK151">
         <v>1.02</v>
       </c>
-      <c r="AD151">
-        <v>10</v>
-      </c>
-      <c r="AE151">
-        <v>1.18</v>
-      </c>
-      <c r="AF151">
-        <v>3.72</v>
-      </c>
-      <c r="AG151">
-        <v>1.77</v>
-      </c>
-      <c r="AH151">
-        <v>2.01</v>
-      </c>
-      <c r="AI151">
-        <v>1.65</v>
-      </c>
-      <c r="AJ151">
-        <v>2.11</v>
-      </c>
-      <c r="AK151">
-        <v>1.28</v>
-      </c>
       <c r="AL151">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AM151">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="AN151">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
       <c r="AO151">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="AP151">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>0.11</v>
       </c>
       <c r="AR151">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS151">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AT151">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="AU151">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV151">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW151">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY151">
         <v>20</v>
       </c>
       <c r="AZ151">
+        <v>6</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>1</v>
+      </c>
+      <c r="BC151">
+        <v>6</v>
+      </c>
+      <c r="BD151">
+        <v>1.19</v>
+      </c>
+      <c r="BE151">
         <v>11</v>
       </c>
-      <c r="BA151">
-        <v>8</v>
-      </c>
-      <c r="BB151">
-        <v>2</v>
-      </c>
-      <c r="BC151">
-        <v>10</v>
-      </c>
-      <c r="BD151">
-        <v>1.64</v>
-      </c>
-      <c r="BE151">
-        <v>8.5</v>
-      </c>
       <c r="BF151">
-        <v>2.66</v>
+        <v>5.67</v>
       </c>
       <c r="BG151">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BH151">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BI151">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BJ151">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BK151">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BL151">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BM151">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BN151">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BO151">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="BP151">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32293,7 +32293,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7468226</v>
+        <v>7468227</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32302,172 +32302,172 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45641.47916666666</v>
+        <v>45641.375</v>
       </c>
       <c r="F152">
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O152" t="s">
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="Q152">
-        <v>7.6</v>
+        <v>1.95</v>
       </c>
       <c r="R152">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="S152">
-        <v>1.87</v>
+        <v>5.5</v>
       </c>
       <c r="T152">
+        <v>1.29</v>
+      </c>
+      <c r="U152">
+        <v>3.3</v>
+      </c>
+      <c r="V152">
+        <v>2.36</v>
+      </c>
+      <c r="W152">
+        <v>1.54</v>
+      </c>
+      <c r="X152">
+        <v>5.45</v>
+      </c>
+      <c r="Y152">
+        <v>1.12</v>
+      </c>
+      <c r="Z152">
+        <v>1.47</v>
+      </c>
+      <c r="AA152">
+        <v>4.5</v>
+      </c>
+      <c r="AB152">
+        <v>6</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.18</v>
+      </c>
+      <c r="AF152">
+        <v>4.5</v>
+      </c>
+      <c r="AG152">
+        <v>1.62</v>
+      </c>
+      <c r="AH152">
+        <v>2.2</v>
+      </c>
+      <c r="AI152">
+        <v>1.75</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.08</v>
+      </c>
+      <c r="AL152">
+        <v>1.15</v>
+      </c>
+      <c r="AM152">
+        <v>2.6</v>
+      </c>
+      <c r="AN152">
+        <v>1.89</v>
+      </c>
+      <c r="AO152">
+        <v>1.22</v>
+      </c>
+      <c r="AP152">
+        <v>2</v>
+      </c>
+      <c r="AQ152">
+        <v>1.1</v>
+      </c>
+      <c r="AR152">
+        <v>1.98</v>
+      </c>
+      <c r="AS152">
         <v>1.38</v>
       </c>
-      <c r="U152">
-        <v>2.9</v>
-      </c>
-      <c r="V152">
-        <v>2.86</v>
-      </c>
-      <c r="W152">
-        <v>1.39</v>
-      </c>
-      <c r="X152">
-        <v>7.4</v>
-      </c>
-      <c r="Y152">
-        <v>1.07</v>
-      </c>
-      <c r="Z152">
-        <v>8.5</v>
-      </c>
-      <c r="AA152">
-        <v>4.6</v>
-      </c>
-      <c r="AB152">
-        <v>1.36</v>
-      </c>
-      <c r="AC152">
-        <v>1.03</v>
-      </c>
-      <c r="AD152">
-        <v>9</v>
-      </c>
-      <c r="AE152">
-        <v>1.24</v>
-      </c>
-      <c r="AF152">
-        <v>3.22</v>
-      </c>
-      <c r="AG152">
-        <v>1.92</v>
-      </c>
-      <c r="AH152">
-        <v>1.85</v>
-      </c>
-      <c r="AI152">
-        <v>2.23</v>
-      </c>
-      <c r="AJ152">
-        <v>1.58</v>
-      </c>
-      <c r="AK152">
-        <v>3</v>
-      </c>
-      <c r="AL152">
-        <v>1.17</v>
-      </c>
-      <c r="AM152">
-        <v>1.05</v>
-      </c>
-      <c r="AN152">
-        <v>1.11</v>
-      </c>
-      <c r="AO152">
-        <v>2.56</v>
-      </c>
-      <c r="AP152">
-        <v>1.3</v>
-      </c>
-      <c r="AQ152">
-        <v>2.3</v>
-      </c>
-      <c r="AR152">
-        <v>1.55</v>
-      </c>
-      <c r="AS152">
-        <v>1.68</v>
-      </c>
       <c r="AT152">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AU152">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV152">
         <v>6</v>
       </c>
       <c r="AW152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX152">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AY152">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AZ152">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="BA152">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
         <v>10</v>
       </c>
-      <c r="BC152">
-        <v>11</v>
-      </c>
       <c r="BD152">
-        <v>4.11</v>
+        <v>1.55</v>
       </c>
       <c r="BE152">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF152">
-        <v>1.31</v>
+        <v>2.91</v>
       </c>
       <c r="BG152">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH152">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI152">
         <v>1.38</v>
@@ -32499,7 +32499,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7468231</v>
+        <v>7468224</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32508,34 +32508,34 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45641.60416666666</v>
+        <v>45641.47916666666</v>
       </c>
       <c r="F153">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H153" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
         <v>4</v>
-      </c>
-      <c r="J153">
-        <v>1</v>
-      </c>
-      <c r="K153">
-        <v>5</v>
-      </c>
-      <c r="L153">
-        <v>7</v>
-      </c>
-      <c r="M153">
-        <v>2</v>
-      </c>
-      <c r="N153">
-        <v>9</v>
       </c>
       <c r="O153" t="s">
         <v>190</v>
@@ -32544,160 +32544,160 @@
         <v>266</v>
       </c>
       <c r="Q153">
-        <v>1.4</v>
+        <v>2.48</v>
       </c>
       <c r="R153">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="S153">
-        <v>15</v>
+        <v>4.05</v>
       </c>
       <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.15</v>
+      </c>
+      <c r="V153">
+        <v>2.63</v>
+      </c>
+      <c r="W153">
+        <v>1.45</v>
+      </c>
+      <c r="X153">
+        <v>6.7</v>
+      </c>
+      <c r="Y153">
+        <v>1.09</v>
+      </c>
+      <c r="Z153">
+        <v>1.95</v>
+      </c>
+      <c r="AA153">
+        <v>3.64</v>
+      </c>
+      <c r="AB153">
+        <v>3.54</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
         <v>1.18</v>
       </c>
-      <c r="U153">
-        <v>4.5</v>
-      </c>
-      <c r="V153">
-        <v>1.91</v>
-      </c>
-      <c r="W153">
+      <c r="AF153">
+        <v>3.72</v>
+      </c>
+      <c r="AG153">
+        <v>1.77</v>
+      </c>
+      <c r="AH153">
+        <v>2.01</v>
+      </c>
+      <c r="AI153">
+        <v>1.65</v>
+      </c>
+      <c r="AJ153">
+        <v>2.11</v>
+      </c>
+      <c r="AK153">
+        <v>1.28</v>
+      </c>
+      <c r="AL153">
+        <v>1.26</v>
+      </c>
+      <c r="AM153">
         <v>1.8</v>
       </c>
-      <c r="X153">
-        <v>4</v>
-      </c>
-      <c r="Y153">
-        <v>1.22</v>
-      </c>
-      <c r="Z153">
-        <v>1.1</v>
-      </c>
-      <c r="AA153">
-        <v>9</v>
-      </c>
-      <c r="AB153">
-        <v>26</v>
-      </c>
-      <c r="AC153">
-        <v>1.01</v>
-      </c>
-      <c r="AD153">
-        <v>29</v>
-      </c>
-      <c r="AE153">
-        <v>1.09</v>
-      </c>
-      <c r="AF153">
-        <v>6.5</v>
-      </c>
-      <c r="AG153">
-        <v>1.33</v>
-      </c>
-      <c r="AH153">
-        <v>3.4</v>
-      </c>
-      <c r="AI153">
-        <v>2.25</v>
-      </c>
-      <c r="AJ153">
-        <v>1.57</v>
-      </c>
-      <c r="AK153">
-        <v>1.02</v>
-      </c>
-      <c r="AL153">
-        <v>1.07</v>
-      </c>
-      <c r="AM153">
-        <v>7</v>
-      </c>
       <c r="AN153">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="AO153">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="AP153">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AQ153">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR153">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS153">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AT153">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="AU153">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV153">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY153">
         <v>20</v>
       </c>
       <c r="AZ153">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA153">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC153">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD153">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="BE153">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF153">
-        <v>5.67</v>
+        <v>2.66</v>
       </c>
       <c r="BG153">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BH153">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="BI153">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BJ153">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BK153">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BL153">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="BM153">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BN153">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BO153">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="BP153">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Czech Republic First League_20242025.xlsx
@@ -577,16 +577,16 @@
     <t>['2', '24', '90']</t>
   </si>
   <si>
+    <t>['51', '78']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['46']</t>
   </si>
   <si>
     <t>['2', '15', '18', '28', '56', '59', '77']</t>
-  </si>
-  <si>
-    <t>['51', '78']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -808,13 +808,13 @@
     <t>['26', '30', '38']</t>
   </si>
   <si>
-    <t>['12', '58']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
     <t>['4', '27', '73']</t>
+  </si>
+  <si>
+    <t>['12', '58']</t>
   </si>
 </sst>
 </file>
@@ -6585,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -21211,7 +21211,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q98">
         <v>3.7</v>
@@ -25125,7 +25125,7 @@
         <v>166</v>
       </c>
       <c r="P117" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>2.25</v>
@@ -31881,7 +31881,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7468226</v>
+        <v>7468227</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31890,172 +31890,172 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45640.875</v>
+        <v>45641.375</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H150" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I150">
         <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O150" t="s">
         <v>187</v>
       </c>
       <c r="P150" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="Q150">
-        <v>7.6</v>
+        <v>1.95</v>
       </c>
       <c r="R150">
-        <v>2.28</v>
+        <v>2.45</v>
       </c>
       <c r="S150">
-        <v>1.87</v>
+        <v>5.5</v>
       </c>
       <c r="T150">
+        <v>1.29</v>
+      </c>
+      <c r="U150">
+        <v>3.3</v>
+      </c>
+      <c r="V150">
+        <v>2.36</v>
+      </c>
+      <c r="W150">
+        <v>1.54</v>
+      </c>
+      <c r="X150">
+        <v>5.45</v>
+      </c>
+      <c r="Y150">
+        <v>1.12</v>
+      </c>
+      <c r="Z150">
+        <v>1.47</v>
+      </c>
+      <c r="AA150">
+        <v>4.5</v>
+      </c>
+      <c r="AB150">
+        <v>6</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.18</v>
+      </c>
+      <c r="AF150">
+        <v>4.5</v>
+      </c>
+      <c r="AG150">
+        <v>1.62</v>
+      </c>
+      <c r="AH150">
+        <v>2.2</v>
+      </c>
+      <c r="AI150">
+        <v>1.75</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>1.08</v>
+      </c>
+      <c r="AL150">
+        <v>1.15</v>
+      </c>
+      <c r="AM150">
+        <v>2.6</v>
+      </c>
+      <c r="AN150">
+        <v>1.89</v>
+      </c>
+      <c r="AO150">
+        <v>1.22</v>
+      </c>
+      <c r="AP150">
+        <v>2</v>
+      </c>
+      <c r="AQ150">
+        <v>1.1</v>
+      </c>
+      <c r="AR150">
+        <v>1.98</v>
+      </c>
+      <c r="AS150">
         <v>1.38</v>
       </c>
-      <c r="U150">
-        <v>2.9</v>
-      </c>
-      <c r="V150">
-        <v>2.86</v>
-      </c>
-      <c r="W150">
-        <v>1.39</v>
-      </c>
-      <c r="X150">
-        <v>7.4</v>
-      </c>
-      <c r="Y150">
-        <v>1.07</v>
-      </c>
-      <c r="Z150">
-        <v>8.5</v>
-      </c>
-      <c r="AA150">
-        <v>4.6</v>
-      </c>
-      <c r="AB150">
-        <v>1.36</v>
-      </c>
-      <c r="AC150">
-        <v>1.03</v>
-      </c>
-      <c r="AD150">
-        <v>9</v>
-      </c>
-      <c r="AE150">
-        <v>1.24</v>
-      </c>
-      <c r="AF150">
-        <v>3.22</v>
-      </c>
-      <c r="AG150">
-        <v>1.92</v>
-      </c>
-      <c r="AH150">
-        <v>1.85</v>
-      </c>
-      <c r="AI150">
-        <v>2.23</v>
-      </c>
-      <c r="AJ150">
-        <v>1.58</v>
-      </c>
-      <c r="AK150">
-        <v>3</v>
-      </c>
-      <c r="AL150">
-        <v>1.17</v>
-      </c>
-      <c r="AM150">
-        <v>1.05</v>
-      </c>
-      <c r="AN150">
-        <v>1.11</v>
-      </c>
-      <c r="AO150">
-        <v>2.56</v>
-      </c>
-      <c r="AP150">
-        <v>1.3</v>
-      </c>
-      <c r="AQ150">
-        <v>2.3</v>
-      </c>
-      <c r="AR150">
-        <v>1.55</v>
-      </c>
-      <c r="AS150">
-        <v>1.68</v>
-      </c>
       <c r="AT150">
-        <v>3.23</v>
+        <v>3.36</v>
       </c>
       <c r="AU150">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV150">
         <v>6</v>
       </c>
       <c r="AW150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX150">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AY150">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AZ150">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="BA150">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
         <v>10</v>
       </c>
-      <c r="BC150">
-        <v>11</v>
-      </c>
       <c r="BD150">
-        <v>4.11</v>
+        <v>1.55</v>
       </c>
       <c r="BE150">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF150">
-        <v>1.31</v>
+        <v>2.91</v>
       </c>
       <c r="BG150">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH150">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BI150">
         <v>1.38</v>
@@ -32087,7 +32087,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7468231</v>
+        <v>7468224</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32096,196 +32096,196 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45640.875</v>
+        <v>45641.47916666666</v>
       </c>
       <c r="F151">
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H151" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
         <v>4</v>
-      </c>
-      <c r="J151">
-        <v>1</v>
-      </c>
-      <c r="K151">
-        <v>5</v>
-      </c>
-      <c r="L151">
-        <v>7</v>
-      </c>
-      <c r="M151">
-        <v>2</v>
-      </c>
-      <c r="N151">
-        <v>9</v>
       </c>
       <c r="O151" t="s">
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q151">
-        <v>1.4</v>
+        <v>2.48</v>
       </c>
       <c r="R151">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="S151">
-        <v>15</v>
+        <v>4.05</v>
       </c>
       <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.15</v>
+      </c>
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>6.7</v>
+      </c>
+      <c r="Y151">
+        <v>1.09</v>
+      </c>
+      <c r="Z151">
+        <v>1.95</v>
+      </c>
+      <c r="AA151">
+        <v>3.64</v>
+      </c>
+      <c r="AB151">
+        <v>3.54</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
         <v>1.18</v>
       </c>
-      <c r="U151">
-        <v>4.5</v>
-      </c>
-      <c r="V151">
-        <v>1.91</v>
-      </c>
-      <c r="W151">
+      <c r="AF151">
+        <v>3.72</v>
+      </c>
+      <c r="AG151">
+        <v>1.77</v>
+      </c>
+      <c r="AH151">
+        <v>2.01</v>
+      </c>
+      <c r="AI151">
+        <v>1.65</v>
+      </c>
+      <c r="AJ151">
+        <v>2.11</v>
+      </c>
+      <c r="AK151">
+        <v>1.28</v>
+      </c>
+      <c r="AL151">
+        <v>1.26</v>
+      </c>
+      <c r="AM151">
         <v>1.8</v>
       </c>
-      <c r="X151">
-        <v>4</v>
-      </c>
-      <c r="Y151">
-        <v>1.22</v>
-      </c>
-      <c r="Z151">
-        <v>1.1</v>
-      </c>
-      <c r="AA151">
-        <v>9</v>
-      </c>
-      <c r="AB151">
-        <v>26</v>
-      </c>
-      <c r="AC151">
-        <v>1.01</v>
-      </c>
-      <c r="AD151">
-        <v>29</v>
-      </c>
-      <c r="AE151">
-        <v>1.09</v>
-      </c>
-      <c r="AF151">
-        <v>6.5</v>
-      </c>
-      <c r="AG151">
-        <v>1.33</v>
-      </c>
-      <c r="AH151">
-        <v>3.4</v>
-      </c>
-      <c r="AI151">
-        <v>2.25</v>
-      </c>
-      <c r="AJ151">
-        <v>1.57</v>
-      </c>
-      <c r="AK151">
-        <v>1.02</v>
-      </c>
-      <c r="AL151">
-        <v>1.07</v>
-      </c>
-      <c r="AM151">
-        <v>7</v>
-      </c>
       <c r="AN151">
-        <v>2.56</v>
+        <v>1.78</v>
       </c>
       <c r="AO151">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="AP151">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AQ151">
-        <v>0.11</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AS151">
-        <v>0.93</v>
+        <v>1.2</v>
       </c>
       <c r="AT151">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="AU151">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV151">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW151">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY151">
         <v>20</v>
       </c>
       <c r="AZ151">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA151">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC151">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD151">
-        <v>1.19</v>
+        <v>1.64</v>
       </c>
       <c r="BE151">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="BF151">
-        <v>5.67</v>
+        <v>2.66</v>
       </c>
       <c r="BG151">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BH151">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="BI151">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BJ151">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BK151">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="BL151">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="BM151">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BN151">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BO151">
-        <v>2.35</v>
+        <v>2.16</v>
       </c>
       <c r="BP151">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32293,7 +32293,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7468227</v>
+        <v>7468226</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32302,172 +32302,172 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45641.375</v>
+        <v>45641.47916666666</v>
       </c>
       <c r="F152">
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H152" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I152">
         <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O152" t="s">
         <v>189</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="Q152">
-        <v>1.95</v>
+        <v>7.6</v>
       </c>
       <c r="R152">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="S152">
-        <v>5.5</v>
+        <v>1.87</v>
       </c>
       <c r="T152">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="U152">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="V152">
-        <v>2.36</v>
+        <v>2.86</v>
       </c>
       <c r="W152">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="X152">
-        <v>5.45</v>
+        <v>7.4</v>
       </c>
       <c r="Y152">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Z152">
-        <v>1.47</v>
+        <v>8.5</v>
       </c>
       <c r="AA152">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AB152">
-        <v>6</v>
+        <v>1.36</v>
       </c>
       <c r="AC152">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD152">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE152">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF152">
-        <v>4.5</v>
+        <v>3.22</v>
       </c>
       <c r="AG152">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="AH152">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AI152">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="AJ152">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AK152">
-        <v>1.08</v>
+        <v>3</v>
       </c>
       <c r="AL152">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AM152">
-        <v>2.6</v>
+        <v>1.05</v>
       </c>
       <c r="AN152">
-        <v>1.89</v>
+        <v>1.11</v>
       </c>
       <c r="AO152">
-        <v>1.22</v>
+        <v>2.56</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AQ152">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="AR152">
-        <v>1.98</v>
+        <v>1.55</v>
       </c>
       <c r="AS152">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="AT152">
-        <v>3.36</v>
+        <v>3.23</v>
       </c>
       <c r="AU152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV152">
         <v>6</v>
       </c>
       <c r="AW152">
+        <v>1</v>
+      </c>
+      <c r="AX152">
+        <v>14</v>
+      </c>
+      <c r="AY152">
         <v>6</v>
       </c>
-      <c r="AX152">
-        <v>2</v>
-      </c>
-      <c r="AY152">
-        <v>19</v>
-      </c>
       <c r="AZ152">
+        <v>26</v>
+      </c>
+      <c r="BA152">
+        <v>1</v>
+      </c>
+      <c r="BB152">
+        <v>10</v>
+      </c>
+      <c r="BC152">
         <v>11</v>
       </c>
-      <c r="BA152">
+      <c r="BD152">
+        <v>4.11</v>
+      </c>
+      <c r="BE152">
         <v>10</v>
       </c>
-      <c r="BB152">
-        <v>0</v>
-      </c>
-      <c r="BC152">
-        <v>10</v>
-      </c>
-      <c r="BD152">
-        <v>1.55</v>
-      </c>
-      <c r="BE152">
-        <v>8.5</v>
-      </c>
       <c r="BF152">
-        <v>2.91</v>
+        <v>1.31</v>
       </c>
       <c r="BG152">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH152">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BI152">
         <v>1.38</v>
@@ -32499,7 +32499,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7468224</v>
+        <v>7468231</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32508,34 +32508,34 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45641.47916666666</v>
+        <v>45641.60416666666</v>
       </c>
       <c r="F153">
         <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H153" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O153" t="s">
         <v>190</v>
@@ -32544,160 +32544,160 @@
         <v>266</v>
       </c>
       <c r="Q153">
-        <v>2.48</v>
+        <v>1.4</v>
       </c>
       <c r="R153">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="S153">
-        <v>4.05</v>
+        <v>15</v>
       </c>
       <c r="T153">
+        <v>1.18</v>
+      </c>
+      <c r="U153">
+        <v>4.5</v>
+      </c>
+      <c r="V153">
+        <v>1.91</v>
+      </c>
+      <c r="W153">
+        <v>1.8</v>
+      </c>
+      <c r="X153">
+        <v>4</v>
+      </c>
+      <c r="Y153">
+        <v>1.22</v>
+      </c>
+      <c r="Z153">
+        <v>1.1</v>
+      </c>
+      <c r="AA153">
+        <v>9</v>
+      </c>
+      <c r="AB153">
+        <v>26</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>29</v>
+      </c>
+      <c r="AE153">
+        <v>1.09</v>
+      </c>
+      <c r="AF153">
+        <v>6.5</v>
+      </c>
+      <c r="AG153">
         <v>1.33</v>
       </c>
-      <c r="U153">
-        <v>3.15</v>
-      </c>
-      <c r="V153">
-        <v>2.63</v>
-      </c>
-      <c r="W153">
-        <v>1.45</v>
-      </c>
-      <c r="X153">
-        <v>6.7</v>
-      </c>
-      <c r="Y153">
-        <v>1.09</v>
-      </c>
-      <c r="Z153">
-        <v>1.95</v>
-      </c>
-      <c r="AA153">
-        <v>3.64</v>
-      </c>
-      <c r="AB153">
-        <v>3.54</v>
-      </c>
-      <c r="AC153">
+      <c r="AH153">
+        <v>3.4</v>
+      </c>
+      <c r="AI153">
+        <v>2.25</v>
+      </c>
+      <c r="AJ153">
+        <v>1.57</v>
+      </c>
+      <c r="AK153">
         <v>1.02</v>
       </c>
-      <c r="AD153">
-        <v>10</v>
-      </c>
-      <c r="AE153">
-        <v>1.18</v>
-      </c>
-      <c r="AF153">
-        <v>3.72</v>
-      </c>
-      <c r="AG153">
-        <v>1.77</v>
-      </c>
-      <c r="AH153">
-        <v>2.01</v>
-      </c>
-      <c r="AI153">
-        <v>1.65</v>
-      </c>
-      <c r="AJ153">
-        <v>2.11</v>
-      </c>
-      <c r="AK153">
-        <v>1.28</v>
-      </c>
       <c r="AL153">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="AM153">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="AN153">
-        <v>1.78</v>
+        <v>2.56</v>
       </c>
       <c r="AO153">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="AP153">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AQ153">
-        <v>1.2</v>
+        <v>0.11</v>
       </c>
       <c r="AR153">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AS153">
-        <v>1.2</v>
+        <v>0.93</v>
       </c>
       <c r="AT153">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="AU153">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV153">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY153">
         <v>20</v>
       </c>
       <c r="AZ153">
+        <v>6</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>1.19</v>
+      </c>
+      <c r="BE153">
         <v>11</v>
       </c>
-      <c r="BA153">
-        <v>8</v>
-      </c>
-      <c r="BB153">
-        <v>2</v>
-      </c>
-      <c r="BC153">
-        <v>10</v>
-      </c>
-      <c r="BD153">
-        <v>1.64</v>
-      </c>
-      <c r="BE153">
-        <v>8.5</v>
-      </c>
       <c r="BF153">
-        <v>2.66</v>
+        <v>5.67</v>
       </c>
       <c r="BG153">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BH153">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="BI153">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="BJ153">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BK153">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BL153">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="BM153">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="BN153">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BO153">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="BP153">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
